--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FB122-866E-4677-A8B3-2283FDC1D8A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C670B01-576A-47A7-89BC-DED7AE00122B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="1245" windowWidth="28335" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="168">
   <si>
     <t>设防烈度</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -239,9 +240,6 @@
   </si>
   <si>
     <t>附属楼</t>
-  </si>
-  <si>
-    <t>户外主要构筑物工程</t>
   </si>
   <si>
     <r>
@@ -767,6 +765,106 @@
     <t>area</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Innerwallarea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walllength</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stonemasonryfoot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stonemasonrydrainageditch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roadarea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenarea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comprehensivebuilding</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipmentbuilding</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affiliatedbuilding</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30concrete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15concretecushion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintransformerfoundation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccidentoilpoolC30concrete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccidentoilpoolC15cushion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accidentoilpoolreinforcement</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FoundationC25Concrete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outdoorstructure</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precastconcretepole</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightningrod</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slopearea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -776,7 +874,7 @@
     <numFmt numFmtId="176" formatCode="#&quot;MW&quot;"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,24 +940,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -957,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1010,12 +1094,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,13 +1103,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,12 +1143,50 @@
       <sheetName val="道路基础数据"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="2">
           <cell r="G2">
             <v>0.8</v>
           </cell>
+          <cell r="H2">
+            <v>0.19999999999999996</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0.8</v>
+          </cell>
+          <cell r="F5">
+            <v>0.19999999999999996</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="成果输出"/>
+      <sheetName val="条件输入"/>
+      <sheetName val="风机基础数据"/>
+      <sheetName val="升压站基础数据"/>
+      <sheetName val="道路基础数据"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
           <cell r="H2">
             <v>0.19999999999999996</v>
           </cell>
@@ -1081,12 +1197,6 @@
           </cell>
           <cell r="E5">
             <v>0.8</v>
-          </cell>
-          <cell r="F5">
-            <v>0.19999999999999996</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>无</v>
           </cell>
         </row>
       </sheetData>
@@ -1361,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1384,208 +1494,215 @@
     <col min="23" max="23" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:23" ht="25.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="25.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="15">
+      <c r="A2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="4">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>180</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <f>PI()*E3^2</f>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P3" s="8">
+        <f>PI()*E3^2*H3+PI()*G3^2*J3+PI()*(E3^2+F3^2+(E3^2*F3^2)^0.5)*I3/3</f>
+        <v>466.68358869076371</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>PI()*(E3+0.1)^2*0.15</f>
+        <v>43.429376843225299</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R34" si="0">120*(H3+I3+J3+1)</f>
+        <v>480</v>
+      </c>
+      <c r="S3" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15">
-      <c r="A3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>128</v>
+      <c r="U3" s="8">
+        <f>PI()*(E3+1.3)^2*(H3+I3+J3+0.15)*[1]条件输入!$G$2</f>
+        <v>923.41712512907804</v>
+      </c>
+      <c r="V3" s="8">
+        <f>PI()*(E3+1.3)^2*(H3+I3+J3+0.15)*[1]条件输入!$H$2</f>
+        <v>230.85428128226945</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" ref="W3:W34" si="1">U3+V3-P3-Q3</f>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1599,10 +1716,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E4" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
@@ -1614,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J4" s="6">
         <v>0.8</v>
@@ -1633,34 +1750,34 @@
       </c>
       <c r="O4" s="8">
         <f>PI()*E4^2</f>
-        <v>283.5287369864788</v>
+        <v>314.15926535897933</v>
       </c>
       <c r="P4" s="8">
         <f>PI()*E4^2*H4+PI()*G4^2*J4+PI()*(E4^2+F4^2+(E4^2*F4^2)^0.5)*I4/3</f>
-        <v>466.68358869076371</v>
+        <v>540.56337592768375</v>
       </c>
       <c r="Q4" s="8">
         <f>PI()*(E4+0.1)^2*0.15</f>
-        <v>43.429376843225299</v>
+        <v>48.071079988904216</v>
       </c>
       <c r="R4" s="8">
-        <f>120*(H4+I4+J4+1)</f>
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>504</v>
       </c>
       <c r="S4" s="9">
         <v>2</v>
       </c>
       <c r="U4" s="8">
         <f>PI()*(E4+1.3)^2*(H4+I4+J4+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1075.0819087108405</v>
       </c>
       <c r="V4" s="8">
         <f>PI()*(E4+1.3)^2*(H4+I4+J4+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>268.77047717771006</v>
       </c>
       <c r="W4" s="8">
-        <f>U4+V4-P4-Q4</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="1"/>
+        <v>755.21792997196258</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1674,10 +1791,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E5" s="6">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
@@ -1689,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="6">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J5" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -1707,35 +1824,35 @@
         <v>0</v>
       </c>
       <c r="O5" s="8">
-        <f>PI()*E5^2</f>
-        <v>314.15926535897933</v>
+        <f t="shared" ref="O5:O68" si="2">PI()*E5^2</f>
+        <v>330.06357816777762</v>
       </c>
       <c r="P5" s="8">
-        <f>PI()*E5^2*H5+PI()*G5^2*J5+PI()*(E5^2+F5^2+(E5^2*F5^2)^0.5)*I5/3</f>
-        <v>540.56337592768375</v>
+        <f t="shared" ref="P5:P26" si="3">PI()*E5^2*H5+PI()*G5^2*J5+PI()*(E5^2+F5^2+(E5^2*F5^2)^0.5)*I5/3</f>
+        <v>600.97358466233754</v>
       </c>
       <c r="Q5" s="8">
-        <f>PI()*(E5+0.1)^2*0.15</f>
-        <v>48.071079988904216</v>
+        <f t="shared" ref="Q5:Q26" si="4">PI()*(E5+0.1)^2*0.15</f>
+        <v>50.480288855125885</v>
       </c>
       <c r="R5" s="8">
-        <f>120*(H5+I5+J5+1)</f>
-        <v>504</v>
+        <f t="shared" si="0"/>
+        <v>552</v>
       </c>
       <c r="S5" s="9">
         <v>2</v>
       </c>
       <c r="U5" s="8">
         <f>PI()*(E5+1.3)^2*(H5+I5+J5+0.15)*[1]条件输入!$G$2</f>
-        <v>1075.0819087108405</v>
+        <v>1257.2889419115372</v>
       </c>
       <c r="V5" s="8">
         <f>PI()*(E5+1.3)^2*(H5+I5+J5+0.15)*[1]条件输入!$H$2</f>
-        <v>268.77047717771006</v>
+        <v>314.32223547788419</v>
       </c>
       <c r="W5" s="8">
-        <f>U5+V5-P5-Q5</f>
-        <v>755.21792997196258</v>
+        <f t="shared" si="1"/>
+        <v>920.15730387195788</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1749,7 +1866,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="E6" s="6">
         <v>10.25</v>
@@ -1764,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="6">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1782,35 +1899,35 @@
         <v>0</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" ref="O6:O69" si="0">PI()*E6^2</f>
+        <f t="shared" si="2"/>
         <v>330.06357816777762</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" ref="P6:P27" si="1">PI()*E6^2*H6+PI()*G6^2*J6+PI()*(E6^2+F6^2+(E6^2*F6^2)^0.5)*I6/3</f>
-        <v>600.97358466233754</v>
+        <f t="shared" si="3"/>
+        <v>616.13831420060319</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" ref="Q6:Q27" si="2">PI()*(E6+0.1)^2*0.15</f>
+        <f t="shared" si="4"/>
         <v>50.480288855125885</v>
       </c>
       <c r="R6" s="8">
-        <f>120*(H6+I6+J6+1)</f>
-        <v>552</v>
+        <f t="shared" si="0"/>
+        <v>564</v>
       </c>
       <c r="S6" s="9">
         <v>2</v>
       </c>
       <c r="U6" s="8">
         <f>PI()*(E6+1.3)^2*(H6+I6+J6+0.15)*[1]条件输入!$G$2</f>
-        <v>1257.2889419115372</v>
+        <v>1290.8166470291781</v>
       </c>
       <c r="V6" s="8">
         <f>PI()*(E6+1.3)^2*(H6+I6+J6+0.15)*[1]条件输入!$H$2</f>
-        <v>314.32223547788419</v>
+        <v>322.70416175729446</v>
       </c>
       <c r="W6" s="8">
-        <f>U6+V6-P6-Q6</f>
-        <v>920.15730387195788</v>
+        <f t="shared" si="1"/>
+        <v>946.9022057307435</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1824,10 +1941,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E7" s="6">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -1857,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="8">
+        <f t="shared" si="2"/>
+        <v>363.05030103047045</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="3"/>
+        <v>670.48786710770662</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="4"/>
+        <v>55.475421174333661</v>
+      </c>
+      <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P7" s="8">
-        <f t="shared" si="1"/>
-        <v>616.13831420060319</v>
-      </c>
-      <c r="Q7" s="8">
-        <f t="shared" si="2"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R7" s="8">
-        <f>120*(H7+I7+J7+1)</f>
         <v>564</v>
       </c>
       <c r="S7" s="9">
@@ -1877,15 +1994,15 @@
       </c>
       <c r="U7" s="8">
         <f>PI()*(E7+1.3)^2*(H7+I7+J7+0.15)*[1]条件输入!$G$2</f>
-        <v>1290.8166470291781</v>
+        <v>1404.9946904312458</v>
       </c>
       <c r="V7" s="8">
         <f>PI()*(E7+1.3)^2*(H7+I7+J7+0.15)*[1]条件输入!$H$2</f>
-        <v>322.70416175729446</v>
+        <v>351.24867260781133</v>
       </c>
       <c r="W7" s="8">
-        <f>U7+V7-P7-Q7</f>
-        <v>946.9022057307435</v>
+        <f t="shared" si="1"/>
+        <v>1030.280074757017</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1899,10 +2016,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E8" s="6">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
@@ -1914,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -1932,35 +2049,35 @@
         <v>0</v>
       </c>
       <c r="O8" s="8">
+        <f t="shared" si="2"/>
+        <v>380.13271108436498</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="3"/>
+        <v>715.65480648775497</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="4"/>
+        <v>58.061344627319755</v>
+      </c>
+      <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>363.05030103047045</v>
-      </c>
-      <c r="P8" s="8">
-        <f t="shared" si="1"/>
-        <v>670.48786710770662</v>
-      </c>
-      <c r="Q8" s="8">
-        <f t="shared" si="2"/>
-        <v>55.475421174333661</v>
-      </c>
-      <c r="R8" s="8">
-        <f>120*(H8+I8+J8+1)</f>
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="S8" s="9">
         <v>2</v>
       </c>
       <c r="U8" s="8">
         <f>PI()*(E8+1.3)^2*(H8+I8+J8+0.15)*[1]条件输入!$G$2</f>
-        <v>1404.9946904312458</v>
+        <v>1501.9213060946556</v>
       </c>
       <c r="V8" s="8">
         <f>PI()*(E8+1.3)^2*(H8+I8+J8+0.15)*[1]条件输入!$H$2</f>
-        <v>351.24867260781133</v>
+        <v>375.48032652366379</v>
       </c>
       <c r="W8" s="8">
-        <f>U8+V8-P8-Q8</f>
-        <v>1030.280074757017</v>
+        <f t="shared" si="1"/>
+        <v>1103.6854815032445</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1974,10 +2091,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E9" s="6">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -1986,7 +2103,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I9" s="6">
         <v>1.8</v>
@@ -2007,35 +2124,35 @@
         <v>0</v>
       </c>
       <c r="O9" s="8">
+        <f t="shared" si="2"/>
+        <v>415.47562843725012</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="3"/>
+        <v>816.578470484327</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="4"/>
+        <v>63.409906120056384</v>
+      </c>
+      <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>380.13271108436498</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="1"/>
-        <v>715.65480648775497</v>
-      </c>
-      <c r="Q9" s="8">
-        <f t="shared" si="2"/>
-        <v>58.061344627319755</v>
-      </c>
-      <c r="R9" s="8">
-        <f>120*(H9+I9+J9+1)</f>
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="S9" s="9">
         <v>2</v>
       </c>
       <c r="U9" s="8">
         <f>PI()*(E9+1.3)^2*(H9+I9+J9+0.15)*[1]条件输入!$G$2</f>
-        <v>1501.9213060946556</v>
+        <v>1667.6880707798518</v>
       </c>
       <c r="V9" s="8">
         <f>PI()*(E9+1.3)^2*(H9+I9+J9+0.15)*[1]条件输入!$H$2</f>
-        <v>375.48032652366379</v>
+        <v>416.92201769496285</v>
       </c>
       <c r="W9" s="8">
-        <f>U9+V9-P9-Q9</f>
-        <v>1103.6854815032445</v>
+        <f t="shared" si="1"/>
+        <v>1204.6217118704315</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2049,10 +2166,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E10" s="6">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6">
         <v>3</v>
@@ -2061,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I10" s="6">
         <v>1.8</v>
@@ -2082,35 +2199,35 @@
         <v>0</v>
       </c>
       <c r="O10" s="8">
+        <f t="shared" si="2"/>
+        <v>452.38934211693021</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="3"/>
+        <v>927.39815133970694</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="4"/>
+        <v>68.994087061812237</v>
+      </c>
+      <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>415.47562843725012</v>
-      </c>
-      <c r="P10" s="8">
-        <f t="shared" si="1"/>
-        <v>816.578470484327</v>
-      </c>
-      <c r="Q10" s="8">
-        <f t="shared" si="2"/>
-        <v>63.409906120056384</v>
-      </c>
-      <c r="R10" s="8">
-        <f>120*(H10+I10+J10+1)</f>
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="S10" s="9">
         <v>2</v>
       </c>
       <c r="U10" s="8">
         <f>PI()*(E10+1.3)^2*(H10+I10+J10+0.15)*[1]条件输入!$G$2</f>
-        <v>1667.6880707798518</v>
+        <v>1844.9781973184154</v>
       </c>
       <c r="V10" s="8">
         <f>PI()*(E10+1.3)^2*(H10+I10+J10+0.15)*[1]条件输入!$H$2</f>
-        <v>416.92201769496285</v>
+        <v>461.24454932960367</v>
       </c>
       <c r="W10" s="8">
-        <f>U10+V10-P10-Q10</f>
-        <v>1204.6217118704315</v>
+        <f t="shared" si="1"/>
+        <v>1309.8305082464997</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2121,13 +2238,13 @@
         <v>180</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="E11" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
@@ -2136,56 +2253,57 @@
         <v>3</v>
       </c>
       <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
         <v>1.2</v>
       </c>
-      <c r="I11" s="6">
-        <v>1.8</v>
-      </c>
       <c r="J11" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K11" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L11" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M11" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <f t="shared" ref="N11:N26" si="5">L11*M11</f>
+        <v>400</v>
       </c>
       <c r="O11" s="8">
+        <f t="shared" si="2"/>
+        <v>254.46900494077323</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="3"/>
+        <v>424.11500823462211</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="4"/>
+        <v>39.023293146565614</v>
+      </c>
+      <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>452.38934211693021</v>
-      </c>
-      <c r="P11" s="8">
-        <f t="shared" si="1"/>
-        <v>927.39815133970694</v>
-      </c>
-      <c r="Q11" s="8">
-        <f t="shared" si="2"/>
-        <v>68.994087061812237</v>
-      </c>
-      <c r="R11" s="8">
-        <f>120*(H11+I11+J11+1)</f>
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="S11" s="9">
         <v>2</v>
       </c>
       <c r="U11" s="8">
         <f>PI()*(E11+1.3)^2*(H11+I11+J11+0.15)*[1]条件输入!$G$2</f>
-        <v>1844.9781973184154</v>
+        <v>839.89474284073992</v>
       </c>
       <c r="V11" s="8">
         <f>PI()*(E11+1.3)^2*(H11+I11+J11+0.15)*[1]条件输入!$H$2</f>
-        <v>461.24454932960367</v>
+        <v>209.97368571018492</v>
       </c>
       <c r="W11" s="8">
-        <f>U11+V11-P11-Q11</f>
-        <v>1309.8305082464997</v>
+        <f t="shared" si="1"/>
+        <v>586.7301271697371</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2199,10 +2317,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E12" s="6">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -2223,29 +2341,29 @@
         <v>0.6</v>
       </c>
       <c r="L12" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M12" s="6">
         <v>20</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" ref="N12:N27" si="3">L12*M12</f>
-        <v>400</v>
+        <f t="shared" si="5"/>
+        <v>440</v>
       </c>
       <c r="O12" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="3"/>
+        <v>466.68358869076371</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>PI()*(E12+0.1)^2*0.15</f>
+        <v>43.429376843225299</v>
+      </c>
+      <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>254.46900494077323</v>
-      </c>
-      <c r="P12" s="8">
-        <f t="shared" si="1"/>
-        <v>424.11500823462211</v>
-      </c>
-      <c r="Q12" s="8">
-        <f t="shared" si="2"/>
-        <v>39.023293146565614</v>
-      </c>
-      <c r="R12" s="8">
-        <f>120*(H12+I12+J12+1)</f>
         <v>480</v>
       </c>
       <c r="S12" s="9">
@@ -2253,15 +2371,15 @@
       </c>
       <c r="U12" s="8">
         <f>PI()*(E12+1.3)^2*(H12+I12+J12+0.15)*[1]条件输入!$G$2</f>
-        <v>839.89474284073992</v>
+        <v>923.41712512907804</v>
       </c>
       <c r="V12" s="8">
         <f>PI()*(E12+1.3)^2*(H12+I12+J12+0.15)*[1]条件输入!$H$2</f>
-        <v>209.97368571018492</v>
+        <v>230.85428128226945</v>
       </c>
       <c r="W12" s="8">
-        <f>U12+V12-P12-Q12</f>
-        <v>586.7301271697371</v>
+        <f t="shared" si="1"/>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2275,7 +2393,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E13" s="6">
         <v>9.5</v>
@@ -2299,29 +2417,29 @@
         <v>0.6</v>
       </c>
       <c r="L13" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M13" s="6">
         <v>20</v>
       </c>
       <c r="N13" s="7">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P13" s="8">
         <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="O13" s="8">
+        <v>466.68358869076371</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="4"/>
+        <v>43.429376843225299</v>
+      </c>
+      <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P13" s="8">
-        <f t="shared" si="1"/>
-        <v>466.68358869076371</v>
-      </c>
-      <c r="Q13" s="8">
-        <f>PI()*(E13+0.1)^2*0.15</f>
-        <v>43.429376843225299</v>
-      </c>
-      <c r="R13" s="8">
-        <f>120*(H13+I13+J13+1)</f>
         <v>480</v>
       </c>
       <c r="S13" s="9">
@@ -2336,7 +2454,7 @@
         <v>230.85428128226945</v>
       </c>
       <c r="W13" s="8">
-        <f>U13+V13-P13-Q13</f>
+        <f t="shared" si="1"/>
         <v>644.15844087735843</v>
       </c>
     </row>
@@ -2351,10 +2469,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="E14" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="6">
         <v>3</v>
@@ -2366,54 +2484,54 @@
         <v>1</v>
       </c>
       <c r="I14" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J14" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6">
         <v>0.6</v>
       </c>
       <c r="L14" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M14" s="6">
         <v>20</v>
       </c>
       <c r="N14" s="7">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P14" s="8">
         <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="O14" s="8">
+        <v>546.21824270414538</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="4"/>
+        <v>48.071079988904216</v>
+      </c>
+      <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" si="1"/>
-        <v>466.68358869076371</v>
-      </c>
-      <c r="Q14" s="8">
-        <f t="shared" si="2"/>
-        <v>43.429376843225299</v>
-      </c>
-      <c r="R14" s="8">
-        <f>120*(H14+I14+J14+1)</f>
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="S14" s="9">
         <v>2</v>
       </c>
       <c r="U14" s="8">
         <f>PI()*(E14+1.3)^2*(H14+I14+J14+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1139.2659032607414</v>
       </c>
       <c r="V14" s="8">
         <f>PI()*(E14+1.3)^2*(H14+I14+J14+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>284.81647581518524</v>
       </c>
       <c r="W14" s="8">
-        <f>U14+V14-P14-Q14</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="1"/>
+        <v>829.79305638287701</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2427,7 +2545,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E15" s="6">
         <v>10</v>
@@ -2451,29 +2569,29 @@
         <v>0.6</v>
       </c>
       <c r="L15" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="6">
         <v>20</v>
       </c>
       <c r="N15" s="7">
+        <f t="shared" si="5"/>
+        <v>560</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P15" s="8">
         <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="O15" s="8">
+        <v>546.21824270414538</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="4"/>
+        <v>48.071079988904216</v>
+      </c>
+      <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="1"/>
-        <v>546.21824270414538</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="2"/>
-        <v>48.071079988904216</v>
-      </c>
-      <c r="R15" s="8">
-        <f>120*(H15+I15+J15+1)</f>
         <v>528</v>
       </c>
       <c r="S15" s="9">
@@ -2488,7 +2606,7 @@
         <v>284.81647581518524</v>
       </c>
       <c r="W15" s="8">
-        <f>U15+V15-P15-Q15</f>
+        <f t="shared" si="1"/>
         <v>829.79305638287701</v>
       </c>
     </row>
@@ -2503,10 +2621,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E16" s="6">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="F16" s="6">
         <v>3</v>
@@ -2515,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I16" s="6">
         <v>1.4</v>
@@ -2527,45 +2645,45 @@
         <v>0.6</v>
       </c>
       <c r="L16" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M16" s="6">
         <v>20</v>
       </c>
       <c r="N16" s="7">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P16" s="8">
         <f t="shared" si="3"/>
-        <v>560</v>
-      </c>
-      <c r="O16" s="8">
+        <v>603.65048340258375</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="4"/>
+        <v>50.480288855125885</v>
+      </c>
+      <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" si="1"/>
-        <v>546.21824270414538</v>
-      </c>
-      <c r="Q16" s="8">
-        <f t="shared" si="2"/>
-        <v>48.071079988904216</v>
-      </c>
-      <c r="R16" s="8">
-        <f>120*(H16+I16+J16+1)</f>
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="S16" s="9">
         <v>2</v>
       </c>
       <c r="U16" s="8">
         <f>PI()*(E16+1.3)^2*(H16+I16+J16+0.15)*[1]条件输入!$G$2</f>
-        <v>1139.2659032607414</v>
+        <v>1223.7612367938962</v>
       </c>
       <c r="V16" s="8">
         <f>PI()*(E16+1.3)^2*(H16+I16+J16+0.15)*[1]条件输入!$H$2</f>
-        <v>284.81647581518524</v>
+        <v>305.94030919847393</v>
       </c>
       <c r="W16" s="8">
-        <f>U16+V16-P16-Q16</f>
-        <v>829.79305638287701</v>
+        <f t="shared" si="1"/>
+        <v>875.57077373466041</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2579,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E17" s="6">
         <v>10.25</v>
@@ -2603,29 +2721,29 @@
         <v>0.6</v>
       </c>
       <c r="L17" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M17" s="6">
         <v>20</v>
       </c>
       <c r="N17" s="7">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P17" s="8">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="O17" s="8">
+        <v>603.65048340258375</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="4"/>
+        <v>50.480288855125885</v>
+      </c>
+      <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="1"/>
-        <v>603.65048340258375</v>
-      </c>
-      <c r="Q17" s="8">
-        <f t="shared" si="2"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R17" s="8">
-        <f>120*(H17+I17+J17+1)</f>
         <v>540</v>
       </c>
       <c r="S17" s="9">
@@ -2640,7 +2758,7 @@
         <v>305.94030919847393</v>
       </c>
       <c r="W17" s="8">
-        <f>U17+V17-P17-Q17</f>
+        <f t="shared" si="1"/>
         <v>875.57077373466041</v>
       </c>
     </row>
@@ -2655,10 +2773,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E18" s="6">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="F18" s="6">
         <v>3</v>
@@ -2667,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I18" s="6">
         <v>1.4</v>
@@ -2679,45 +2797,45 @@
         <v>0.6</v>
       </c>
       <c r="L18" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M18" s="6">
         <v>20</v>
       </c>
       <c r="N18" s="7">
+        <f t="shared" si="5"/>
+        <v>680</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="2"/>
+        <v>346.36059005827468</v>
+      </c>
+      <c r="P18" s="8">
         <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-      <c r="O18" s="8">
+        <v>664.91808513227966</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="4"/>
+        <v>52.948402583602373</v>
+      </c>
+      <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P18" s="8">
-        <f t="shared" si="1"/>
-        <v>603.65048340258375</v>
-      </c>
-      <c r="Q18" s="8">
-        <f t="shared" si="2"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R18" s="8">
-        <f>120*(H18+I18+J18+1)</f>
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="S18" s="9">
         <v>2</v>
       </c>
       <c r="U18" s="8">
         <f>PI()*(E18+1.3)^2*(H18+I18+J18+0.15)*[1]条件输入!$G$2</f>
-        <v>1223.7612367938962</v>
+        <v>1312.3060832575284</v>
       </c>
       <c r="V18" s="8">
         <f>PI()*(E18+1.3)^2*(H18+I18+J18+0.15)*[1]条件输入!$H$2</f>
-        <v>305.94030919847393</v>
+        <v>328.07652081438204</v>
       </c>
       <c r="W18" s="8">
-        <f>U18+V18-P18-Q18</f>
-        <v>875.57077373466041</v>
+        <f t="shared" si="1"/>
+        <v>922.51611635602842</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2728,13 +2846,13 @@
         <v>180</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="E19" s="6">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
@@ -2743,57 +2861,57 @@
         <v>3</v>
       </c>
       <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
         <v>1.2</v>
       </c>
-      <c r="I19" s="6">
-        <v>1.4</v>
-      </c>
       <c r="J19" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K19" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L19" s="6">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M19" s="6">
         <v>20</v>
       </c>
       <c r="N19" s="7">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="2"/>
+        <v>254.46900494077323</v>
+      </c>
+      <c r="P19" s="8">
         <f t="shared" si="3"/>
-        <v>680</v>
-      </c>
-      <c r="O19" s="8">
+        <v>424.11500823462211</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="4"/>
+        <v>39.023293146565614</v>
+      </c>
+      <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>346.36059005827468</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" si="1"/>
-        <v>664.91808513227966</v>
-      </c>
-      <c r="Q19" s="8">
-        <f t="shared" si="2"/>
-        <v>52.948402583602373</v>
-      </c>
-      <c r="R19" s="8">
-        <f>120*(H19+I19+J19+1)</f>
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="S19" s="9">
         <v>2</v>
       </c>
       <c r="U19" s="8">
         <f>PI()*(E19+1.3)^2*(H19+I19+J19+0.15)*[1]条件输入!$G$2</f>
-        <v>1312.3060832575284</v>
+        <v>839.89474284073992</v>
       </c>
       <c r="V19" s="8">
         <f>PI()*(E19+1.3)^2*(H19+I19+J19+0.15)*[1]条件输入!$H$2</f>
-        <v>328.07652081438204</v>
+        <v>209.97368571018492</v>
       </c>
       <c r="W19" s="8">
-        <f>U19+V19-P19-Q19</f>
-        <v>922.51611635602842</v>
+        <f t="shared" si="1"/>
+        <v>586.7301271697371</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2807,10 +2925,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E20" s="6">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2831,29 +2949,29 @@
         <v>1</v>
       </c>
       <c r="L20" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M20" s="6">
         <v>20</v>
       </c>
       <c r="N20" s="7">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P20" s="8">
         <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="O20" s="8">
+        <v>466.68358869076371</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="4"/>
+        <v>43.429376843225299</v>
+      </c>
+      <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>254.46900494077323</v>
-      </c>
-      <c r="P20" s="8">
-        <f t="shared" si="1"/>
-        <v>424.11500823462211</v>
-      </c>
-      <c r="Q20" s="8">
-        <f t="shared" si="2"/>
-        <v>39.023293146565614</v>
-      </c>
-      <c r="R20" s="8">
-        <f>120*(H20+I20+J20+1)</f>
         <v>480</v>
       </c>
       <c r="S20" s="9">
@@ -2861,15 +2979,15 @@
       </c>
       <c r="U20" s="8">
         <f>PI()*(E20+1.3)^2*(H20+I20+J20+0.15)*[1]条件输入!$G$2</f>
-        <v>839.89474284073992</v>
+        <v>923.41712512907804</v>
       </c>
       <c r="V20" s="8">
         <f>PI()*(E20+1.3)^2*(H20+I20+J20+0.15)*[1]条件输入!$H$2</f>
-        <v>209.97368571018492</v>
+        <v>230.85428128226945</v>
       </c>
       <c r="W20" s="8">
-        <f>U20+V20-P20-Q20</f>
-        <v>586.7301271697371</v>
+        <f t="shared" si="1"/>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2883,7 +3001,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E21" s="6">
         <v>9.5</v>
@@ -2907,29 +3025,29 @@
         <v>1</v>
       </c>
       <c r="L21" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M21" s="6">
         <v>20</v>
       </c>
       <c r="N21" s="7">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P21" s="8">
         <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="O21" s="8">
+        <v>466.68358869076371</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="4"/>
+        <v>43.429376843225299</v>
+      </c>
+      <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P21" s="8">
-        <f t="shared" si="1"/>
-        <v>466.68358869076371</v>
-      </c>
-      <c r="Q21" s="8">
-        <f t="shared" si="2"/>
-        <v>43.429376843225299</v>
-      </c>
-      <c r="R21" s="8">
-        <f>120*(H21+I21+J21+1)</f>
         <v>480</v>
       </c>
       <c r="S21" s="9">
@@ -2944,7 +3062,7 @@
         <v>230.85428128226945</v>
       </c>
       <c r="W21" s="8">
-        <f>U21+V21-P21-Q21</f>
+        <f t="shared" si="1"/>
         <v>644.15844087735843</v>
       </c>
     </row>
@@ -2959,10 +3077,10 @@
         <v>24</v>
       </c>
       <c r="D22" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="E22" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2974,54 +3092,54 @@
         <v>1</v>
       </c>
       <c r="I22" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J22" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6">
         <v>1</v>
       </c>
       <c r="L22" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M22" s="6">
         <v>20</v>
       </c>
       <c r="N22" s="7">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P22" s="8">
         <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="O22" s="8">
+        <v>546.21824270414538</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="4"/>
+        <v>48.071079988904216</v>
+      </c>
+      <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P22" s="8">
-        <f t="shared" si="1"/>
-        <v>466.68358869076371</v>
-      </c>
-      <c r="Q22" s="8">
-        <f t="shared" si="2"/>
-        <v>43.429376843225299</v>
-      </c>
-      <c r="R22" s="8">
-        <f>120*(H22+I22+J22+1)</f>
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="S22" s="9">
         <v>2</v>
       </c>
       <c r="U22" s="8">
         <f>PI()*(E22+1.3)^2*(H22+I22+J22+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1139.2659032607414</v>
       </c>
       <c r="V22" s="8">
         <f>PI()*(E22+1.3)^2*(H22+I22+J22+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>284.81647581518524</v>
       </c>
       <c r="W22" s="8">
-        <f>U22+V22-P22-Q22</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="1"/>
+        <v>829.79305638287701</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3035,7 +3153,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E23" s="6">
         <v>10</v>
@@ -3059,29 +3177,29 @@
         <v>1</v>
       </c>
       <c r="L23" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M23" s="6">
         <v>20</v>
       </c>
       <c r="N23" s="7">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P23" s="8">
         <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="O23" s="8">
+        <v>546.21824270414538</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="4"/>
+        <v>48.071079988904216</v>
+      </c>
+      <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P23" s="8">
-        <f t="shared" si="1"/>
-        <v>546.21824270414538</v>
-      </c>
-      <c r="Q23" s="8">
-        <f t="shared" si="2"/>
-        <v>48.071079988904216</v>
-      </c>
-      <c r="R23" s="8">
-        <f>120*(H23+I23+J23+1)</f>
         <v>528</v>
       </c>
       <c r="S23" s="9">
@@ -3096,7 +3214,7 @@
         <v>284.81647581518524</v>
       </c>
       <c r="W23" s="8">
-        <f>U23+V23-P23-Q23</f>
+        <f t="shared" si="1"/>
         <v>829.79305638287701</v>
       </c>
     </row>
@@ -3111,10 +3229,10 @@
         <v>24</v>
       </c>
       <c r="D24" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E24" s="6">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="F24" s="6">
         <v>3</v>
@@ -3123,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I24" s="6">
         <v>1.4</v>
@@ -3135,45 +3253,45 @@
         <v>1</v>
       </c>
       <c r="L24" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M24" s="6">
         <v>20</v>
       </c>
       <c r="N24" s="7">
+        <f t="shared" si="5"/>
+        <v>560</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P24" s="8">
         <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="O24" s="8">
+        <v>603.65048340258375</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="4"/>
+        <v>50.480288855125885</v>
+      </c>
+      <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P24" s="8">
-        <f t="shared" si="1"/>
-        <v>546.21824270414538</v>
-      </c>
-      <c r="Q24" s="8">
-        <f t="shared" si="2"/>
-        <v>48.071079988904216</v>
-      </c>
-      <c r="R24" s="8">
-        <f>120*(H24+I24+J24+1)</f>
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="S24" s="9">
         <v>2</v>
       </c>
       <c r="U24" s="8">
         <f>PI()*(E24+1.3)^2*(H24+I24+J24+0.15)*[1]条件输入!$G$2</f>
-        <v>1139.2659032607414</v>
+        <v>1223.7612367938962</v>
       </c>
       <c r="V24" s="8">
         <f>PI()*(E24+1.3)^2*(H24+I24+J24+0.15)*[1]条件输入!$H$2</f>
-        <v>284.81647581518524</v>
+        <v>305.94030919847393</v>
       </c>
       <c r="W24" s="8">
-        <f>U24+V24-P24-Q24</f>
-        <v>829.79305638287701</v>
+        <f t="shared" si="1"/>
+        <v>875.57077373466041</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3187,7 +3305,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E25" s="6">
         <v>10.25</v>
@@ -3211,29 +3329,29 @@
         <v>1</v>
       </c>
       <c r="L25" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M25" s="6">
         <v>20</v>
       </c>
       <c r="N25" s="7">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P25" s="8">
         <f t="shared" si="3"/>
-        <v>560</v>
-      </c>
-      <c r="O25" s="8">
+        <v>603.65048340258375</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="4"/>
+        <v>50.480288855125885</v>
+      </c>
+      <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P25" s="8">
-        <f t="shared" si="1"/>
-        <v>603.65048340258375</v>
-      </c>
-      <c r="Q25" s="8">
-        <f t="shared" si="2"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R25" s="8">
-        <f>120*(H25+I25+J25+1)</f>
         <v>540</v>
       </c>
       <c r="S25" s="9">
@@ -3248,7 +3366,7 @@
         <v>305.94030919847393</v>
       </c>
       <c r="W25" s="8">
-        <f>U25+V25-P25-Q25</f>
+        <f t="shared" si="1"/>
         <v>875.57077373466041</v>
       </c>
     </row>
@@ -3263,10 +3381,10 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E26" s="6">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="F26" s="6">
         <v>3</v>
@@ -3275,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I26" s="6">
         <v>1.4</v>
@@ -3287,62 +3405,62 @@
         <v>1</v>
       </c>
       <c r="L26" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M26" s="6">
         <v>20</v>
       </c>
       <c r="N26" s="7">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="2"/>
+        <v>346.36059005827468</v>
+      </c>
+      <c r="P26" s="8">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="O26" s="8">
+        <v>664.91808513227966</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="4"/>
+        <v>52.948402583602373</v>
+      </c>
+      <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" si="1"/>
-        <v>603.65048340258375</v>
-      </c>
-      <c r="Q26" s="8">
-        <f t="shared" si="2"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R26" s="8">
-        <f>120*(H26+I26+J26+1)</f>
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="S26" s="9">
         <v>2</v>
       </c>
       <c r="U26" s="8">
         <f>PI()*(E26+1.3)^2*(H26+I26+J26+0.15)*[1]条件输入!$G$2</f>
-        <v>1223.7612367938962</v>
+        <v>1312.3060832575284</v>
       </c>
       <c r="V26" s="8">
         <f>PI()*(E26+1.3)^2*(H26+I26+J26+0.15)*[1]条件输入!$H$2</f>
-        <v>305.94030919847393</v>
+        <v>328.07652081438204</v>
       </c>
       <c r="W26" s="8">
-        <f>U26+V26-P26-Q26</f>
-        <v>875.57077373466041</v>
+        <f t="shared" si="1"/>
+        <v>922.51611635602842</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="4">
         <v>180</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="E27" s="6">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -3351,57 +3469,56 @@
         <v>3</v>
       </c>
       <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
         <v>1.2</v>
       </c>
-      <c r="I27" s="6">
-        <v>1.4</v>
-      </c>
       <c r="J27" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M27" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="3"/>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="O27" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P27" s="8">
+        <f>PI()*E27^2*H27+PI()*G27^2*J27+PI()*(E27^2+F27^2+(E27^2*F27^2)^0.5)*I27/3</f>
+        <v>466.68358869076371</v>
+      </c>
+      <c r="Q27" s="8">
+        <f>PI()*(E27+0.1)^2*0.15</f>
+        <v>43.429376843225299</v>
+      </c>
+      <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>346.36059005827468</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="1"/>
-        <v>664.91808513227966</v>
-      </c>
-      <c r="Q27" s="8">
-        <f t="shared" si="2"/>
-        <v>52.948402583602373</v>
-      </c>
-      <c r="R27" s="8">
-        <f>120*(H27+I27+J27+1)</f>
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="S27" s="9">
         <v>2</v>
       </c>
       <c r="U27" s="8">
         <f>PI()*(E27+1.3)^2*(H27+I27+J27+0.15)*[1]条件输入!$G$2</f>
-        <v>1312.3060832575284</v>
+        <v>923.41712512907804</v>
       </c>
       <c r="V27" s="8">
         <f>PI()*(E27+1.3)^2*(H27+I27+J27+0.15)*[1]条件输入!$H$2</f>
-        <v>328.07652081438204</v>
+        <v>230.85428128226945</v>
       </c>
       <c r="W27" s="8">
-        <f>U27+V27-P27-Q27</f>
-        <v>922.51611635602842</v>
+        <f t="shared" si="1"/>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3415,10 +3532,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E28" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
@@ -3430,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J28" s="6">
         <v>0.8</v>
@@ -3448,185 +3565,185 @@
         <v>0</v>
       </c>
       <c r="O28" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" ref="P28:P50" si="6">PI()*E28^2*H28+PI()*G28^2*J28+PI()*(E28^2+F28^2+(E28^2*F28^2)^0.5)*I28/3</f>
+        <v>540.56337592768375</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" ref="Q28:Q50" si="7">PI()*(E28+0.1)^2*0.15</f>
+        <v>48.071079988904216</v>
+      </c>
+      <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P28" s="8">
-        <f>PI()*E28^2*H28+PI()*G28^2*J28+PI()*(E28^2+F28^2+(E28^2*F28^2)^0.5)*I28/3</f>
-        <v>466.68358869076371</v>
-      </c>
-      <c r="Q28" s="8">
-        <f>PI()*(E28+0.1)^2*0.15</f>
-        <v>43.429376843225299</v>
-      </c>
-      <c r="R28" s="8">
-        <f>120*(H28+I28+J28+1)</f>
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="S28" s="9">
         <v>2</v>
       </c>
       <c r="U28" s="8">
         <f>PI()*(E28+1.3)^2*(H28+I28+J28+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1075.0819087108405</v>
       </c>
       <c r="V28" s="8">
         <f>PI()*(E28+1.3)^2*(H28+I28+J28+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>268.77047717771006</v>
       </c>
       <c r="W28" s="8">
-        <f>U28+V28-P28-Q28</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="1"/>
+        <v>755.21792997196258</v>
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="4">
+      <c r="A29" s="10">
         <v>7</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="10">
         <v>180</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="10">
+        <v>70000</v>
+      </c>
+      <c r="E29" s="12">
+        <v>10.25</v>
+      </c>
+      <c r="F29" s="12">
+        <v>3</v>
+      </c>
+      <c r="G29" s="12">
+        <v>3</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="J29" s="12">
+        <v>1</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" si="6"/>
+        <v>600.97358466233754</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" si="7"/>
+        <v>50.480288855125885</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="S29" s="12">
+        <v>2</v>
+      </c>
+      <c r="U29" s="14">
+        <f>PI()*(E29+1.3)^2*(H29+I29+J29+0.15)*[1]条件输入!$G$2</f>
+        <v>1257.2889419115372</v>
+      </c>
+      <c r="V29" s="14">
+        <f>PI()*(E29+1.3)^2*(H29+I29+J29+0.15)*[1]条件输入!$H$2</f>
+        <v>314.32223547788419</v>
+      </c>
+      <c r="W29" s="14">
+        <f t="shared" si="1"/>
+        <v>920.15730387195788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="4">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>180</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E29" s="6">
-        <v>10</v>
-      </c>
-      <c r="F29" s="6">
-        <v>3</v>
-      </c>
-      <c r="G29" s="6">
-        <v>3</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
+      <c r="D30" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10.25</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="6"/>
+        <v>616.13831420060319</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="7"/>
+        <v>50.480288855125885</v>
+      </c>
+      <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P29" s="8">
-        <f t="shared" ref="P29:P51" si="4">PI()*E29^2*H29+PI()*G29^2*J29+PI()*(E29^2+F29^2+(E29^2*F29^2)^0.5)*I29/3</f>
-        <v>540.56337592768375</v>
-      </c>
-      <c r="Q29" s="8">
-        <f t="shared" ref="Q29:Q51" si="5">PI()*(E29+0.1)^2*0.15</f>
-        <v>48.071079988904216</v>
-      </c>
-      <c r="R29" s="8">
-        <f>120*(H29+I29+J29+1)</f>
-        <v>504</v>
-      </c>
-      <c r="S29" s="9">
+        <v>564</v>
+      </c>
+      <c r="S30" s="9">
         <v>2</v>
       </c>
-      <c r="U29" s="8">
-        <f>PI()*(E29+1.3)^2*(H29+I29+J29+0.15)*[1]条件输入!$G$2</f>
-        <v>1075.0819087108405</v>
-      </c>
-      <c r="V29" s="8">
-        <f>PI()*(E29+1.3)^2*(H29+I29+J29+0.15)*[1]条件输入!$H$2</f>
-        <v>268.77047717771006</v>
-      </c>
-      <c r="W29" s="8">
-        <f>U29+V29-P29-Q29</f>
-        <v>755.21792997196258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="10">
-        <v>7</v>
-      </c>
-      <c r="B30" s="10">
-        <v>180</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="10">
-        <v>70000</v>
-      </c>
-      <c r="E30" s="12">
-        <v>10.25</v>
-      </c>
-      <c r="F30" s="12">
-        <v>3</v>
-      </c>
-      <c r="G30" s="12">
-        <v>3</v>
-      </c>
-      <c r="H30" s="12">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="J30" s="12">
-        <v>1</v>
-      </c>
-      <c r="K30" s="12">
-        <v>0</v>
-      </c>
-      <c r="L30" s="12">
-        <v>0</v>
-      </c>
-      <c r="M30" s="12">
-        <v>0</v>
-      </c>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="14">
-        <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P30" s="14">
-        <f t="shared" si="4"/>
-        <v>600.97358466233754</v>
-      </c>
-      <c r="Q30" s="14">
-        <f t="shared" si="5"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R30" s="14">
-        <f>120*(H30+I30+J30+1)</f>
-        <v>552</v>
-      </c>
-      <c r="S30" s="12">
-        <v>2</v>
-      </c>
-      <c r="U30" s="14">
+      <c r="U30" s="8">
         <f>PI()*(E30+1.3)^2*(H30+I30+J30+0.15)*[1]条件输入!$G$2</f>
-        <v>1257.2889419115372</v>
-      </c>
-      <c r="V30" s="14">
+        <v>1290.8166470291781</v>
+      </c>
+      <c r="V30" s="8">
         <f>PI()*(E30+1.3)^2*(H30+I30+J30+0.15)*[1]条件输入!$H$2</f>
-        <v>314.32223547788419</v>
-      </c>
-      <c r="W30" s="14">
-        <f>U30+V30-P30-Q30</f>
-        <v>920.15730387195788</v>
+        <v>322.70416175729446</v>
+      </c>
+      <c r="W30" s="8">
+        <f t="shared" si="1"/>
+        <v>946.9022057307435</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3640,10 +3757,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E31" s="6">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="F31" s="6">
         <v>3</v>
@@ -3673,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="8">
+        <f t="shared" si="2"/>
+        <v>363.05030103047045</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="6"/>
+        <v>670.48786710770662</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="7"/>
+        <v>55.475421174333661</v>
+      </c>
+      <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="4"/>
-        <v>616.13831420060319</v>
-      </c>
-      <c r="Q31" s="8">
-        <f t="shared" si="5"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R31" s="8">
-        <f>120*(H31+I31+J31+1)</f>
         <v>564</v>
       </c>
       <c r="S31" s="9">
@@ -3693,15 +3810,15 @@
       </c>
       <c r="U31" s="8">
         <f>PI()*(E31+1.3)^2*(H31+I31+J31+0.15)*[1]条件输入!$G$2</f>
-        <v>1290.8166470291781</v>
+        <v>1404.9946904312458</v>
       </c>
       <c r="V31" s="8">
         <f>PI()*(E31+1.3)^2*(H31+I31+J31+0.15)*[1]条件输入!$H$2</f>
-        <v>322.70416175729446</v>
+        <v>351.24867260781133</v>
       </c>
       <c r="W31" s="8">
-        <f>U31+V31-P31-Q31</f>
-        <v>946.9022057307435</v>
+        <f t="shared" si="1"/>
+        <v>1030.280074757017</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3715,10 +3832,10 @@
         <v>22</v>
       </c>
       <c r="D32" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E32" s="6">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="F32" s="6">
         <v>3</v>
@@ -3730,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J32" s="6">
         <v>1</v>
@@ -3748,35 +3865,35 @@
         <v>0</v>
       </c>
       <c r="O32" s="8">
+        <f t="shared" si="2"/>
+        <v>380.13271108436498</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="6"/>
+        <v>715.65480648775497</v>
+      </c>
+      <c r="Q32" s="8">
+        <f t="shared" si="7"/>
+        <v>58.061344627319755</v>
+      </c>
+      <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>363.05030103047045</v>
-      </c>
-      <c r="P32" s="8">
-        <f t="shared" si="4"/>
-        <v>670.48786710770662</v>
-      </c>
-      <c r="Q32" s="8">
-        <f t="shared" si="5"/>
-        <v>55.475421174333661</v>
-      </c>
-      <c r="R32" s="8">
-        <f>120*(H32+I32+J32+1)</f>
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="S32" s="9">
         <v>2</v>
       </c>
       <c r="U32" s="8">
         <f>PI()*(E32+1.3)^2*(H32+I32+J32+0.15)*[1]条件输入!$G$2</f>
-        <v>1404.9946904312458</v>
+        <v>1501.9213060946556</v>
       </c>
       <c r="V32" s="8">
         <f>PI()*(E32+1.3)^2*(H32+I32+J32+0.15)*[1]条件输入!$H$2</f>
-        <v>351.24867260781133</v>
+        <v>375.48032652366379</v>
       </c>
       <c r="W32" s="8">
-        <f>U32+V32-P32-Q32</f>
-        <v>1030.280074757017</v>
+        <f t="shared" si="1"/>
+        <v>1103.6854815032445</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3790,10 +3907,10 @@
         <v>22</v>
       </c>
       <c r="D33" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E33" s="6">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F33" s="6">
         <v>3</v>
@@ -3802,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I33" s="6">
         <v>1.8</v>
@@ -3823,35 +3940,35 @@
         <v>0</v>
       </c>
       <c r="O33" s="8">
+        <f t="shared" si="2"/>
+        <v>415.47562843725012</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" si="6"/>
+        <v>816.578470484327</v>
+      </c>
+      <c r="Q33" s="8">
+        <f t="shared" si="7"/>
+        <v>63.409906120056384</v>
+      </c>
+      <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>380.13271108436498</v>
-      </c>
-      <c r="P33" s="8">
-        <f t="shared" si="4"/>
-        <v>715.65480648775497</v>
-      </c>
-      <c r="Q33" s="8">
-        <f t="shared" si="5"/>
-        <v>58.061344627319755</v>
-      </c>
-      <c r="R33" s="8">
-        <f>120*(H33+I33+J33+1)</f>
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="S33" s="9">
         <v>2</v>
       </c>
       <c r="U33" s="8">
         <f>PI()*(E33+1.3)^2*(H33+I33+J33+0.15)*[1]条件输入!$G$2</f>
-        <v>1501.9213060946556</v>
+        <v>1667.6880707798518</v>
       </c>
       <c r="V33" s="8">
         <f>PI()*(E33+1.3)^2*(H33+I33+J33+0.15)*[1]条件输入!$H$2</f>
-        <v>375.48032652366379</v>
+        <v>416.92201769496285</v>
       </c>
       <c r="W33" s="8">
-        <f>U33+V33-P33-Q33</f>
-        <v>1103.6854815032445</v>
+        <f t="shared" si="1"/>
+        <v>1204.6217118704315</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3865,10 +3982,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E34" s="6">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
@@ -3877,7 +3994,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I34" s="6">
         <v>1.8</v>
@@ -3898,35 +4015,35 @@
         <v>0</v>
       </c>
       <c r="O34" s="8">
+        <f t="shared" si="2"/>
+        <v>452.38934211693021</v>
+      </c>
+      <c r="P34" s="8">
+        <f t="shared" si="6"/>
+        <v>927.39815133970694</v>
+      </c>
+      <c r="Q34" s="8">
+        <f t="shared" si="7"/>
+        <v>68.994087061812237</v>
+      </c>
+      <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>415.47562843725012</v>
-      </c>
-      <c r="P34" s="8">
-        <f t="shared" si="4"/>
-        <v>816.578470484327</v>
-      </c>
-      <c r="Q34" s="8">
-        <f t="shared" si="5"/>
-        <v>63.409906120056384</v>
-      </c>
-      <c r="R34" s="8">
-        <f>120*(H34+I34+J34+1)</f>
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="S34" s="9">
         <v>2</v>
       </c>
       <c r="U34" s="8">
         <f>PI()*(E34+1.3)^2*(H34+I34+J34+0.15)*[1]条件输入!$G$2</f>
-        <v>1667.6880707798518</v>
+        <v>1844.9781973184154</v>
       </c>
       <c r="V34" s="8">
         <f>PI()*(E34+1.3)^2*(H34+I34+J34+0.15)*[1]条件输入!$H$2</f>
-        <v>416.92201769496285</v>
+        <v>461.24454932960367</v>
       </c>
       <c r="W34" s="8">
-        <f>U34+V34-P34-Q34</f>
-        <v>1204.6217118704315</v>
+        <f t="shared" si="1"/>
+        <v>1309.8305082464997</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3937,13 +4054,13 @@
         <v>180</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="E35" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
@@ -3952,56 +4069,57 @@
         <v>3</v>
       </c>
       <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
         <v>1.2</v>
       </c>
-      <c r="I35" s="6">
-        <v>1.8</v>
-      </c>
       <c r="J35" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K35" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L35" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M35" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <f t="shared" ref="N35:N50" si="8">L35*M35</f>
+        <v>400</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="0"/>
-        <v>452.38934211693021</v>
+        <f t="shared" si="2"/>
+        <v>254.46900494077323</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="4"/>
-        <v>927.39815133970694</v>
+        <f t="shared" si="6"/>
+        <v>424.11500823462211</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="5"/>
-        <v>68.994087061812237</v>
+        <f t="shared" si="7"/>
+        <v>39.023293146565614</v>
       </c>
       <c r="R35" s="8">
-        <f>120*(H35+I35+J35+1)</f>
-        <v>600</v>
+        <f t="shared" ref="R35:R66" si="9">120*(H35+I35+J35+1)</f>
+        <v>480</v>
       </c>
       <c r="S35" s="9">
         <v>2</v>
       </c>
       <c r="U35" s="8">
         <f>PI()*(E35+1.3)^2*(H35+I35+J35+0.15)*[1]条件输入!$G$2</f>
-        <v>1844.9781973184154</v>
+        <v>839.89474284073992</v>
       </c>
       <c r="V35" s="8">
         <f>PI()*(E35+1.3)^2*(H35+I35+J35+0.15)*[1]条件输入!$H$2</f>
-        <v>461.24454932960367</v>
+        <v>209.97368571018492</v>
       </c>
       <c r="W35" s="8">
-        <f>U35+V35-P35-Q35</f>
-        <v>1309.8305082464997</v>
+        <f t="shared" ref="W35:W66" si="10">U35+V35-P35-Q35</f>
+        <v>586.7301271697371</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4015,10 +4133,10 @@
         <v>23</v>
       </c>
       <c r="D36" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E36" s="6">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F36" s="6">
         <v>3</v>
@@ -4039,29 +4157,29 @@
         <v>0.6</v>
       </c>
       <c r="L36" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M36" s="6">
         <v>20</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" ref="N36:N51" si="6">L36*M36</f>
-        <v>400</v>
+        <f t="shared" si="8"/>
+        <v>440</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="0"/>
-        <v>254.46900494077323</v>
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="4"/>
-        <v>424.11500823462211</v>
+        <f t="shared" si="6"/>
+        <v>466.68358869076371</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="5"/>
-        <v>39.023293146565614</v>
+        <f t="shared" si="7"/>
+        <v>43.429376843225299</v>
       </c>
       <c r="R36" s="8">
-        <f>120*(H36+I36+J36+1)</f>
+        <f t="shared" si="9"/>
         <v>480</v>
       </c>
       <c r="S36" s="9">
@@ -4069,15 +4187,15 @@
       </c>
       <c r="U36" s="8">
         <f>PI()*(E36+1.3)^2*(H36+I36+J36+0.15)*[1]条件输入!$G$2</f>
-        <v>839.89474284073992</v>
+        <v>923.41712512907804</v>
       </c>
       <c r="V36" s="8">
         <f>PI()*(E36+1.3)^2*(H36+I36+J36+0.15)*[1]条件输入!$H$2</f>
-        <v>209.97368571018492</v>
+        <v>230.85428128226945</v>
       </c>
       <c r="W36" s="8">
-        <f>U36+V36-P36-Q36</f>
-        <v>586.7301271697371</v>
+        <f t="shared" si="10"/>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4091,7 +4209,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E37" s="6">
         <v>9.5</v>
@@ -4115,29 +4233,29 @@
         <v>0.6</v>
       </c>
       <c r="L37" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M37" s="6">
         <v>20</v>
       </c>
       <c r="N37" s="7">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="O37" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P37" s="8">
         <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="O37" s="8">
-        <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P37" s="8">
-        <f t="shared" si="4"/>
         <v>466.68358869076371</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43.429376843225299</v>
       </c>
       <c r="R37" s="8">
-        <f>120*(H37+I37+J37+1)</f>
+        <f t="shared" si="9"/>
         <v>480</v>
       </c>
       <c r="S37" s="9">
@@ -4152,7 +4270,7 @@
         <v>230.85428128226945</v>
       </c>
       <c r="W37" s="8">
-        <f>U37+V37-P37-Q37</f>
+        <f t="shared" si="10"/>
         <v>644.15844087735843</v>
       </c>
     </row>
@@ -4167,10 +4285,10 @@
         <v>23</v>
       </c>
       <c r="D38" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="E38" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F38" s="6">
         <v>3</v>
@@ -4182,54 +4300,54 @@
         <v>1</v>
       </c>
       <c r="I38" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J38" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6">
         <v>0.6</v>
       </c>
       <c r="L38" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M38" s="6">
         <v>20</v>
       </c>
       <c r="N38" s="7">
+        <f t="shared" si="8"/>
+        <v>520</v>
+      </c>
+      <c r="O38" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P38" s="8">
         <f t="shared" si="6"/>
-        <v>480</v>
-      </c>
-      <c r="O38" s="8">
-        <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P38" s="8">
-        <f t="shared" si="4"/>
-        <v>466.68358869076371</v>
+        <v>546.21824270414538</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="5"/>
-        <v>43.429376843225299</v>
+        <f t="shared" si="7"/>
+        <v>48.071079988904216</v>
       </c>
       <c r="R38" s="8">
-        <f>120*(H38+I38+J38+1)</f>
-        <v>480</v>
+        <f t="shared" si="9"/>
+        <v>528</v>
       </c>
       <c r="S38" s="9">
         <v>2</v>
       </c>
       <c r="U38" s="8">
         <f>PI()*(E38+1.3)^2*(H38+I38+J38+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1139.2659032607414</v>
       </c>
       <c r="V38" s="8">
         <f>PI()*(E38+1.3)^2*(H38+I38+J38+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>284.81647581518524</v>
       </c>
       <c r="W38" s="8">
-        <f>U38+V38-P38-Q38</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="10"/>
+        <v>829.79305638287701</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4243,7 +4361,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E39" s="6">
         <v>10</v>
@@ -4267,29 +4385,29 @@
         <v>0.6</v>
       </c>
       <c r="L39" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M39" s="6">
         <v>20</v>
       </c>
       <c r="N39" s="7">
+        <f t="shared" si="8"/>
+        <v>560</v>
+      </c>
+      <c r="O39" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P39" s="8">
         <f t="shared" si="6"/>
-        <v>520</v>
-      </c>
-      <c r="O39" s="8">
-        <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P39" s="8">
-        <f t="shared" si="4"/>
         <v>546.21824270414538</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48.071079988904216</v>
       </c>
       <c r="R39" s="8">
-        <f>120*(H39+I39+J39+1)</f>
+        <f t="shared" si="9"/>
         <v>528</v>
       </c>
       <c r="S39" s="9">
@@ -4304,7 +4422,7 @@
         <v>284.81647581518524</v>
       </c>
       <c r="W39" s="8">
-        <f>U39+V39-P39-Q39</f>
+        <f t="shared" si="10"/>
         <v>829.79305638287701</v>
       </c>
     </row>
@@ -4319,10 +4437,10 @@
         <v>23</v>
       </c>
       <c r="D40" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E40" s="6">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="F40" s="6">
         <v>3</v>
@@ -4331,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I40" s="6">
         <v>1.4</v>
@@ -4343,45 +4461,45 @@
         <v>0.6</v>
       </c>
       <c r="L40" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M40" s="6">
         <v>20</v>
       </c>
       <c r="N40" s="7">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="O40" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P40" s="8">
         <f t="shared" si="6"/>
-        <v>560</v>
-      </c>
-      <c r="O40" s="8">
-        <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P40" s="8">
-        <f t="shared" si="4"/>
-        <v>546.21824270414538</v>
+        <v>603.65048340258375</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="5"/>
-        <v>48.071079988904216</v>
+        <f t="shared" si="7"/>
+        <v>50.480288855125885</v>
       </c>
       <c r="R40" s="8">
-        <f>120*(H40+I40+J40+1)</f>
-        <v>528</v>
+        <f t="shared" si="9"/>
+        <v>540</v>
       </c>
       <c r="S40" s="9">
         <v>2</v>
       </c>
       <c r="U40" s="8">
         <f>PI()*(E40+1.3)^2*(H40+I40+J40+0.15)*[1]条件输入!$G$2</f>
-        <v>1139.2659032607414</v>
+        <v>1223.7612367938962</v>
       </c>
       <c r="V40" s="8">
         <f>PI()*(E40+1.3)^2*(H40+I40+J40+0.15)*[1]条件输入!$H$2</f>
-        <v>284.81647581518524</v>
+        <v>305.94030919847393</v>
       </c>
       <c r="W40" s="8">
-        <f>U40+V40-P40-Q40</f>
-        <v>829.79305638287701</v>
+        <f t="shared" si="10"/>
+        <v>875.57077373466041</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4395,7 +4513,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E41" s="6">
         <v>10.25</v>
@@ -4419,29 +4537,29 @@
         <v>0.6</v>
       </c>
       <c r="L41" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M41" s="6">
         <v>20</v>
       </c>
       <c r="N41" s="7">
+        <f t="shared" si="8"/>
+        <v>640</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P41" s="8">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P41" s="8">
-        <f t="shared" si="4"/>
         <v>603.65048340258375</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50.480288855125885</v>
       </c>
       <c r="R41" s="8">
-        <f>120*(H41+I41+J41+1)</f>
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
       <c r="S41" s="9">
@@ -4456,7 +4574,7 @@
         <v>305.94030919847393</v>
       </c>
       <c r="W41" s="8">
-        <f>U41+V41-P41-Q41</f>
+        <f t="shared" si="10"/>
         <v>875.57077373466041</v>
       </c>
     </row>
@@ -4471,10 +4589,10 @@
         <v>23</v>
       </c>
       <c r="D42" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E42" s="6">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="F42" s="6">
         <v>3</v>
@@ -4483,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I42" s="6">
         <v>1.4</v>
@@ -4495,45 +4613,45 @@
         <v>0.6</v>
       </c>
       <c r="L42" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M42" s="6">
         <v>20</v>
       </c>
       <c r="N42" s="7">
+        <f t="shared" si="8"/>
+        <v>680</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" si="2"/>
+        <v>346.36059005827468</v>
+      </c>
+      <c r="P42" s="8">
         <f t="shared" si="6"/>
-        <v>640</v>
-      </c>
-      <c r="O42" s="8">
-        <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P42" s="8">
-        <f t="shared" si="4"/>
-        <v>603.65048340258375</v>
+        <v>664.91808513227966</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="5"/>
-        <v>50.480288855125885</v>
+        <f t="shared" si="7"/>
+        <v>52.948402583602373</v>
       </c>
       <c r="R42" s="8">
-        <f>120*(H42+I42+J42+1)</f>
-        <v>540</v>
+        <f t="shared" si="9"/>
+        <v>552</v>
       </c>
       <c r="S42" s="9">
         <v>2</v>
       </c>
       <c r="U42" s="8">
         <f>PI()*(E42+1.3)^2*(H42+I42+J42+0.15)*[1]条件输入!$G$2</f>
-        <v>1223.7612367938962</v>
+        <v>1312.3060832575284</v>
       </c>
       <c r="V42" s="8">
         <f>PI()*(E42+1.3)^2*(H42+I42+J42+0.15)*[1]条件输入!$H$2</f>
-        <v>305.94030919847393</v>
+        <v>328.07652081438204</v>
       </c>
       <c r="W42" s="8">
-        <f>U42+V42-P42-Q42</f>
-        <v>875.57077373466041</v>
+        <f t="shared" si="10"/>
+        <v>922.51611635602842</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4544,13 +4662,13 @@
         <v>180</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="E43" s="6">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="F43" s="6">
         <v>3</v>
@@ -4559,57 +4677,57 @@
         <v>3</v>
       </c>
       <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
         <v>1.2</v>
       </c>
-      <c r="I43" s="6">
-        <v>1.4</v>
-      </c>
       <c r="J43" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K43" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L43" s="6">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M43" s="6">
         <v>20</v>
       </c>
       <c r="N43" s="7">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="O43" s="8">
+        <f t="shared" si="2"/>
+        <v>254.46900494077323</v>
+      </c>
+      <c r="P43" s="8">
         <f t="shared" si="6"/>
-        <v>680</v>
-      </c>
-      <c r="O43" s="8">
-        <f t="shared" si="0"/>
-        <v>346.36059005827468</v>
-      </c>
-      <c r="P43" s="8">
-        <f t="shared" si="4"/>
-        <v>664.91808513227966</v>
+        <v>424.11500823462211</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="5"/>
-        <v>52.948402583602373</v>
+        <f t="shared" si="7"/>
+        <v>39.023293146565614</v>
       </c>
       <c r="R43" s="8">
-        <f>120*(H43+I43+J43+1)</f>
-        <v>552</v>
+        <f t="shared" si="9"/>
+        <v>480</v>
       </c>
       <c r="S43" s="9">
         <v>2</v>
       </c>
       <c r="U43" s="8">
         <f>PI()*(E43+1.3)^2*(H43+I43+J43+0.15)*[1]条件输入!$G$2</f>
-        <v>1312.3060832575284</v>
+        <v>839.89474284073992</v>
       </c>
       <c r="V43" s="8">
         <f>PI()*(E43+1.3)^2*(H43+I43+J43+0.15)*[1]条件输入!$H$2</f>
-        <v>328.07652081438204</v>
+        <v>209.97368571018492</v>
       </c>
       <c r="W43" s="8">
-        <f>U43+V43-P43-Q43</f>
-        <v>922.51611635602842</v>
+        <f t="shared" si="10"/>
+        <v>586.7301271697371</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4623,10 +4741,10 @@
         <v>24</v>
       </c>
       <c r="D44" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E44" s="6">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
@@ -4647,29 +4765,29 @@
         <v>1</v>
       </c>
       <c r="L44" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M44" s="6">
         <v>20</v>
       </c>
       <c r="N44" s="7">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P44" s="8">
         <f t="shared" si="6"/>
-        <v>360</v>
-      </c>
-      <c r="O44" s="8">
-        <f t="shared" si="0"/>
-        <v>254.46900494077323</v>
-      </c>
-      <c r="P44" s="8">
-        <f t="shared" si="4"/>
-        <v>424.11500823462211</v>
+        <v>466.68358869076371</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" si="5"/>
-        <v>39.023293146565614</v>
+        <f t="shared" si="7"/>
+        <v>43.429376843225299</v>
       </c>
       <c r="R44" s="8">
-        <f>120*(H44+I44+J44+1)</f>
+        <f t="shared" si="9"/>
         <v>480</v>
       </c>
       <c r="S44" s="9">
@@ -4677,15 +4795,15 @@
       </c>
       <c r="U44" s="8">
         <f>PI()*(E44+1.3)^2*(H44+I44+J44+0.15)*[1]条件输入!$G$2</f>
-        <v>839.89474284073992</v>
+        <v>923.41712512907804</v>
       </c>
       <c r="V44" s="8">
         <f>PI()*(E44+1.3)^2*(H44+I44+J44+0.15)*[1]条件输入!$H$2</f>
-        <v>209.97368571018492</v>
+        <v>230.85428128226945</v>
       </c>
       <c r="W44" s="8">
-        <f>U44+V44-P44-Q44</f>
-        <v>586.7301271697371</v>
+        <f t="shared" si="10"/>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4699,7 +4817,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E45" s="6">
         <v>9.5</v>
@@ -4723,29 +4841,29 @@
         <v>1</v>
       </c>
       <c r="L45" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M45" s="6">
         <v>20</v>
       </c>
       <c r="N45" s="7">
+        <f t="shared" si="8"/>
+        <v>440</v>
+      </c>
+      <c r="O45" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P45" s="8">
         <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="O45" s="8">
-        <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P45" s="8">
-        <f t="shared" si="4"/>
         <v>466.68358869076371</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43.429376843225299</v>
       </c>
       <c r="R45" s="8">
-        <f>120*(H45+I45+J45+1)</f>
+        <f t="shared" si="9"/>
         <v>480</v>
       </c>
       <c r="S45" s="9">
@@ -4760,7 +4878,7 @@
         <v>230.85428128226945</v>
       </c>
       <c r="W45" s="8">
-        <f>U45+V45-P45-Q45</f>
+        <f t="shared" si="10"/>
         <v>644.15844087735843</v>
       </c>
     </row>
@@ -4775,10 +4893,10 @@
         <v>24</v>
       </c>
       <c r="D46" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="E46" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F46" s="6">
         <v>3</v>
@@ -4790,54 +4908,54 @@
         <v>1</v>
       </c>
       <c r="I46" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J46" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K46" s="6">
         <v>1</v>
       </c>
       <c r="L46" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M46" s="6">
         <v>20</v>
       </c>
       <c r="N46" s="7">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="O46" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P46" s="8">
         <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="O46" s="8">
-        <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P46" s="8">
-        <f t="shared" si="4"/>
-        <v>466.68358869076371</v>
+        <v>546.21824270414538</v>
       </c>
       <c r="Q46" s="8">
-        <f t="shared" si="5"/>
-        <v>43.429376843225299</v>
+        <f t="shared" si="7"/>
+        <v>48.071079988904216</v>
       </c>
       <c r="R46" s="8">
-        <f>120*(H46+I46+J46+1)</f>
-        <v>480</v>
+        <f t="shared" si="9"/>
+        <v>528</v>
       </c>
       <c r="S46" s="9">
         <v>2</v>
       </c>
       <c r="U46" s="8">
         <f>PI()*(E46+1.3)^2*(H46+I46+J46+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1139.2659032607414</v>
       </c>
       <c r="V46" s="8">
         <f>PI()*(E46+1.3)^2*(H46+I46+J46+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>284.81647581518524</v>
       </c>
       <c r="W46" s="8">
-        <f>U46+V46-P46-Q46</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="10"/>
+        <v>829.79305638287701</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4851,7 +4969,7 @@
         <v>24</v>
       </c>
       <c r="D47" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E47" s="6">
         <v>10</v>
@@ -4875,29 +4993,29 @@
         <v>1</v>
       </c>
       <c r="L47" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M47" s="6">
         <v>20</v>
       </c>
       <c r="N47" s="7">
+        <f t="shared" si="8"/>
+        <v>520</v>
+      </c>
+      <c r="O47" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P47" s="8">
         <f t="shared" si="6"/>
-        <v>480</v>
-      </c>
-      <c r="O47" s="8">
-        <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P47" s="8">
-        <f t="shared" si="4"/>
         <v>546.21824270414538</v>
       </c>
       <c r="Q47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48.071079988904216</v>
       </c>
       <c r="R47" s="8">
-        <f>120*(H47+I47+J47+1)</f>
+        <f t="shared" si="9"/>
         <v>528</v>
       </c>
       <c r="S47" s="9">
@@ -4912,7 +5030,7 @@
         <v>284.81647581518524</v>
       </c>
       <c r="W47" s="8">
-        <f>U47+V47-P47-Q47</f>
+        <f t="shared" si="10"/>
         <v>829.79305638287701</v>
       </c>
     </row>
@@ -4927,10 +5045,10 @@
         <v>24</v>
       </c>
       <c r="D48" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E48" s="6">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="F48" s="6">
         <v>3</v>
@@ -4939,7 +5057,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I48" s="6">
         <v>1.4</v>
@@ -4951,45 +5069,45 @@
         <v>1</v>
       </c>
       <c r="L48" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M48" s="6">
         <v>20</v>
       </c>
       <c r="N48" s="7">
+        <f t="shared" si="8"/>
+        <v>560</v>
+      </c>
+      <c r="O48" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P48" s="8">
         <f t="shared" si="6"/>
-        <v>520</v>
-      </c>
-      <c r="O48" s="8">
-        <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P48" s="8">
-        <f t="shared" si="4"/>
-        <v>546.21824270414538</v>
+        <v>603.65048340258375</v>
       </c>
       <c r="Q48" s="8">
-        <f t="shared" si="5"/>
-        <v>48.071079988904216</v>
+        <f t="shared" si="7"/>
+        <v>50.480288855125885</v>
       </c>
       <c r="R48" s="8">
-        <f>120*(H48+I48+J48+1)</f>
-        <v>528</v>
+        <f t="shared" si="9"/>
+        <v>540</v>
       </c>
       <c r="S48" s="9">
         <v>2</v>
       </c>
       <c r="U48" s="8">
         <f>PI()*(E48+1.3)^2*(H48+I48+J48+0.15)*[1]条件输入!$G$2</f>
-        <v>1139.2659032607414</v>
+        <v>1223.7612367938962</v>
       </c>
       <c r="V48" s="8">
         <f>PI()*(E48+1.3)^2*(H48+I48+J48+0.15)*[1]条件输入!$H$2</f>
-        <v>284.81647581518524</v>
+        <v>305.94030919847393</v>
       </c>
       <c r="W48" s="8">
-        <f>U48+V48-P48-Q48</f>
-        <v>829.79305638287701</v>
+        <f t="shared" si="10"/>
+        <v>875.57077373466041</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -5003,7 +5121,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E49" s="6">
         <v>10.25</v>
@@ -5027,29 +5145,29 @@
         <v>1</v>
       </c>
       <c r="L49" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M49" s="6">
         <v>20</v>
       </c>
       <c r="N49" s="7">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P49" s="8">
         <f t="shared" si="6"/>
-        <v>560</v>
-      </c>
-      <c r="O49" s="8">
-        <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P49" s="8">
-        <f t="shared" si="4"/>
         <v>603.65048340258375</v>
       </c>
       <c r="Q49" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50.480288855125885</v>
       </c>
       <c r="R49" s="8">
-        <f>120*(H49+I49+J49+1)</f>
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
       <c r="S49" s="9">
@@ -5064,7 +5182,7 @@
         <v>305.94030919847393</v>
       </c>
       <c r="W49" s="8">
-        <f>U49+V49-P49-Q49</f>
+        <f t="shared" si="10"/>
         <v>875.57077373466041</v>
       </c>
     </row>
@@ -5079,10 +5197,10 @@
         <v>24</v>
       </c>
       <c r="D50" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E50" s="6">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
@@ -5091,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I50" s="6">
         <v>1.4</v>
@@ -5103,62 +5221,62 @@
         <v>1</v>
       </c>
       <c r="L50" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M50" s="6">
         <v>20</v>
       </c>
       <c r="N50" s="7">
+        <f t="shared" si="8"/>
+        <v>640</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="2"/>
+        <v>346.36059005827468</v>
+      </c>
+      <c r="P50" s="8">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="O50" s="8">
-        <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P50" s="8">
-        <f t="shared" si="4"/>
-        <v>603.65048340258375</v>
+        <v>664.91808513227966</v>
       </c>
       <c r="Q50" s="8">
-        <f t="shared" si="5"/>
-        <v>50.480288855125885</v>
+        <f t="shared" si="7"/>
+        <v>52.948402583602373</v>
       </c>
       <c r="R50" s="8">
-        <f>120*(H50+I50+J50+1)</f>
-        <v>540</v>
+        <f t="shared" si="9"/>
+        <v>552</v>
       </c>
       <c r="S50" s="9">
         <v>2</v>
       </c>
       <c r="U50" s="8">
         <f>PI()*(E50+1.3)^2*(H50+I50+J50+0.15)*[1]条件输入!$G$2</f>
-        <v>1223.7612367938962</v>
+        <v>1312.3060832575284</v>
       </c>
       <c r="V50" s="8">
         <f>PI()*(E50+1.3)^2*(H50+I50+J50+0.15)*[1]条件输入!$H$2</f>
-        <v>305.94030919847393</v>
+        <v>328.07652081438204</v>
       </c>
       <c r="W50" s="8">
-        <f>U50+V50-P50-Q50</f>
-        <v>875.57077373466041</v>
+        <f t="shared" si="10"/>
+        <v>922.51611635602842</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="4">
         <v>180</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="E51" s="6">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="F51" s="6">
         <v>3</v>
@@ -5167,57 +5285,56 @@
         <v>3</v>
       </c>
       <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
         <v>1.2</v>
       </c>
-      <c r="I51" s="6">
-        <v>1.4</v>
-      </c>
       <c r="J51" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K51" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M51" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="6"/>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="0"/>
-        <v>346.36059005827468</v>
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
       </c>
       <c r="P51" s="8">
-        <f t="shared" si="4"/>
-        <v>664.91808513227966</v>
+        <f>PI()*E51^2*H51+PI()*G51^2*J51+PI()*(E51^2+F51^2+(E51^2*F51^2)^0.5)*I51/3</f>
+        <v>466.68358869076371</v>
       </c>
       <c r="Q51" s="8">
-        <f t="shared" si="5"/>
-        <v>52.948402583602373</v>
+        <f>PI()*(E51+0.1)^2*0.15</f>
+        <v>43.429376843225299</v>
       </c>
       <c r="R51" s="8">
-        <f>120*(H51+I51+J51+1)</f>
-        <v>552</v>
+        <f t="shared" si="9"/>
+        <v>480</v>
       </c>
       <c r="S51" s="9">
         <v>2</v>
       </c>
       <c r="U51" s="8">
         <f>PI()*(E51+1.3)^2*(H51+I51+J51+0.15)*[1]条件输入!$G$2</f>
-        <v>1312.3060832575284</v>
+        <v>923.41712512907804</v>
       </c>
       <c r="V51" s="8">
         <f>PI()*(E51+1.3)^2*(H51+I51+J51+0.15)*[1]条件输入!$H$2</f>
-        <v>328.07652081438204</v>
+        <v>230.85428128226945</v>
       </c>
       <c r="W51" s="8">
-        <f>U51+V51-P51-Q51</f>
-        <v>922.51611635602842</v>
+        <f t="shared" si="10"/>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5231,10 +5348,10 @@
         <v>22</v>
       </c>
       <c r="D52" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E52" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F52" s="6">
         <v>3</v>
@@ -5246,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J52" s="6">
         <v>0.8</v>
@@ -5264,35 +5381,35 @@
         <v>0</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
       </c>
       <c r="P52" s="8">
-        <f>PI()*E52^2*H52+PI()*G52^2*J52+PI()*(E52^2+F52^2+(E52^2*F52^2)^0.5)*I52/3</f>
-        <v>466.68358869076371</v>
+        <f t="shared" ref="P52:P74" si="11">PI()*E52^2*H52+PI()*G52^2*J52+PI()*(E52^2+F52^2+(E52^2*F52^2)^0.5)*I52/3</f>
+        <v>540.56337592768375</v>
       </c>
       <c r="Q52" s="8">
-        <f>PI()*(E52+0.1)^2*0.15</f>
-        <v>43.429376843225299</v>
+        <f t="shared" ref="Q52:Q74" si="12">PI()*(E52+0.1)^2*0.15</f>
+        <v>48.071079988904216</v>
       </c>
       <c r="R52" s="8">
-        <f>120*(H52+I52+J52+1)</f>
-        <v>480</v>
+        <f t="shared" si="9"/>
+        <v>504</v>
       </c>
       <c r="S52" s="9">
         <v>2</v>
       </c>
       <c r="U52" s="8">
         <f>PI()*(E52+1.3)^2*(H52+I52+J52+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1075.0819087108405</v>
       </c>
       <c r="V52" s="8">
         <f>PI()*(E52+1.3)^2*(H52+I52+J52+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>268.77047717771006</v>
       </c>
       <c r="W52" s="8">
-        <f>U52+V52-P52-Q52</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="10"/>
+        <v>755.21792997196258</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5306,10 +5423,10 @@
         <v>22</v>
       </c>
       <c r="D53" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E53" s="6">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
@@ -5321,10 +5438,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="6">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J53" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K53" s="6">
         <v>0</v>
@@ -5339,35 +5456,35 @@
         <v>0</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
       </c>
       <c r="P53" s="8">
-        <f t="shared" ref="P53:P75" si="7">PI()*E53^2*H53+PI()*G53^2*J53+PI()*(E53^2+F53^2+(E53^2*F53^2)^0.5)*I53/3</f>
-        <v>540.56337592768375</v>
+        <f t="shared" si="11"/>
+        <v>600.97358466233754</v>
       </c>
       <c r="Q53" s="8">
-        <f t="shared" ref="Q53:Q75" si="8">PI()*(E53+0.1)^2*0.15</f>
-        <v>48.071079988904216</v>
+        <f t="shared" si="12"/>
+        <v>50.480288855125885</v>
       </c>
       <c r="R53" s="8">
-        <f>120*(H53+I53+J53+1)</f>
-        <v>504</v>
+        <f t="shared" si="9"/>
+        <v>552</v>
       </c>
       <c r="S53" s="9">
         <v>2</v>
       </c>
       <c r="U53" s="8">
         <f>PI()*(E53+1.3)^2*(H53+I53+J53+0.15)*[1]条件输入!$G$2</f>
-        <v>1075.0819087108405</v>
+        <v>1257.2889419115372</v>
       </c>
       <c r="V53" s="8">
         <f>PI()*(E53+1.3)^2*(H53+I53+J53+0.15)*[1]条件输入!$H$2</f>
-        <v>268.77047717771006</v>
+        <v>314.32223547788419</v>
       </c>
       <c r="W53" s="8">
-        <f>U53+V53-P53-Q53</f>
-        <v>755.21792997196258</v>
+        <f t="shared" si="10"/>
+        <v>920.15730387195788</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5381,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="E54" s="6">
         <v>10.25</v>
@@ -5396,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="6">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J54" s="6">
         <v>1</v>
@@ -5414,35 +5531,35 @@
         <v>0</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>330.06357816777762</v>
       </c>
       <c r="P54" s="8">
-        <f t="shared" si="7"/>
-        <v>600.97358466233754</v>
+        <f t="shared" si="11"/>
+        <v>616.13831420060319</v>
       </c>
       <c r="Q54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>50.480288855125885</v>
       </c>
       <c r="R54" s="8">
-        <f>120*(H54+I54+J54+1)</f>
-        <v>552</v>
+        <f t="shared" si="9"/>
+        <v>564</v>
       </c>
       <c r="S54" s="9">
         <v>2</v>
       </c>
       <c r="U54" s="8">
         <f>PI()*(E54+1.3)^2*(H54+I54+J54+0.15)*[1]条件输入!$G$2</f>
-        <v>1257.2889419115372</v>
+        <v>1290.8166470291781</v>
       </c>
       <c r="V54" s="8">
         <f>PI()*(E54+1.3)^2*(H54+I54+J54+0.15)*[1]条件输入!$H$2</f>
-        <v>314.32223547788419</v>
+        <v>322.70416175729446</v>
       </c>
       <c r="W54" s="8">
-        <f>U54+V54-P54-Q54</f>
-        <v>920.15730387195788</v>
+        <f t="shared" si="10"/>
+        <v>946.9022057307435</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5456,10 +5573,10 @@
         <v>22</v>
       </c>
       <c r="D55" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E55" s="6">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
@@ -5489,19 +5606,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
+        <f t="shared" si="2"/>
+        <v>363.05030103047045</v>
       </c>
       <c r="P55" s="8">
-        <f t="shared" si="7"/>
-        <v>616.13831420060319</v>
+        <f t="shared" si="11"/>
+        <v>670.48786710770662</v>
       </c>
       <c r="Q55" s="8">
-        <f t="shared" si="8"/>
-        <v>50.480288855125885</v>
+        <f t="shared" si="12"/>
+        <v>55.475421174333661</v>
       </c>
       <c r="R55" s="8">
-        <f>120*(H55+I55+J55+1)</f>
+        <f t="shared" si="9"/>
         <v>564</v>
       </c>
       <c r="S55" s="9">
@@ -5509,15 +5626,15 @@
       </c>
       <c r="U55" s="8">
         <f>PI()*(E55+1.3)^2*(H55+I55+J55+0.15)*[1]条件输入!$G$2</f>
-        <v>1290.8166470291781</v>
+        <v>1404.9946904312458</v>
       </c>
       <c r="V55" s="8">
         <f>PI()*(E55+1.3)^2*(H55+I55+J55+0.15)*[1]条件输入!$H$2</f>
-        <v>322.70416175729446</v>
+        <v>351.24867260781133</v>
       </c>
       <c r="W55" s="8">
-        <f>U55+V55-P55-Q55</f>
-        <v>946.9022057307435</v>
+        <f t="shared" si="10"/>
+        <v>1030.280074757017</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5531,10 +5648,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E56" s="6">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="F56" s="6">
         <v>3</v>
@@ -5546,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J56" s="6">
         <v>1</v>
@@ -5564,35 +5681,35 @@
         <v>0</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="0"/>
-        <v>363.05030103047045</v>
+        <f t="shared" si="2"/>
+        <v>380.13271108436498</v>
       </c>
       <c r="P56" s="8">
-        <f t="shared" si="7"/>
-        <v>670.48786710770662</v>
+        <f t="shared" si="11"/>
+        <v>715.65480648775497</v>
       </c>
       <c r="Q56" s="8">
-        <f t="shared" si="8"/>
-        <v>55.475421174333661</v>
+        <f t="shared" si="12"/>
+        <v>58.061344627319755</v>
       </c>
       <c r="R56" s="8">
-        <f>120*(H56+I56+J56+1)</f>
-        <v>564</v>
+        <f t="shared" si="9"/>
+        <v>576</v>
       </c>
       <c r="S56" s="9">
         <v>2</v>
       </c>
       <c r="U56" s="8">
         <f>PI()*(E56+1.3)^2*(H56+I56+J56+0.15)*[1]条件输入!$G$2</f>
-        <v>1404.9946904312458</v>
+        <v>1501.9213060946556</v>
       </c>
       <c r="V56" s="8">
         <f>PI()*(E56+1.3)^2*(H56+I56+J56+0.15)*[1]条件输入!$H$2</f>
-        <v>351.24867260781133</v>
+        <v>375.48032652366379</v>
       </c>
       <c r="W56" s="8">
-        <f>U56+V56-P56-Q56</f>
-        <v>1030.280074757017</v>
+        <f t="shared" si="10"/>
+        <v>1103.6854815032445</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5606,10 +5723,10 @@
         <v>22</v>
       </c>
       <c r="D57" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E57" s="6">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F57" s="6">
         <v>3</v>
@@ -5618,7 +5735,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I57" s="6">
         <v>1.8</v>
@@ -5639,35 +5756,35 @@
         <v>0</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="0"/>
-        <v>380.13271108436498</v>
+        <f t="shared" si="2"/>
+        <v>415.47562843725012</v>
       </c>
       <c r="P57" s="8">
-        <f t="shared" si="7"/>
-        <v>715.65480648775497</v>
+        <f t="shared" si="11"/>
+        <v>816.578470484327</v>
       </c>
       <c r="Q57" s="8">
-        <f t="shared" si="8"/>
-        <v>58.061344627319755</v>
+        <f t="shared" si="12"/>
+        <v>63.409906120056384</v>
       </c>
       <c r="R57" s="8">
-        <f>120*(H57+I57+J57+1)</f>
-        <v>576</v>
+        <f t="shared" si="9"/>
+        <v>588</v>
       </c>
       <c r="S57" s="9">
         <v>2</v>
       </c>
       <c r="U57" s="8">
         <f>PI()*(E57+1.3)^2*(H57+I57+J57+0.15)*[1]条件输入!$G$2</f>
-        <v>1501.9213060946556</v>
+        <v>1667.6880707798518</v>
       </c>
       <c r="V57" s="8">
         <f>PI()*(E57+1.3)^2*(H57+I57+J57+0.15)*[1]条件输入!$H$2</f>
-        <v>375.48032652366379</v>
+        <v>416.92201769496285</v>
       </c>
       <c r="W57" s="8">
-        <f>U57+V57-P57-Q57</f>
-        <v>1103.6854815032445</v>
+        <f t="shared" si="10"/>
+        <v>1204.6217118704315</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5681,10 +5798,10 @@
         <v>22</v>
       </c>
       <c r="D58" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E58" s="6">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F58" s="6">
         <v>3</v>
@@ -5693,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I58" s="6">
         <v>1.8</v>
@@ -5714,35 +5831,35 @@
         <v>0</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="0"/>
-        <v>415.47562843725012</v>
+        <f t="shared" si="2"/>
+        <v>452.38934211693021</v>
       </c>
       <c r="P58" s="8">
-        <f t="shared" si="7"/>
-        <v>816.578470484327</v>
+        <f t="shared" si="11"/>
+        <v>927.39815133970694</v>
       </c>
       <c r="Q58" s="8">
-        <f t="shared" si="8"/>
-        <v>63.409906120056384</v>
+        <f t="shared" si="12"/>
+        <v>68.994087061812237</v>
       </c>
       <c r="R58" s="8">
-        <f>120*(H58+I58+J58+1)</f>
-        <v>588</v>
+        <f t="shared" si="9"/>
+        <v>600</v>
       </c>
       <c r="S58" s="9">
         <v>2</v>
       </c>
       <c r="U58" s="8">
         <f>PI()*(E58+1.3)^2*(H58+I58+J58+0.15)*[1]条件输入!$G$2</f>
-        <v>1667.6880707798518</v>
+        <v>1844.9781973184154</v>
       </c>
       <c r="V58" s="8">
         <f>PI()*(E58+1.3)^2*(H58+I58+J58+0.15)*[1]条件输入!$H$2</f>
-        <v>416.92201769496285</v>
+        <v>461.24454932960367</v>
       </c>
       <c r="W58" s="8">
-        <f>U58+V58-P58-Q58</f>
-        <v>1204.6217118704315</v>
+        <f t="shared" si="10"/>
+        <v>1309.8305082464997</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5753,13 +5870,13 @@
         <v>180</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="E59" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F59" s="6">
         <v>3</v>
@@ -5768,56 +5885,57 @@
         <v>3</v>
       </c>
       <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
         <v>1.2</v>
       </c>
-      <c r="I59" s="6">
-        <v>1.8</v>
-      </c>
       <c r="J59" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K59" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L59" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M59" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N59" s="7">
-        <v>0</v>
+        <f t="shared" ref="N59:N74" si="13">L59*M59</f>
+        <v>400</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="0"/>
-        <v>452.38934211693021</v>
+        <f t="shared" si="2"/>
+        <v>254.46900494077323</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" si="7"/>
-        <v>927.39815133970694</v>
+        <f t="shared" si="11"/>
+        <v>424.11500823462211</v>
       </c>
       <c r="Q59" s="8">
-        <f t="shared" si="8"/>
-        <v>68.994087061812237</v>
+        <f t="shared" si="12"/>
+        <v>39.023293146565614</v>
       </c>
       <c r="R59" s="8">
-        <f>120*(H59+I59+J59+1)</f>
-        <v>600</v>
+        <f t="shared" si="9"/>
+        <v>480</v>
       </c>
       <c r="S59" s="9">
         <v>2</v>
       </c>
       <c r="U59" s="8">
         <f>PI()*(E59+1.3)^2*(H59+I59+J59+0.15)*[1]条件输入!$G$2</f>
-        <v>1844.9781973184154</v>
+        <v>839.89474284073992</v>
       </c>
       <c r="V59" s="8">
         <f>PI()*(E59+1.3)^2*(H59+I59+J59+0.15)*[1]条件输入!$H$2</f>
-        <v>461.24454932960367</v>
+        <v>209.97368571018492</v>
       </c>
       <c r="W59" s="8">
-        <f>U59+V59-P59-Q59</f>
-        <v>1309.8305082464997</v>
+        <f t="shared" si="10"/>
+        <v>586.7301271697371</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5831,10 +5949,10 @@
         <v>23</v>
       </c>
       <c r="D60" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E60" s="6">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F60" s="6">
         <v>3</v>
@@ -5855,29 +5973,29 @@
         <v>0.6</v>
       </c>
       <c r="L60" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M60" s="6">
         <v>20</v>
       </c>
       <c r="N60" s="7">
-        <f t="shared" ref="N60:N75" si="9">L60*M60</f>
-        <v>400</v>
+        <f t="shared" si="13"/>
+        <v>440</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="0"/>
-        <v>254.46900494077323</v>
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
       </c>
       <c r="P60" s="8">
-        <f t="shared" si="7"/>
-        <v>424.11500823462211</v>
+        <f t="shared" si="11"/>
+        <v>466.68358869076371</v>
       </c>
       <c r="Q60" s="8">
-        <f t="shared" si="8"/>
-        <v>39.023293146565614</v>
+        <f t="shared" si="12"/>
+        <v>43.429376843225299</v>
       </c>
       <c r="R60" s="8">
-        <f>120*(H60+I60+J60+1)</f>
+        <f t="shared" si="9"/>
         <v>480</v>
       </c>
       <c r="S60" s="9">
@@ -5885,15 +6003,15 @@
       </c>
       <c r="U60" s="8">
         <f>PI()*(E60+1.3)^2*(H60+I60+J60+0.15)*[1]条件输入!$G$2</f>
-        <v>839.89474284073992</v>
+        <v>923.41712512907804</v>
       </c>
       <c r="V60" s="8">
         <f>PI()*(E60+1.3)^2*(H60+I60+J60+0.15)*[1]条件输入!$H$2</f>
-        <v>209.97368571018492</v>
+        <v>230.85428128226945</v>
       </c>
       <c r="W60" s="8">
-        <f>U60+V60-P60-Q60</f>
-        <v>586.7301271697371</v>
+        <f t="shared" si="10"/>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5907,7 +6025,7 @@
         <v>23</v>
       </c>
       <c r="D61" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E61" s="6">
         <v>9.5</v>
@@ -5931,29 +6049,29 @@
         <v>0.6</v>
       </c>
       <c r="L61" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M61" s="6">
         <v>20</v>
       </c>
       <c r="N61" s="7">
+        <f t="shared" si="13"/>
+        <v>480</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
+      </c>
+      <c r="P61" s="8">
+        <f t="shared" si="11"/>
+        <v>466.68358869076371</v>
+      </c>
+      <c r="Q61" s="8">
+        <f t="shared" si="12"/>
+        <v>43.429376843225299</v>
+      </c>
+      <c r="R61" s="8">
         <f t="shared" si="9"/>
-        <v>440</v>
-      </c>
-      <c r="O61" s="8">
-        <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P61" s="8">
-        <f t="shared" si="7"/>
-        <v>466.68358869076371</v>
-      </c>
-      <c r="Q61" s="8">
-        <f t="shared" si="8"/>
-        <v>43.429376843225299</v>
-      </c>
-      <c r="R61" s="8">
-        <f>120*(H61+I61+J61+1)</f>
         <v>480</v>
       </c>
       <c r="S61" s="9">
@@ -5968,7 +6086,7 @@
         <v>230.85428128226945</v>
       </c>
       <c r="W61" s="8">
-        <f>U61+V61-P61-Q61</f>
+        <f t="shared" si="10"/>
         <v>644.15844087735843</v>
       </c>
     </row>
@@ -5983,10 +6101,10 @@
         <v>23</v>
       </c>
       <c r="D62" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="E62" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
@@ -5998,54 +6116,54 @@
         <v>1</v>
       </c>
       <c r="I62" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J62" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K62" s="6">
         <v>0.6</v>
       </c>
       <c r="L62" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M62" s="6">
         <v>20</v>
       </c>
       <c r="N62" s="7">
+        <f t="shared" si="13"/>
+        <v>520</v>
+      </c>
+      <c r="O62" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P62" s="8">
+        <f t="shared" si="11"/>
+        <v>546.21824270414538</v>
+      </c>
+      <c r="Q62" s="8">
+        <f t="shared" si="12"/>
+        <v>48.071079988904216</v>
+      </c>
+      <c r="R62" s="8">
         <f t="shared" si="9"/>
-        <v>480</v>
-      </c>
-      <c r="O62" s="8">
-        <f t="shared" si="0"/>
-        <v>283.5287369864788</v>
-      </c>
-      <c r="P62" s="8">
-        <f t="shared" si="7"/>
-        <v>466.68358869076371</v>
-      </c>
-      <c r="Q62" s="8">
-        <f t="shared" si="8"/>
-        <v>43.429376843225299</v>
-      </c>
-      <c r="R62" s="8">
-        <f>120*(H62+I62+J62+1)</f>
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="S62" s="9">
         <v>2</v>
       </c>
       <c r="U62" s="8">
         <f>PI()*(E62+1.3)^2*(H62+I62+J62+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1139.2659032607414</v>
       </c>
       <c r="V62" s="8">
         <f>PI()*(E62+1.3)^2*(H62+I62+J62+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>284.81647581518524</v>
       </c>
       <c r="W62" s="8">
-        <f>U62+V62-P62-Q62</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="10"/>
+        <v>829.79305638287701</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6059,7 +6177,7 @@
         <v>23</v>
       </c>
       <c r="D63" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E63" s="6">
         <v>10</v>
@@ -6083,29 +6201,29 @@
         <v>0.6</v>
       </c>
       <c r="L63" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M63" s="6">
         <v>20</v>
       </c>
       <c r="N63" s="7">
+        <f t="shared" si="13"/>
+        <v>560</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P63" s="8">
+        <f t="shared" si="11"/>
+        <v>546.21824270414538</v>
+      </c>
+      <c r="Q63" s="8">
+        <f t="shared" si="12"/>
+        <v>48.071079988904216</v>
+      </c>
+      <c r="R63" s="8">
         <f t="shared" si="9"/>
-        <v>520</v>
-      </c>
-      <c r="O63" s="8">
-        <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P63" s="8">
-        <f t="shared" si="7"/>
-        <v>546.21824270414538</v>
-      </c>
-      <c r="Q63" s="8">
-        <f t="shared" si="8"/>
-        <v>48.071079988904216</v>
-      </c>
-      <c r="R63" s="8">
-        <f>120*(H63+I63+J63+1)</f>
         <v>528</v>
       </c>
       <c r="S63" s="9">
@@ -6120,7 +6238,7 @@
         <v>284.81647581518524</v>
       </c>
       <c r="W63" s="8">
-        <f>U63+V63-P63-Q63</f>
+        <f t="shared" si="10"/>
         <v>829.79305638287701</v>
       </c>
     </row>
@@ -6135,10 +6253,10 @@
         <v>23</v>
       </c>
       <c r="D64" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E64" s="6">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="F64" s="6">
         <v>3</v>
@@ -6147,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I64" s="6">
         <v>1.4</v>
@@ -6159,45 +6277,45 @@
         <v>0.6</v>
       </c>
       <c r="L64" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M64" s="6">
         <v>20</v>
       </c>
       <c r="N64" s="7">
+        <f t="shared" si="13"/>
+        <v>600</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P64" s="8">
+        <f t="shared" si="11"/>
+        <v>603.65048340258375</v>
+      </c>
+      <c r="Q64" s="8">
+        <f t="shared" si="12"/>
+        <v>50.480288855125885</v>
+      </c>
+      <c r="R64" s="8">
         <f t="shared" si="9"/>
-        <v>560</v>
-      </c>
-      <c r="O64" s="8">
-        <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P64" s="8">
-        <f t="shared" si="7"/>
-        <v>546.21824270414538</v>
-      </c>
-      <c r="Q64" s="8">
-        <f t="shared" si="8"/>
-        <v>48.071079988904216</v>
-      </c>
-      <c r="R64" s="8">
-        <f>120*(H64+I64+J64+1)</f>
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="S64" s="9">
         <v>2</v>
       </c>
       <c r="U64" s="8">
         <f>PI()*(E64+1.3)^2*(H64+I64+J64+0.15)*[1]条件输入!$G$2</f>
-        <v>1139.2659032607414</v>
+        <v>1223.7612367938962</v>
       </c>
       <c r="V64" s="8">
         <f>PI()*(E64+1.3)^2*(H64+I64+J64+0.15)*[1]条件输入!$H$2</f>
-        <v>284.81647581518524</v>
+        <v>305.94030919847393</v>
       </c>
       <c r="W64" s="8">
-        <f>U64+V64-P64-Q64</f>
-        <v>829.79305638287701</v>
+        <f t="shared" si="10"/>
+        <v>875.57077373466041</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6211,7 +6329,7 @@
         <v>23</v>
       </c>
       <c r="D65" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E65" s="6">
         <v>10.25</v>
@@ -6235,29 +6353,29 @@
         <v>0.6</v>
       </c>
       <c r="L65" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M65" s="6">
         <v>20</v>
       </c>
       <c r="N65" s="7">
+        <f t="shared" si="13"/>
+        <v>640</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="2"/>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="P65" s="8">
+        <f t="shared" si="11"/>
+        <v>603.65048340258375</v>
+      </c>
+      <c r="Q65" s="8">
+        <f t="shared" si="12"/>
+        <v>50.480288855125885</v>
+      </c>
+      <c r="R65" s="8">
         <f t="shared" si="9"/>
-        <v>600</v>
-      </c>
-      <c r="O65" s="8">
-        <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P65" s="8">
-        <f t="shared" si="7"/>
-        <v>603.65048340258375</v>
-      </c>
-      <c r="Q65" s="8">
-        <f t="shared" si="8"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R65" s="8">
-        <f>120*(H65+I65+J65+1)</f>
         <v>540</v>
       </c>
       <c r="S65" s="9">
@@ -6272,7 +6390,7 @@
         <v>305.94030919847393</v>
       </c>
       <c r="W65" s="8">
-        <f>U65+V65-P65-Q65</f>
+        <f t="shared" si="10"/>
         <v>875.57077373466041</v>
       </c>
     </row>
@@ -6287,10 +6405,10 @@
         <v>23</v>
       </c>
       <c r="D66" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E66" s="6">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="F66" s="6">
         <v>3</v>
@@ -6299,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I66" s="6">
         <v>1.4</v>
@@ -6311,45 +6429,45 @@
         <v>0.6</v>
       </c>
       <c r="L66" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M66" s="6">
         <v>20</v>
       </c>
       <c r="N66" s="7">
+        <f t="shared" si="13"/>
+        <v>680</v>
+      </c>
+      <c r="O66" s="8">
+        <f t="shared" si="2"/>
+        <v>346.36059005827468</v>
+      </c>
+      <c r="P66" s="8">
+        <f t="shared" si="11"/>
+        <v>664.91808513227966</v>
+      </c>
+      <c r="Q66" s="8">
+        <f t="shared" si="12"/>
+        <v>52.948402583602373</v>
+      </c>
+      <c r="R66" s="8">
         <f t="shared" si="9"/>
-        <v>640</v>
-      </c>
-      <c r="O66" s="8">
-        <f t="shared" si="0"/>
-        <v>330.06357816777762</v>
-      </c>
-      <c r="P66" s="8">
-        <f t="shared" si="7"/>
-        <v>603.65048340258375</v>
-      </c>
-      <c r="Q66" s="8">
-        <f t="shared" si="8"/>
-        <v>50.480288855125885</v>
-      </c>
-      <c r="R66" s="8">
-        <f>120*(H66+I66+J66+1)</f>
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="S66" s="9">
         <v>2</v>
       </c>
       <c r="U66" s="8">
         <f>PI()*(E66+1.3)^2*(H66+I66+J66+0.15)*[1]条件输入!$G$2</f>
-        <v>1223.7612367938962</v>
+        <v>1312.3060832575284</v>
       </c>
       <c r="V66" s="8">
         <f>PI()*(E66+1.3)^2*(H66+I66+J66+0.15)*[1]条件输入!$H$2</f>
-        <v>305.94030919847393</v>
+        <v>328.07652081438204</v>
       </c>
       <c r="W66" s="8">
-        <f>U66+V66-P66-Q66</f>
-        <v>875.57077373466041</v>
+        <f t="shared" si="10"/>
+        <v>922.51611635602842</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6360,13 +6478,13 @@
         <v>180</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="E67" s="6">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
@@ -6375,57 +6493,57 @@
         <v>3</v>
       </c>
       <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6">
         <v>1.2</v>
       </c>
-      <c r="I67" s="6">
-        <v>1.4</v>
-      </c>
       <c r="J67" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K67" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L67" s="6">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M67" s="6">
         <v>20</v>
       </c>
       <c r="N67" s="7">
-        <f t="shared" si="9"/>
-        <v>680</v>
+        <f t="shared" si="13"/>
+        <v>360</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="0"/>
-        <v>346.36059005827468</v>
+        <f t="shared" si="2"/>
+        <v>254.46900494077323</v>
       </c>
       <c r="P67" s="8">
-        <f t="shared" si="7"/>
-        <v>664.91808513227966</v>
+        <f t="shared" si="11"/>
+        <v>424.11500823462211</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" si="8"/>
-        <v>52.948402583602373</v>
+        <f t="shared" si="12"/>
+        <v>39.023293146565614</v>
       </c>
       <c r="R67" s="8">
-        <f>120*(H67+I67+J67+1)</f>
-        <v>552</v>
+        <f t="shared" ref="R67:R74" si="14">120*(H67+I67+J67+1)</f>
+        <v>480</v>
       </c>
       <c r="S67" s="9">
         <v>2</v>
       </c>
       <c r="U67" s="8">
         <f>PI()*(E67+1.3)^2*(H67+I67+J67+0.15)*[1]条件输入!$G$2</f>
-        <v>1312.3060832575284</v>
+        <v>839.89474284073992</v>
       </c>
       <c r="V67" s="8">
         <f>PI()*(E67+1.3)^2*(H67+I67+J67+0.15)*[1]条件输入!$H$2</f>
-        <v>328.07652081438204</v>
+        <v>209.97368571018492</v>
       </c>
       <c r="W67" s="8">
-        <f>U67+V67-P67-Q67</f>
-        <v>922.51611635602842</v>
+        <f t="shared" ref="W67:W74" si="15">U67+V67-P67-Q67</f>
+        <v>586.7301271697371</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6439,10 +6557,10 @@
         <v>24</v>
       </c>
       <c r="D68" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E68" s="6">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F68" s="6">
         <v>3</v>
@@ -6463,29 +6581,29 @@
         <v>1</v>
       </c>
       <c r="L68" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M68" s="6">
         <v>20</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="9"/>
-        <v>360</v>
+        <f t="shared" si="13"/>
+        <v>400</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" si="0"/>
-        <v>254.46900494077323</v>
+        <f t="shared" si="2"/>
+        <v>283.5287369864788</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" si="7"/>
-        <v>424.11500823462211</v>
+        <f t="shared" si="11"/>
+        <v>466.68358869076371</v>
       </c>
       <c r="Q68" s="8">
-        <f t="shared" si="8"/>
-        <v>39.023293146565614</v>
+        <f t="shared" si="12"/>
+        <v>43.429376843225299</v>
       </c>
       <c r="R68" s="8">
-        <f>120*(H68+I68+J68+1)</f>
+        <f t="shared" si="14"/>
         <v>480</v>
       </c>
       <c r="S68" s="9">
@@ -6493,15 +6611,15 @@
       </c>
       <c r="U68" s="8">
         <f>PI()*(E68+1.3)^2*(H68+I68+J68+0.15)*[1]条件输入!$G$2</f>
-        <v>839.89474284073992</v>
+        <v>923.41712512907804</v>
       </c>
       <c r="V68" s="8">
         <f>PI()*(E68+1.3)^2*(H68+I68+J68+0.15)*[1]条件输入!$H$2</f>
-        <v>209.97368571018492</v>
+        <v>230.85428128226945</v>
       </c>
       <c r="W68" s="8">
-        <f>U68+V68-P68-Q68</f>
-        <v>586.7301271697371</v>
+        <f t="shared" si="15"/>
+        <v>644.15844087735843</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6515,7 +6633,7 @@
         <v>24</v>
       </c>
       <c r="D69" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E69" s="6">
         <v>9.5</v>
@@ -6539,29 +6657,29 @@
         <v>1</v>
       </c>
       <c r="L69" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M69" s="6">
         <v>20</v>
       </c>
       <c r="N69" s="7">
-        <f t="shared" si="9"/>
-        <v>400</v>
+        <f t="shared" si="13"/>
+        <v>440</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O69:O74" si="16">PI()*E69^2</f>
         <v>283.5287369864788</v>
       </c>
       <c r="P69" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>466.68358869076371</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>43.429376843225299</v>
       </c>
       <c r="R69" s="8">
-        <f>120*(H69+I69+J69+1)</f>
+        <f t="shared" si="14"/>
         <v>480</v>
       </c>
       <c r="S69" s="9">
@@ -6576,7 +6694,7 @@
         <v>230.85428128226945</v>
       </c>
       <c r="W69" s="8">
-        <f>U69+V69-P69-Q69</f>
+        <f t="shared" si="15"/>
         <v>644.15844087735843</v>
       </c>
     </row>
@@ -6591,10 +6709,10 @@
         <v>24</v>
       </c>
       <c r="D70" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="E70" s="6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F70" s="6">
         <v>3</v>
@@ -6606,54 +6724,54 @@
         <v>1</v>
       </c>
       <c r="I70" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J70" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K70" s="6">
         <v>1</v>
       </c>
       <c r="L70" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M70" s="6">
         <v>20</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="9"/>
-        <v>440</v>
+        <f t="shared" si="13"/>
+        <v>480</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" ref="O70:O75" si="10">PI()*E70^2</f>
-        <v>283.5287369864788</v>
+        <f t="shared" si="16"/>
+        <v>314.15926535897933</v>
       </c>
       <c r="P70" s="8">
-        <f t="shared" si="7"/>
-        <v>466.68358869076371</v>
+        <f t="shared" si="11"/>
+        <v>546.21824270414538</v>
       </c>
       <c r="Q70" s="8">
-        <f t="shared" si="8"/>
-        <v>43.429376843225299</v>
+        <f t="shared" si="12"/>
+        <v>48.071079988904216</v>
       </c>
       <c r="R70" s="8">
-        <f>120*(H70+I70+J70+1)</f>
-        <v>480</v>
+        <f t="shared" si="14"/>
+        <v>528</v>
       </c>
       <c r="S70" s="9">
         <v>2</v>
       </c>
       <c r="U70" s="8">
         <f>PI()*(E70+1.3)^2*(H70+I70+J70+0.15)*[1]条件输入!$G$2</f>
-        <v>923.41712512907804</v>
+        <v>1139.2659032607414</v>
       </c>
       <c r="V70" s="8">
         <f>PI()*(E70+1.3)^2*(H70+I70+J70+0.15)*[1]条件输入!$H$2</f>
-        <v>230.85428128226945</v>
+        <v>284.81647581518524</v>
       </c>
       <c r="W70" s="8">
-        <f>U70+V70-P70-Q70</f>
-        <v>644.15844087735843</v>
+        <f t="shared" si="15"/>
+        <v>829.79305638287701</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6667,7 +6785,7 @@
         <v>24</v>
       </c>
       <c r="D71" s="1">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E71" s="6">
         <v>10</v>
@@ -6691,29 +6809,29 @@
         <v>1</v>
       </c>
       <c r="L71" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M71" s="6">
         <v>20</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="9"/>
-        <v>480</v>
+        <f t="shared" si="13"/>
+        <v>520</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>314.15926535897933</v>
       </c>
       <c r="P71" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>546.21824270414538</v>
       </c>
       <c r="Q71" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>48.071079988904216</v>
       </c>
       <c r="R71" s="8">
-        <f>120*(H71+I71+J71+1)</f>
+        <f t="shared" si="14"/>
         <v>528</v>
       </c>
       <c r="S71" s="9">
@@ -6728,7 +6846,7 @@
         <v>284.81647581518524</v>
       </c>
       <c r="W71" s="8">
-        <f>U71+V71-P71-Q71</f>
+        <f t="shared" si="15"/>
         <v>829.79305638287701</v>
       </c>
     </row>
@@ -6743,10 +6861,10 @@
         <v>24</v>
       </c>
       <c r="D72" s="1">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E72" s="6">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="F72" s="6">
         <v>3</v>
@@ -6755,7 +6873,7 @@
         <v>3</v>
       </c>
       <c r="H72" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I72" s="6">
         <v>1.4</v>
@@ -6767,45 +6885,45 @@
         <v>1</v>
       </c>
       <c r="L72" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M72" s="6">
         <v>20</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="9"/>
-        <v>520</v>
+        <f t="shared" si="13"/>
+        <v>560</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="10"/>
-        <v>314.15926535897933</v>
+        <f t="shared" si="16"/>
+        <v>330.06357816777762</v>
       </c>
       <c r="P72" s="8">
-        <f t="shared" si="7"/>
-        <v>546.21824270414538</v>
+        <f t="shared" si="11"/>
+        <v>603.65048340258375</v>
       </c>
       <c r="Q72" s="8">
-        <f t="shared" si="8"/>
-        <v>48.071079988904216</v>
+        <f t="shared" si="12"/>
+        <v>50.480288855125885</v>
       </c>
       <c r="R72" s="8">
-        <f>120*(H72+I72+J72+1)</f>
-        <v>528</v>
+        <f t="shared" si="14"/>
+        <v>540</v>
       </c>
       <c r="S72" s="9">
         <v>2</v>
       </c>
       <c r="U72" s="8">
         <f>PI()*(E72+1.3)^2*(H72+I72+J72+0.15)*[1]条件输入!$G$2</f>
-        <v>1139.2659032607414</v>
+        <v>1223.7612367938962</v>
       </c>
       <c r="V72" s="8">
         <f>PI()*(E72+1.3)^2*(H72+I72+J72+0.15)*[1]条件输入!$H$2</f>
-        <v>284.81647581518524</v>
+        <v>305.94030919847393</v>
       </c>
       <c r="W72" s="8">
-        <f>U72+V72-P72-Q72</f>
-        <v>829.79305638287701</v>
+        <f t="shared" si="15"/>
+        <v>875.57077373466041</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6819,7 +6937,7 @@
         <v>24</v>
       </c>
       <c r="D73" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="E73" s="6">
         <v>10.25</v>
@@ -6843,29 +6961,29 @@
         <v>1</v>
       </c>
       <c r="L73" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M73" s="6">
         <v>20</v>
       </c>
       <c r="N73" s="7">
-        <f t="shared" si="9"/>
-        <v>560</v>
+        <f t="shared" si="13"/>
+        <v>600</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>330.06357816777762</v>
       </c>
       <c r="P73" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>603.65048340258375</v>
       </c>
       <c r="Q73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>50.480288855125885</v>
       </c>
       <c r="R73" s="8">
-        <f>120*(H73+I73+J73+1)</f>
+        <f t="shared" si="14"/>
         <v>540</v>
       </c>
       <c r="S73" s="9">
@@ -6880,7 +6998,7 @@
         <v>305.94030919847393</v>
       </c>
       <c r="W73" s="8">
-        <f>U73+V73-P73-Q73</f>
+        <f t="shared" si="15"/>
         <v>875.57077373466041</v>
       </c>
     </row>
@@ -6895,10 +7013,10 @@
         <v>24</v>
       </c>
       <c r="D74" s="1">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="E74" s="6">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="F74" s="6">
         <v>3</v>
@@ -6907,7 +7025,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I74" s="6">
         <v>1.4</v>
@@ -6919,120 +7037,44 @@
         <v>1</v>
       </c>
       <c r="L74" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M74" s="6">
         <v>20</v>
       </c>
       <c r="N74" s="7">
-        <f t="shared" si="9"/>
-        <v>600</v>
+        <f t="shared" si="13"/>
+        <v>640</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="10"/>
-        <v>330.06357816777762</v>
+        <f t="shared" si="16"/>
+        <v>346.36059005827468</v>
       </c>
       <c r="P74" s="8">
-        <f t="shared" si="7"/>
-        <v>603.65048340258375</v>
+        <f t="shared" si="11"/>
+        <v>664.91808513227966</v>
       </c>
       <c r="Q74" s="8">
-        <f t="shared" si="8"/>
-        <v>50.480288855125885</v>
+        <f t="shared" si="12"/>
+        <v>52.948402583602373</v>
       </c>
       <c r="R74" s="8">
-        <f>120*(H74+I74+J74+1)</f>
-        <v>540</v>
+        <f t="shared" si="14"/>
+        <v>552</v>
       </c>
       <c r="S74" s="9">
         <v>2</v>
       </c>
       <c r="U74" s="8">
         <f>PI()*(E74+1.3)^2*(H74+I74+J74+0.15)*[1]条件输入!$G$2</f>
-        <v>1223.7612367938962</v>
+        <v>1312.3060832575284</v>
       </c>
       <c r="V74" s="8">
         <f>PI()*(E74+1.3)^2*(H74+I74+J74+0.15)*[1]条件输入!$H$2</f>
-        <v>305.94030919847393</v>
+        <v>328.07652081438204</v>
       </c>
       <c r="W74" s="8">
-        <f>U74+V74-P74-Q74</f>
-        <v>875.57077373466041</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
-      <c r="A75" s="4">
-        <v>8</v>
-      </c>
-      <c r="B75" s="4">
-        <v>180</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="1">
-        <v>120000</v>
-      </c>
-      <c r="E75" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="F75" s="6">
-        <v>3</v>
-      </c>
-      <c r="G75" s="6">
-        <v>3</v>
-      </c>
-      <c r="H75" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I75" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="J75" s="6">
-        <v>1</v>
-      </c>
-      <c r="K75" s="6">
-        <v>1</v>
-      </c>
-      <c r="L75" s="6">
-        <v>32</v>
-      </c>
-      <c r="M75" s="6">
-        <v>20</v>
-      </c>
-      <c r="N75" s="7">
-        <f t="shared" si="9"/>
-        <v>640</v>
-      </c>
-      <c r="O75" s="8">
-        <f t="shared" si="10"/>
-        <v>346.36059005827468</v>
-      </c>
-      <c r="P75" s="8">
-        <f t="shared" si="7"/>
-        <v>664.91808513227966</v>
-      </c>
-      <c r="Q75" s="8">
-        <f t="shared" si="8"/>
-        <v>52.948402583602373</v>
-      </c>
-      <c r="R75" s="8">
-        <f>120*(H75+I75+J75+1)</f>
-        <v>552</v>
-      </c>
-      <c r="S75" s="9">
-        <v>2</v>
-      </c>
-      <c r="U75" s="8">
-        <f>PI()*(E75+1.3)^2*(H75+I75+J75+0.15)*[1]条件输入!$G$2</f>
-        <v>1312.3060832575284</v>
-      </c>
-      <c r="V75" s="8">
-        <f>PI()*(E75+1.3)^2*(H75+I75+J75+0.15)*[1]条件输入!$H$2</f>
-        <v>328.07652081438204</v>
-      </c>
-      <c r="W75" s="8">
-        <f>U75+V75-P75-Q75</f>
+        <f t="shared" si="15"/>
         <v>922.51611635602842</v>
       </c>
     </row>
@@ -7045,10 +7087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27317D-277C-4FE1-9B36-7AD7F1F8E3EC}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="N3" sqref="N3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7061,163 +7103,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:16" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="25" t="s">
+      <c r="N3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P3" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2200</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3.65</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="8">
-        <f>((C3*D3)-(C3-F3*2)*(D3-F3*2))*G3</f>
-        <v>2.0125000000000002</v>
-      </c>
-      <c r="I3" s="8">
-        <f>(C3+0.5*2)*(D3+0.5*2)*0.15</f>
-        <v>4.1152500000000005</v>
-      </c>
-      <c r="J3" s="8">
-        <f>((C3*D3)-(C3-F3*2)*(D3-F3*2))*(E3-G3)</f>
-        <v>5.2325000000000008</v>
-      </c>
-      <c r="K3" s="8">
-        <f>H3*0.1</f>
-        <v>0.20125000000000004</v>
-      </c>
-      <c r="L3" s="9">
-        <f>C3*D3</f>
-        <v>17.885000000000002</v>
-      </c>
-      <c r="N3" s="8">
-        <v>35.116799999999998</v>
-      </c>
-      <c r="O3" s="8">
-        <v>8.7791999999999994</v>
-      </c>
-      <c r="P3" s="8">
-        <v>15.28</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="C4" s="6">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D4" s="6">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="E4" s="6">
         <v>1.8</v>
@@ -7229,47 +7266,44 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="8">
-        <f>((C4*D4)-(C4-F4*2)*(D4-F4*2))*G4</f>
-        <v>2.125</v>
+        <f t="shared" ref="H4:H11" si="0">((C4*D4)-(C4-F4*2)*(D4-F4*2))*G4</f>
+        <v>2.0125000000000002</v>
       </c>
       <c r="I4" s="8">
-        <f>(C4+0.5*2)*(D4+0.5*2)*0.15</f>
-        <v>4.5</v>
+        <f t="shared" ref="I4:I11" si="1">(C4+0.5*2)*(D4+0.5*2)*0.15</f>
+        <v>4.1152500000000005</v>
       </c>
       <c r="J4" s="8">
-        <f>((C4*D4)-(C4-F4*2)*(D4-F4*2))*(E4-G4)</f>
-        <v>5.5250000000000004</v>
+        <f t="shared" ref="J4:J11" si="2">((C4*D4)-(C4-F4*2)*(D4-F4*2))*(E4-G4)</f>
+        <v>5.2325000000000008</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K10" si="0">H4*0.1</f>
-        <v>0.21250000000000002</v>
+        <f>H4*0.1</f>
+        <v>0.20125000000000004</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" ref="L4:L10" si="1">C4*D4</f>
-        <v>20</v>
+        <f>C4*D4</f>
+        <v>17.885000000000002</v>
       </c>
       <c r="N4" s="8">
-        <f>(C4+0.5*2)*(D4+0.5*2)*(E4-0.2)*[1]条件输入!$G$2</f>
-        <v>38.400000000000006</v>
+        <v>35.116799999999998</v>
       </c>
       <c r="O4" s="8">
-        <f>(C4+0.5*2)*(D4+0.5*2)*(E4-0.2)*[1]条件输入!$H$2</f>
-        <v>9.5999999999999979</v>
+        <v>8.7791999999999994</v>
       </c>
       <c r="P4" s="8">
-        <f>N4+O4-C4*D4*(E4-0.2)</f>
-        <v>16</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B5" s="6">
-        <v>2750</v>
+        <v>2500</v>
       </c>
       <c r="C5" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
@@ -7284,151 +7318,151 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="8">
-        <f>((C5*D5)-(C5-F5*2)*(D5-F5*2))*G5</f>
-        <v>2.375</v>
+        <f t="shared" si="0"/>
+        <v>2.125</v>
       </c>
       <c r="I5" s="8">
-        <f>(C5+0.5*2)*(D5+0.5*2)*0.15</f>
-        <v>5.25</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
       <c r="J5" s="8">
-        <f>((C5*D5)-(C5-F5*2)*(D5-F5*2))*(E5-G5)</f>
-        <v>6.1749999999999998</v>
+        <f t="shared" si="2"/>
+        <v>5.5250000000000004</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.23750000000000002</v>
+        <f t="shared" ref="K5:K11" si="3">H5*0.1</f>
+        <v>0.21250000000000002</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" ref="L5:L11" si="4">C5*D5</f>
+        <v>20</v>
       </c>
       <c r="N5" s="8">
         <f>(C5+0.5*2)*(D5+0.5*2)*(E5-0.2)*[1]条件输入!$G$2</f>
-        <v>44.800000000000004</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="O5" s="8">
         <f>(C5+0.5*2)*(D5+0.5*2)*(E5-0.2)*[1]条件输入!$H$2</f>
+        <v>9.5999999999999979</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5:P11" si="5">N5+O5-C5*D5*(E5-0.2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2750</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.375</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="2"/>
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="N6" s="8">
+        <f>(C6+0.5*2)*(D6+0.5*2)*(E6-0.2)*[1]条件输入!$G$2</f>
+        <v>44.800000000000004</v>
+      </c>
+      <c r="O6" s="8">
+        <f>(C6+0.5*2)*(D6+0.5*2)*(E6-0.2)*[1]条件输入!$H$2</f>
         <v>11.199999999999998</v>
       </c>
-      <c r="P5" s="8">
-        <f>N5+O5-C5*D5*(E5-0.2)</f>
+      <c r="P6" s="8">
+        <f t="shared" si="5"/>
         <v>17.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12">
+    <row r="7" spans="1:16">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
         <v>3300</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C7" s="12">
         <v>6</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>4.5</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>1.8</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>0.25</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>0.5</v>
       </c>
-      <c r="H6" s="14">
-        <f>((C6*D6)-(C6-F6*2)*(D6-F6*2))*G6</f>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I6" s="14">
-        <f>(C6+0.5*2)*(D6+0.5*2)*0.15</f>
+      <c r="I7" s="14">
+        <f t="shared" si="1"/>
         <v>5.7749999999999995</v>
       </c>
-      <c r="J6" s="14">
-        <f>((C6*D6)-(C6-F6*2)*(D6-F6*2))*(E6-G6)</f>
+      <c r="J7" s="14">
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="K6" s="14">
-        <f t="shared" si="0"/>
+      <c r="K7" s="14">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="L6" s="12">
-        <f t="shared" si="1"/>
+      <c r="L7" s="12">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="N6" s="14">
-        <f>(C6+0.5*2)*(D6+0.5*2)*(E6-0.2)*[1]条件输入!$G$2</f>
+      <c r="N7" s="14">
+        <f>(C7+0.5*2)*(D7+0.5*2)*(E7-0.2)*[1]条件输入!$G$2</f>
         <v>49.28</v>
       </c>
-      <c r="O6" s="14">
-        <f>(C6+0.5*2)*(D6+0.5*2)*(E6-0.2)*[1]条件输入!$H$2</f>
+      <c r="O7" s="14">
+        <f>(C7+0.5*2)*(D7+0.5*2)*(E7-0.2)*[1]条件输入!$H$2</f>
         <v>12.319999999999997</v>
       </c>
-      <c r="P6" s="14">
-        <f>N6+O6-C6*D6*(E6-0.2)</f>
+      <c r="P7" s="14">
+        <f>N7+O7-C7*D7*(E7-0.2)</f>
         <v>18.399999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3520</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="8">
-        <f>((C7*D7)-(C7-F7*2)*(D7-F7*2))*G7</f>
-        <v>2.75</v>
-      </c>
-      <c r="I7" s="8">
-        <f>(C7+0.5*2)*(D7+0.5*2)*0.15</f>
-        <v>6.8250000000000002</v>
-      </c>
-      <c r="J7" s="8">
-        <f>((C7*D7)-(C7-F7*2)*(D7-F7*2))*(E7-G7)</f>
-        <v>7.15</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="N7" s="8">
-        <f>(C7+0.5*2)*(D7+0.5*2)*(E7-0.2)*[1]条件输入!$G$2</f>
-        <v>58.24</v>
-      </c>
-      <c r="O7" s="8">
-        <f>(C7+0.5*2)*(D7+0.5*2)*(E7-0.2)*[1]条件输入!$H$2</f>
-        <v>14.559999999999997</v>
-      </c>
-      <c r="P7" s="8">
-        <f>N7+O7-C7*D7*(E7-0.2)</f>
-        <v>19.999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B8" s="6">
         <v>3520</v>
@@ -7449,23 +7483,23 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="8">
-        <f>((C8*D8)-(C8-F8*2)*(D8-F8*2))*G8</f>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
       <c r="I8" s="8">
-        <f>(C8+0.5*2)*(D8+0.5*2)*0.15</f>
+        <f t="shared" si="1"/>
         <v>6.8250000000000002</v>
       </c>
       <c r="J8" s="8">
-        <f>((C8*D8)-(C8-F8*2)*(D8-F8*2))*(E8-G8)</f>
+        <f t="shared" si="2"/>
         <v>7.15</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="N8" s="8">
@@ -7477,13 +7511,13 @@
         <v>14.559999999999997</v>
       </c>
       <c r="P8" s="8">
-        <f>N8+O8-C8*D8*(E8-0.2)</f>
+        <f t="shared" si="5"/>
         <v>19.999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B9" s="6">
         <v>3520</v>
@@ -7504,23 +7538,23 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="8">
-        <f>((C9*D9)-(C9-F9*2)*(D9-F9*2))*G9</f>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
       <c r="I9" s="8">
-        <f>(C9+0.5*2)*(D9+0.5*2)*0.15</f>
+        <f t="shared" si="1"/>
         <v>6.8250000000000002</v>
       </c>
       <c r="J9" s="8">
-        <f>((C9*D9)-(C9-F9*2)*(D9-F9*2))*(E9-G9)</f>
+        <f t="shared" si="2"/>
         <v>7.15</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="N9" s="8">
@@ -7532,22 +7566,22 @@
         <v>14.559999999999997</v>
       </c>
       <c r="P9" s="8">
-        <f>N9+O9-C9*D9*(E9-0.2)</f>
+        <f t="shared" si="5"/>
         <v>19.999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="B10" s="6">
-        <v>4000</v>
+        <v>3520</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
       </c>
       <c r="D10" s="6">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="E10" s="6">
         <v>1.8</v>
@@ -7559,35 +7593,90 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="8">
-        <f>((C10*D10)-(C10-F10*2)*(D10-F10*2))*G10</f>
-        <v>2.875</v>
+        <f t="shared" si="0"/>
+        <v>2.75</v>
       </c>
       <c r="I10" s="8">
-        <f>(C10+0.5*2)*(D10+0.5*2)*0.15</f>
-        <v>7.35</v>
+        <f t="shared" si="1"/>
+        <v>6.8250000000000002</v>
       </c>
       <c r="J10" s="8">
-        <f>((C10*D10)-(C10-F10*2)*(D10-F10*2))*(E10-G10)</f>
-        <v>7.4750000000000005</v>
+        <f t="shared" si="2"/>
+        <v>7.15</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.28750000000000003</v>
+        <f t="shared" si="3"/>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="N10" s="8">
         <f>(C10+0.5*2)*(D10+0.5*2)*(E10-0.2)*[1]条件输入!$G$2</f>
-        <v>62.720000000000006</v>
+        <v>58.24</v>
       </c>
       <c r="O10" s="8">
         <f>(C10+0.5*2)*(D10+0.5*2)*(E10-0.2)*[1]条件输入!$H$2</f>
+        <v>14.559999999999997</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="5"/>
+        <v>19.999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.875</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>7.35</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="2"/>
+        <v>7.4750000000000005</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="N11" s="8">
+        <f>(C11+0.5*2)*(D11+0.5*2)*(E11-0.2)*[1]条件输入!$G$2</f>
+        <v>62.720000000000006</v>
+      </c>
+      <c r="O11" s="8">
+        <f>(C11+0.5*2)*(D11+0.5*2)*(E11-0.2)*[1]条件输入!$H$2</f>
         <v>15.679999999999998</v>
       </c>
-      <c r="P10" s="8">
-        <f>N10+O10-C10*D10*(E10-0.2)</f>
+      <c r="P11" s="8">
+        <f t="shared" si="5"/>
         <v>20.800000000000004</v>
       </c>
     </row>
@@ -7600,524 +7689,620 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEC6D52-00C5-4DB1-97AD-7F926EC519CA}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
         <v>27</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="4">
-        <v>110</v>
-      </c>
-      <c r="C2" s="15">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20">
-        <v>88.8</v>
-      </c>
-      <c r="E2" s="20">
-        <v>86.7</v>
-      </c>
-      <c r="F2" s="21">
-        <f>D2*E2</f>
-        <v>7698.96</v>
-      </c>
-      <c r="G2" s="21" t="e">
-        <f t="array" ref="G2">IF([1]条件输入!#REF!="平原",([1]升压站基础数据!D3+5)*([1]升压站基础数据!E3+5),([1]升压站基础数据!D3+10)*([1]升压站基础数据!E3+10))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="21">
-        <f>2*(D2+E2)</f>
-        <v>351</v>
-      </c>
-      <c r="I2" s="21" t="e">
-        <f>IF([1]条件输入!$A$5="平原",G2*0.3*[1]条件输入!$E$5/10,G2*3*[1]条件输入!$E$5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="21" t="e">
-        <f>IF([1]条件输入!$A$5="平原",G2*0.3*[1]条件输入!$H$2/10,G2*3*[1]条件输入!$H$2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="21" t="e">
-        <f>IF([1]条件输入!$A$5="平原",G2*2,G2*0.5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" s="21">
-        <f>H2*1</f>
-        <v>351</v>
-      </c>
-      <c r="M2" s="21">
-        <f>H2*0.5</f>
-        <v>175.5</v>
-      </c>
-      <c r="N2" s="20">
-        <v>1666.45</v>
-      </c>
-      <c r="O2" s="20">
-        <v>840.2</v>
-      </c>
-      <c r="P2" s="20">
-        <v>1316.8</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>510</v>
-      </c>
-      <c r="R2" s="20">
-        <v>370.44</v>
-      </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20">
+      <c r="L2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="20">
-        <v>12</v>
-      </c>
-      <c r="V2" s="20">
-        <v>6</v>
-      </c>
-      <c r="W2" s="20">
-        <v>30</v>
-      </c>
-      <c r="X2" s="20">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="20">
-        <v>100</v>
-      </c>
-      <c r="AA2" s="20">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="20">
-        <v>80</v>
-      </c>
-      <c r="AC2" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="4">
-        <v>110</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
-      </c>
-      <c r="D3" s="6">
-        <v>103.3</v>
-      </c>
-      <c r="E3" s="6">
-        <v>98.61</v>
-      </c>
-      <c r="F3" s="21">
-        <f>D3*E3</f>
-        <v>10186.413</v>
-      </c>
-      <c r="G3" s="21" t="e">
-        <f>IF([1]条件输入!#REF!="平原",([1]升压站基础数据!D4+5)*([1]升压站基础数据!E4+5),([1]升压站基础数据!D4+10)*([1]升压站基础数据!E4+10))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" s="21">
-        <f>2*(D3+E3)</f>
-        <v>403.82</v>
-      </c>
-      <c r="I3" s="21" t="e">
-        <f>IF([1]条件输入!$A$5="平原",G3*0.3*[1]条件输入!$E$5/10,G3*3*[1]条件输入!$E$5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="21" t="e">
-        <f>IF([1]条件输入!$A$5="平原",G3*0.3*[1]条件输入!$H$2/10,G3*3*[1]条件输入!$H$2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K3" s="21" t="e">
-        <f>IF([1]条件输入!$A$5="平原",G3*2,G3*0.5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L3" s="21">
-        <f>H3*1</f>
-        <v>403.82</v>
-      </c>
-      <c r="M3" s="21">
-        <f>H3*0.5</f>
-        <v>201.91</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1993.67</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1200</v>
-      </c>
-      <c r="P3" s="20">
-        <v>1316.8</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>510</v>
-      </c>
-      <c r="R3" s="20">
-        <v>370.44</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="20">
-        <v>120</v>
-      </c>
-      <c r="U3" s="20">
-        <v>20</v>
-      </c>
-      <c r="V3" s="20">
-        <v>10</v>
-      </c>
-      <c r="W3" s="20">
-        <v>60</v>
-      </c>
-      <c r="X3" s="20">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="20">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="20">
-        <v>200</v>
-      </c>
-      <c r="AA3" s="20">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="20">
+      <c r="V2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15">
+      <c r="A3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="AC3" s="20">
-        <v>2</v>
+      <c r="I3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC3" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4">
         <v>110</v>
       </c>
-      <c r="C4" s="4">
-        <v>150</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
+      <c r="C4" s="15">
+        <v>50</v>
+      </c>
+      <c r="D4" s="18">
+        <v>88.8</v>
+      </c>
+      <c r="E4" s="18">
+        <v>86.7</v>
+      </c>
+      <c r="F4" s="19">
+        <f>D4*E4</f>
+        <v>7698.96</v>
+      </c>
+      <c r="G4" s="19">
+        <f>2*(D4+E4)</f>
+        <v>351</v>
+      </c>
+      <c r="H4" s="19">
+        <f>G4*1</f>
+        <v>351</v>
+      </c>
+      <c r="I4" s="19">
+        <f>G4*0.5</f>
+        <v>175.5</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1666.45</v>
+      </c>
+      <c r="K4" s="18">
+        <v>840.2</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1316.8</v>
+      </c>
+      <c r="M4" s="18">
+        <v>510</v>
+      </c>
+      <c r="N4" s="18">
+        <v>370.44</v>
+      </c>
+      <c r="O4" s="18">
+        <v>60</v>
+      </c>
+      <c r="P4" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>6</v>
+      </c>
+      <c r="R4" s="18">
+        <v>30</v>
+      </c>
+      <c r="S4" s="18">
+        <v>5</v>
+      </c>
+      <c r="T4" s="18">
+        <v>1</v>
+      </c>
+      <c r="U4" s="18">
+        <v>100</v>
+      </c>
+      <c r="V4" s="18">
+        <v>3</v>
+      </c>
+      <c r="W4" s="18">
+        <v>80</v>
+      </c>
+      <c r="X4" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="19" t="e">
+        <f>IF([2]条件输入!$A$5="平原",AC4*0.3*[2]条件输入!$E$5/10,AC4*3*[2]条件输入!$E$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA4" s="19" t="e">
+        <f>IF([2]条件输入!$A$5="平原",AC4*0.3*[2]条件输入!$H$2/10,AC4*3*[2]条件输入!$H$2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB4" s="19" t="e">
+        <f>IF([2]条件输入!$A$5="平原",AC4*2,AC4*0.5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC4" s="19" t="e">
+        <f>IF([2]条件输入!#REF!="平原",([2]升压站基础数据!D3+5)*([2]升压站基础数据!E3+5),([2]升压站基础数据!D3+10)*([2]升压站基础数据!E3+10))</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4">
         <v>110</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>103.3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>98.61</v>
+      </c>
+      <c r="F5" s="19">
+        <f>D5*E5</f>
+        <v>10186.413</v>
+      </c>
+      <c r="G5" s="19">
+        <f>2*(D5+E5)</f>
+        <v>403.82</v>
+      </c>
+      <c r="H5" s="19">
+        <f>G5*1</f>
+        <v>403.82</v>
+      </c>
+      <c r="I5" s="19">
+        <f>G5*0.5</f>
+        <v>201.91</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1993.67</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1200</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1316.8</v>
+      </c>
+      <c r="M5" s="18">
+        <v>510</v>
+      </c>
+      <c r="N5" s="18">
+        <v>370.44</v>
+      </c>
+      <c r="O5" s="18">
+        <v>120</v>
+      </c>
+      <c r="P5" s="18">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>10</v>
+      </c>
+      <c r="R5" s="18">
+        <v>60</v>
+      </c>
+      <c r="S5" s="18">
+        <v>10</v>
+      </c>
+      <c r="T5" s="18">
+        <v>2</v>
+      </c>
+      <c r="U5" s="18">
         <v>200</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
+      <c r="V5" s="18">
+        <v>5</v>
+      </c>
+      <c r="W5" s="18">
+        <v>150</v>
+      </c>
+      <c r="X5" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="19" t="e">
+        <f>IF([2]条件输入!$A$5="平原",AC5*0.3*[2]条件输入!$E$5/10,AC5*3*[2]条件输入!$E$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA5" s="19" t="e">
+        <f>IF([2]条件输入!$A$5="平原",AC5*0.3*[2]条件输入!$H$2/10,AC5*3*[2]条件输入!$H$2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB5" s="19" t="e">
+        <f>IF([2]条件输入!$A$5="平原",AC5*2,AC5*0.5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC5" s="19" t="e">
+        <f>IF([2]条件输入!#REF!="平原",([2]升压站基础数据!D4+5)*([2]升压站基础数据!E4+5),([2]升压站基础数据!D4+10)*([2]升压站基础数据!E4+10))</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4">
-        <v>220</v>
-      </c>
-      <c r="C6" s="15">
-        <v>50</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="C6" s="4">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4">
-        <v>220</v>
-      </c>
-      <c r="C7" s="4">
-        <v>100</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="C7" s="15">
+        <v>200</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4">
         <v>220</v>
       </c>
-      <c r="C8" s="4">
-        <v>150</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="15">
+        <v>50</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <v>220</v>
       </c>
-      <c r="C9" s="15">
-        <v>200</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4">
-        <v>110</v>
-      </c>
-      <c r="C10" s="15">
-        <v>50</v>
+        <v>220</v>
+      </c>
+      <c r="C10" s="4">
+        <v>150</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -8125,85 +8310,71 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="20">
-        <v>60</v>
-      </c>
-      <c r="U10" s="20">
-        <v>12</v>
-      </c>
-      <c r="V10" s="20">
-        <v>6</v>
-      </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4">
-        <v>110</v>
-      </c>
-      <c r="C11" s="4">
-        <v>100</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="C11" s="15">
+        <v>200</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="20">
-        <v>60</v>
-      </c>
-      <c r="U11" s="20">
-        <v>12</v>
-      </c>
-      <c r="V11" s="20">
-        <v>6</v>
-      </c>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4">
         <v>110</v>
       </c>
-      <c r="C12" s="4">
-        <v>150</v>
+      <c r="C12" s="15">
+        <v>50</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -8211,42 +8382,41 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="20">
+      <c r="O12" s="18">
         <v>60</v>
       </c>
-      <c r="U12" s="20">
+      <c r="P12" s="18">
         <v>12</v>
       </c>
-      <c r="V12" s="20">
+      <c r="Q12" s="18">
         <v>6</v>
       </c>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4">
         <v>110</v>
       </c>
-      <c r="C13" s="15">
-        <v>200</v>
+      <c r="C13" s="4">
+        <v>100</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -8254,42 +8424,41 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="20">
+      <c r="O13" s="18">
         <v>60</v>
       </c>
-      <c r="U13" s="20">
+      <c r="P13" s="18">
         <v>12</v>
       </c>
-      <c r="V13" s="20">
+      <c r="Q13" s="18">
         <v>6</v>
       </c>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4">
-        <v>220</v>
-      </c>
-      <c r="C14" s="15">
-        <v>50</v>
+        <v>110</v>
+      </c>
+      <c r="C14" s="4">
+        <v>150</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8297,42 +8466,41 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="20">
+      <c r="O14" s="18">
         <v>60</v>
       </c>
-      <c r="U14" s="20">
+      <c r="P14" s="18">
         <v>12</v>
       </c>
-      <c r="V14" s="20">
+      <c r="Q14" s="18">
         <v>6</v>
       </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4">
-        <v>220</v>
-      </c>
-      <c r="C15" s="4">
-        <v>100</v>
+        <v>110</v>
+      </c>
+      <c r="C15" s="15">
+        <v>200</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -8340,42 +8508,41 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="20">
+      <c r="O15" s="18">
         <v>60</v>
       </c>
-      <c r="U15" s="20">
+      <c r="P15" s="18">
         <v>12</v>
       </c>
-      <c r="V15" s="20">
+      <c r="Q15" s="18">
         <v>6</v>
       </c>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4">
         <v>220</v>
       </c>
-      <c r="C16" s="4">
-        <v>150</v>
+      <c r="C16" s="15">
+        <v>50</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8383,42 +8550,41 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="20">
+      <c r="O16" s="18">
         <v>60</v>
       </c>
-      <c r="U16" s="20">
+      <c r="P16" s="18">
         <v>12</v>
       </c>
-      <c r="V16" s="20">
+      <c r="Q16" s="18">
         <v>6</v>
       </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="4">
         <v>220</v>
       </c>
-      <c r="C17" s="15">
-        <v>200</v>
+      <c r="C17" s="4">
+        <v>100</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8426,32 +8592,115 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="20">
+      <c r="O17" s="18">
         <v>60</v>
       </c>
-      <c r="U17" s="20">
+      <c r="P17" s="18">
         <v>12</v>
       </c>
-      <c r="V17" s="20">
+      <c r="Q17" s="18">
         <v>6</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4">
+        <v>220</v>
+      </c>
+      <c r="C18" s="4">
+        <v>150</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="18">
+        <v>60</v>
+      </c>
+      <c r="P18" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>6</v>
+      </c>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4">
+        <v>220</v>
+      </c>
+      <c r="C19" s="15">
+        <v>200</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="18">
+        <v>60</v>
+      </c>
+      <c r="P19" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>6</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8471,8 +8720,8 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6"/>
-      <c r="B1" s="23" t="s">
-        <v>68</v>
+      <c r="B1" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="C1" s="6">
         <v>1</v>
@@ -8501,69 +8750,69 @@
     </row>
     <row r="2" spans="1:12" ht="42.75">
       <c r="A2" s="6"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="G3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="6">
         <f>2.5*1000*0.4*[1]条件输入!$E$5</f>
         <v>800</v>
@@ -8597,9 +8846,9 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="6">
         <f>2.5*1000*0.4*[1]条件输入!$E$5</f>
         <v>800</v>
@@ -8633,9 +8882,9 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="23"/>
+        <v>94</v>
+      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="6">
         <f>2.5*1000*1*[1]条件输入!$E$5</f>
         <v>2000</v>
@@ -8669,9 +8918,9 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="6">
         <f>2.5*1000*2*[1]条件输入!$E$5</f>
         <v>4000</v>
@@ -8705,9 +8954,9 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="B8" s="21"/>
       <c r="C8" s="6">
         <f>2.5*1000*1.5*[1]条件输入!$E$5</f>
         <v>3000</v>
@@ -8741,9 +8990,9 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="B9" s="21"/>
       <c r="C9" s="6">
         <f>2.5*1000*2.5*[1]条件输入!$E$5</f>
         <v>5000</v>
@@ -8777,9 +9026,9 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="B10" s="21"/>
       <c r="C10" s="6">
         <f>2.5*1000*2*[1]条件输入!$E$5</f>
         <v>4000</v>
@@ -8813,9 +9062,9 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="6">
         <f>2.5*1000*3*[1]条件输入!$E$5</f>
         <v>6000</v>
@@ -8848,8 +9097,8 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="23" t="s">
-        <v>69</v>
+      <c r="A13" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -8886,83 +9135,83 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="42.75">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="G14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="20" t="s">
+      <c r="L14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="G15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="K15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="20" t="s">
+      <c r="L15" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="23"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="6">
         <f>6500*0.3*[1]条件输入!$E$5</f>
         <v>1560</v>
@@ -9005,7 +9254,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="23"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="6">
         <f>6000*[1]条件输入!$E$5</f>
         <v>4800</v>
@@ -9048,7 +9297,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="23"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6">
         <f>8000*[1]条件输入!$E$5</f>
         <v>6400</v>
@@ -9090,7 +9339,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="23"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="6">
         <f>15000*[1]条件输入!$E$5</f>
         <v>12000</v>
@@ -9132,7 +9381,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="23"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="6">
         <f>10000*[1]条件输入!$E$5</f>
         <v>8000</v>
@@ -9174,7 +9423,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="23"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="6">
         <f>18000*[1]条件输入!$E$5</f>
         <v>14400</v>
@@ -9216,7 +9465,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="23"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="6">
         <f>12000*[1]条件输入!$E$5</f>
         <v>9600</v>
@@ -9258,7 +9507,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="23"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="6">
         <f>20000*[1]条件输入!$E$5</f>
         <v>16000</v>
@@ -9300,8 +9549,8 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="23" t="s">
-        <v>70</v>
+      <c r="A25" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -9344,95 +9593,95 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="42.75">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="K26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="20" t="s">
+      <c r="L26" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M26" s="20" t="s">
+      <c r="N26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="N26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="24" t="s">
+      <c r="B27" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="G27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="K27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="20" t="s">
+      <c r="L27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="N27" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="23"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="6">
         <f>6500*0.3*[1]条件输入!$E$5</f>
         <v>1560</v>
@@ -9483,7 +9732,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="23"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="6">
         <f>6000*[1]条件输入!$E$5</f>
         <v>4800</v>
@@ -9533,7 +9782,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="23"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="6">
         <f>8000*[1]条件输入!$E$5</f>
         <v>6400</v>
@@ -9582,7 +9831,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="23"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6">
         <f>15000*[1]条件输入!$E$5</f>
         <v>12000</v>
@@ -9631,7 +9880,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="23"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="6">
         <f>10000*[1]条件输入!$E$5</f>
         <v>8000</v>
@@ -9680,7 +9929,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="23"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="6">
         <f>18000*[1]条件输入!$E$5</f>
         <v>14400</v>
@@ -9729,7 +9978,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="23"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="6">
         <f>12000*[1]条件输入!$E$5</f>
         <v>9600</v>
@@ -9778,7 +10027,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="23"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="6">
         <f>20000*[1]条件输入!$E$5</f>
         <v>16000</v>
@@ -9829,7 +10078,7 @@
     <row r="37" spans="1:14">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -9855,61 +10104,61 @@
     </row>
     <row r="38" spans="1:14" ht="28.5">
       <c r="A38" s="6"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>85</v>
+      <c r="I38" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="6"/>
-      <c r="B39" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="D39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -9940,7 +10189,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6">
@@ -9972,7 +10221,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6">
@@ -10004,7 +10253,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -10036,7 +10285,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6">
@@ -10068,7 +10317,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6">
@@ -10100,7 +10349,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6">
@@ -10132,7 +10381,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6">
@@ -10165,5 +10414,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C670B01-576A-47A7-89BC-DED7AE00122B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D476BCE-7A1F-4424-BE4B-0AA8C3341D96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1245" windowWidth="28335" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -1193,7 +1193,7 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>陡坡低山</v>
+            <v>丘陵</v>
           </cell>
           <cell r="E5">
             <v>0.8</v>
@@ -1473,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7691,8 +7691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEC6D52-00C5-4DB1-97AD-7F926EC519CA}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8705,6 +8705,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,19 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D476BCE-7A1F-4424-BE4B-0AA8C3341D96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF2031-92FE-4898-964A-EE4BA8FEB014}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
     <sheet name="箱变基础数据" sheetId="2" r:id="rId2"/>
     <sheet name="升压站基础数据" sheetId="3" r:id="rId3"/>
-    <sheet name="道路基础数据" sheetId="4" r:id="rId4"/>
+    <sheet name="道路基础数据1" sheetId="4" r:id="rId4"/>
+    <sheet name="道路基础数据2" sheetId="5" r:id="rId5"/>
+    <sheet name="道路基础数据3" sheetId="6" r:id="rId6"/>
+    <sheet name="道路基础数据4" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="171">
   <si>
     <t>设防烈度</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -379,10 +382,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>一</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>二</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -865,6 +864,21 @@
     <t>Slopearea</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>山地类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrain_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graded gravel pavement</t>
+  </si>
+  <si>
+    <t>round tube culvert</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -874,7 +888,7 @@
     <numFmt numFmtId="176" formatCode="#&quot;MW&quot;"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +982,12 @@
       <name val="Inherit"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1041,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,6 +1132,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1473,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1564,70 +1585,70 @@
     </row>
     <row r="2" spans="1:23" ht="15">
       <c r="A2" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="N2" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>109</v>
-      </c>
       <c r="V2" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="23" t="s">
         <v>126</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3604,7 +3625,7 @@
         <v>180</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="10">
         <v>70000</v>
@@ -7198,49 +7219,49 @@
     </row>
     <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>142</v>
-      </c>
       <c r="N3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="P3" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7878,88 +7899,88 @@
     </row>
     <row r="3" spans="1:29" ht="15">
       <c r="A3" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="M3" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="N3" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="P3" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="Q3" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="R3" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="S3" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="W3" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="X3" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="Z3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="23" t="s">
         <v>166</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -8711,124 +8732,524 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54EC320-17F1-40F2-8440-478BCD0895FD}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5">
+      <c r="A1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="42.75">
+      <c r="A2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="42.75">
+      <c r="A3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="6">
+        <f>2.5*1000</f>
+        <v>2500</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>1*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="H4" s="6">
+        <f>2.5*1000*0.4*[1]条件输入!$E$5</f>
+        <v>800</v>
+      </c>
+      <c r="I4" s="6">
+        <f>2.5*1000*0.4*[1]条件输入!$F$5</f>
+        <v>199.99999999999994</v>
+      </c>
+      <c r="J4" s="6">
+        <f>2.5*1000*0.4</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="6">
+        <f>2.5*1000</f>
+        <v>2500</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>1*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="H5" s="6">
+        <f>2.5*1000*0.4*[1]条件输入!$E$5</f>
+        <v>800</v>
+      </c>
+      <c r="I5" s="6">
+        <f>2.5*1000*0.4*[1]条件输入!$F$5</f>
+        <v>199.99999999999994</v>
+      </c>
+      <c r="J5" s="6">
+        <f>2.5*1000*0.4</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" ref="B6:B11" si="0">2.5*1000</f>
+        <v>2500</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
+        <f>1.5*1000</f>
+        <v>1500</v>
+      </c>
+      <c r="H6" s="6">
+        <f>2.5*1000*1*[1]条件输入!$E$5</f>
+        <v>2000</v>
+      </c>
+      <c r="I6" s="6">
+        <f>2.5*1000*1*[1]条件输入!$F$5</f>
+        <v>499.99999999999989</v>
+      </c>
+      <c r="J6" s="6">
+        <f>2.5*1000*0.5</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="6">
+        <f>2.5*1000</f>
+        <v>2500</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:D11" si="1">0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="E7" s="6">
+        <v>150</v>
+      </c>
+      <c r="F7" s="6">
+        <f>2*1000</f>
+        <v>2000</v>
+      </c>
+      <c r="H7" s="6">
+        <f>2.5*1000*2*[1]条件输入!$E$5</f>
+        <v>4000</v>
+      </c>
+      <c r="I7" s="6">
+        <f>2.5*1000*2*[1]条件输入!$F$5</f>
+        <v>999.99999999999977</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" ref="J7:J11" si="2">2.5*1000*0.5</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="E8" s="6">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F11" si="3">1*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="H8" s="6">
+        <f>2.5*1000*1.5*[1]条件输入!$E$5</f>
+        <v>3000</v>
+      </c>
+      <c r="I8" s="6">
+        <f>2.5*1000*1.5*[1]条件输入!$F$5</f>
+        <v>749.99999999999989</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="H9" s="6">
+        <f>2.5*1000*2.5*[1]条件输入!$E$5</f>
+        <v>5000</v>
+      </c>
+      <c r="I9" s="6">
+        <f>2.5*1000*2.5*[1]条件输入!$F$5</f>
+        <v>1249.9999999999998</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="E10" s="6">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="H10" s="6">
+        <f>2.5*1000*2*[1]条件输入!$E$5</f>
+        <v>4000</v>
+      </c>
+      <c r="I10" s="6">
+        <f>2.5*1000*2*[1]条件输入!$F$5</f>
+        <v>999.99999999999977</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="E11" s="6">
+        <v>250</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="H11" s="6">
+        <f>2.5*1000*3*[1]条件输入!$E$5</f>
+        <v>6000</v>
+      </c>
+      <c r="I11" s="6">
+        <f>2.5*1000*3*[1]条件输入!$F$5</f>
+        <v>1499.9999999999998</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDCBB96-49E7-4AF1-99A5-1885089E0E0E}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="6"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="21" t="s">
         <v>67</v>
       </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
       <c r="C1" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="K1" s="6">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="42.75">
-      <c r="A2" s="6"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>76</v>
+      <c r="K2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="6"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>89</v>
       </c>
+      <c r="L3" s="18" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="21"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="6">
+        <f>6500*0.3*[1]条件输入!$E$5</f>
+        <v>1560</v>
+      </c>
       <c r="C4" s="6">
-        <f>2.5*1000*0.4*[1]条件输入!$E$5</f>
-        <v>800</v>
+        <f>6500*0.3*[1]条件输入!$F$5</f>
+        <v>389.99999999999989</v>
       </c>
       <c r="D4" s="6">
-        <f>2.5*1000*0.4*[1]条件输入!$F$5</f>
-        <v>199.99999999999994</v>
+        <f>6.5*1000*0.5</f>
+        <v>3250</v>
       </c>
       <c r="E4" s="6">
-        <f>2.5*1000*0.4</f>
-        <v>1000</v>
+        <f>6.5*1000</f>
+        <v>6500</v>
       </c>
       <c r="F4" s="6">
-        <f>2.5*1000</f>
-        <v>2500</v>
+        <f>6*1000</f>
+        <v>6000</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -8844,27 +9265,34 @@
         <f>1*1000</f>
         <v>1000</v>
       </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="6">
+        <f>6000*[1]条件输入!$E$5</f>
+        <v>4800</v>
+      </c>
       <c r="C5" s="6">
-        <f>2.5*1000*0.4*[1]条件输入!$E$5</f>
-        <v>800</v>
+        <f>6000*[1]条件输入!$F$5</f>
+        <v>1199.9999999999998</v>
       </c>
       <c r="D5" s="6">
-        <f>2.5*1000*0.4*[1]条件输入!$F$5</f>
-        <v>199.99999999999994</v>
+        <f>6000*0.5</f>
+        <v>3000</v>
       </c>
       <c r="E5" s="6">
-        <f>2.5*1000*0.4</f>
-        <v>1000</v>
+        <f>6.5*1000</f>
+        <v>6500</v>
       </c>
       <c r="F5" s="6">
-        <f>2.5*1000</f>
-        <v>2500</v>
+        <f>6*1000</f>
+        <v>6000</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -8874,1547 +9302,1168 @@
         <v>475</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" s="6">
-        <f>1*1000</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="6">
-        <f>2.5*1000*1*[1]条件输入!$E$5</f>
-        <v>2000</v>
-      </c>
-      <c r="D6" s="6">
-        <f>2.5*1000*1*[1]条件输入!$F$5</f>
-        <v>499.99999999999989</v>
-      </c>
-      <c r="E6" s="6">
-        <f>2.5*1000*0.5</f>
-        <v>1250</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" ref="F6:F11" si="0">2.5*1000</f>
-        <v>2500</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" ref="H6:H11" si="1">0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I6" s="6">
-        <v>100</v>
-      </c>
-      <c r="J6" s="6">
-        <f>1.5*1000</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="6">
-        <f>2.5*1000*2*[1]条件输入!$E$5</f>
-        <v>4000</v>
-      </c>
-      <c r="D7" s="6">
-        <f>2.5*1000*2*[1]条件输入!$F$5</f>
-        <v>999.99999999999977</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7:E11" si="2">2.5*1000*0.5</f>
-        <v>1250</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="I7" s="6">
-        <v>150</v>
-      </c>
-      <c r="J7" s="6">
         <f>2*1000</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="6">
-        <f>2.5*1000*1.5*[1]条件输入!$E$5</f>
-        <v>3000</v>
-      </c>
-      <c r="D8" s="6">
-        <f>2.5*1000*1.5*[1]条件输入!$F$5</f>
-        <v>749.99999999999989</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="2"/>
-        <v>1250</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="I8" s="6">
-        <v>100</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" ref="J8:J11" si="3">1*1000</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="6">
-        <f>2.5*1000*2.5*[1]条件输入!$E$5</f>
-        <v>5000</v>
-      </c>
-      <c r="D9" s="6">
-        <f>2.5*1000*2.5*[1]条件输入!$F$5</f>
-        <v>1249.9999999999998</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="2"/>
-        <v>1250</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="I9" s="6">
-        <v>200</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="6">
-        <f>2.5*1000*2*[1]条件输入!$E$5</f>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="21"/>
+      <c r="B6" s="6">
+        <f>8000*[1]条件输入!$E$5</f>
+        <v>6400</v>
+      </c>
+      <c r="C6" s="6">
+        <f>8000*[1]条件输入!$F$5</f>
+        <v>1599.9999999999995</v>
+      </c>
+      <c r="D6" s="6">
+        <f>8000*0.5</f>
         <v>4000</v>
       </c>
-      <c r="D10" s="6">
-        <f>2.5*1000*2*[1]条件输入!$F$5</f>
-        <v>999.99999999999977</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="2"/>
-        <v>1250</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="I10" s="6">
-        <v>100</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="6">
-        <f>2.5*1000*3*[1]条件输入!$E$5</f>
-        <v>6000</v>
-      </c>
-      <c r="D11" s="6">
-        <f>2.5*1000*3*[1]条件输入!$F$5</f>
-        <v>1499.9999999999998</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="2"/>
-        <v>1250</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="I11" s="6">
-        <v>250</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6">
-        <v>5</v>
-      </c>
-      <c r="G13" s="6">
-        <v>6</v>
-      </c>
-      <c r="H13" s="6">
-        <v>7</v>
-      </c>
-      <c r="I13" s="6">
-        <v>8</v>
-      </c>
-      <c r="J13" s="6">
-        <v>9</v>
-      </c>
-      <c r="K13" s="6">
-        <v>10</v>
-      </c>
-      <c r="L13" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="42.75">
-      <c r="A14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="21"/>
-      <c r="B16" s="6">
-        <f>6500*0.3*[1]条件输入!$E$5</f>
-        <v>1560</v>
-      </c>
-      <c r="C16" s="6">
-        <f>6500*0.3*[1]条件输入!$F$5</f>
-        <v>389.99999999999989</v>
-      </c>
-      <c r="D16" s="6">
-        <f>6.5*1000*0.5</f>
-        <v>3250</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="E6" s="6">
         <f>6.5*1000</f>
         <v>6500</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F6" s="6">
         <f>6*1000</f>
         <v>6000</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6">
         <f>0.475*1000</f>
         <v>475</v>
       </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <f>1*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="I6" s="6">
+        <v>200</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="6">
         <v>2</v>
       </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="21"/>
-      <c r="B17" s="6">
-        <f>6000*[1]条件输入!$E$5</f>
-        <v>4800</v>
-      </c>
-      <c r="C17" s="6">
-        <f>6000*[1]条件输入!$F$5</f>
-        <v>1199.9999999999998</v>
-      </c>
-      <c r="D17" s="6">
-        <f>6000*0.5</f>
-        <v>3000</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="L6" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="21"/>
+      <c r="B7" s="6">
+        <f>15000*[1]条件输入!$E$5</f>
+        <v>12000</v>
+      </c>
+      <c r="C7" s="6">
+        <f>15000*[1]条件输入!$F$5</f>
+        <v>2999.9999999999995</v>
+      </c>
+      <c r="D7" s="6">
+        <f>15000*0.3</f>
+        <v>4500</v>
+      </c>
+      <c r="E7" s="6">
         <f>6.5*1000</f>
         <v>6500</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F7" s="6">
         <f>6*1000</f>
         <v>6000</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
         <f>0.475*1000</f>
         <v>475</v>
       </c>
-      <c r="I17" s="6">
-        <v>100</v>
-      </c>
-      <c r="J17" s="6">
-        <f>2*1000</f>
-        <v>2000</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="I7" s="6">
+        <v>300</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="K7" s="6">
         <v>2</v>
       </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="21"/>
-      <c r="B18" s="6">
-        <f>8000*[1]条件输入!$E$5</f>
-        <v>6400</v>
-      </c>
-      <c r="C18" s="6">
-        <f>8000*[1]条件输入!$F$5</f>
-        <v>1599.9999999999995</v>
-      </c>
-      <c r="D18" s="6">
-        <f>8000*0.5</f>
-        <v>4000</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" ref="E18:E23" si="4">6.5*1000</f>
-        <v>6500</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F23" si="5">6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="G18" s="6">
-        <v>20</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ref="H18:H23" si="6">0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="L7" s="6">
         <v>200</v>
       </c>
-      <c r="J18" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K18" s="6">
-        <v>2</v>
-      </c>
-      <c r="L18" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="21"/>
-      <c r="B19" s="6">
-        <f>15000*[1]条件输入!$E$5</f>
-        <v>12000</v>
-      </c>
-      <c r="C19" s="6">
-        <f>15000*[1]条件输入!$F$5</f>
-        <v>2999.9999999999995</v>
-      </c>
-      <c r="D19" s="6">
-        <f>15000*0.3</f>
-        <v>4500</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="4"/>
-        <v>6500</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="5"/>
-        <v>6000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>20</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="6"/>
-        <v>475</v>
-      </c>
-      <c r="I19" s="6">
-        <v>300</v>
-      </c>
-      <c r="J19" s="6">
-        <v>6000</v>
-      </c>
-      <c r="K19" s="6">
-        <v>2</v>
-      </c>
-      <c r="L19" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="21"/>
-      <c r="B20" s="6">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="21"/>
+      <c r="B8" s="6">
         <f>10000*[1]条件输入!$E$5</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C8" s="6">
         <f>10000*[1]条件输入!$F$5</f>
         <v>1999.9999999999995</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D8" s="6">
         <f>10000*0.5</f>
         <v>5000</v>
       </c>
-      <c r="E20" s="6">
-        <f t="shared" si="4"/>
+      <c r="E8" s="6">
+        <f>6.5*1000</f>
         <v>6500</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="5"/>
+      <c r="F8" s="6">
+        <f>6*1000</f>
         <v>6000</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G8" s="6">
         <v>20</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="6"/>
+      <c r="H8" s="6">
+        <f>0.475*1000</f>
         <v>475</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I8" s="6">
         <v>250</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J8" s="6">
         <v>5000</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K8" s="6">
         <v>2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L8" s="6">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="21"/>
-      <c r="B21" s="6">
+    <row r="9" spans="1:12">
+      <c r="A9" s="21"/>
+      <c r="B9" s="6">
         <f>18000*[1]条件输入!$E$5</f>
         <v>14400</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C9" s="6">
         <f>18000*[1]条件输入!$F$5</f>
         <v>3599.9999999999991</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D9" s="6">
         <f>18000*0.3</f>
         <v>5400</v>
       </c>
-      <c r="E21" s="6">
-        <f t="shared" si="4"/>
+      <c r="E9" s="6">
+        <f>6.5*1000</f>
         <v>6500</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="5"/>
+      <c r="F9" s="6">
+        <f>6*1000</f>
         <v>6000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G9" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="6"/>
+      <c r="H9" s="6">
+        <f>0.475*1000</f>
         <v>475</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I9" s="6">
         <v>350</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J9" s="6">
         <v>7000</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K9" s="6">
         <v>2</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L9" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="21"/>
-      <c r="B22" s="6">
+    <row r="10" spans="1:12">
+      <c r="A10" s="21"/>
+      <c r="B10" s="6">
         <f>12000*[1]条件输入!$E$5</f>
         <v>9600</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C10" s="6">
         <f>12000*[1]条件输入!$F$5</f>
         <v>2399.9999999999995</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D10" s="6">
         <f>12000*0.5</f>
         <v>6000</v>
       </c>
-      <c r="E22" s="6">
-        <f t="shared" si="4"/>
+      <c r="E10" s="6">
+        <f>6.5*1000</f>
         <v>6500</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="5"/>
+      <c r="F10" s="6">
+        <f>6*1000</f>
         <v>6000</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G10" s="6">
         <v>20</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="6"/>
+      <c r="H10" s="6">
+        <f>0.475*1000</f>
         <v>475</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I10" s="6">
         <v>300</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J10" s="6">
         <v>6000</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K10" s="6">
         <v>2</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L10" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="21"/>
-      <c r="B23" s="6">
+    <row r="11" spans="1:12">
+      <c r="A11" s="21"/>
+      <c r="B11" s="6">
         <f>20000*[1]条件输入!$E$5</f>
         <v>16000</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C11" s="6">
         <f>20000*[1]条件输入!$F$5</f>
         <v>3999.9999999999991</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D11" s="6">
         <f>20000*0.3</f>
         <v>6000</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="4"/>
+      <c r="E11" s="6">
+        <f>6.5*1000</f>
         <v>6500</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="5"/>
+      <c r="F11" s="6">
+        <f>6*1000</f>
         <v>6000</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G11" s="6">
         <v>20</v>
       </c>
-      <c r="H23" s="6">
-        <f t="shared" si="6"/>
-        <v>475</v>
-      </c>
-      <c r="I23" s="6">
-        <v>400</v>
-      </c>
-      <c r="J23" s="6">
-        <v>8000</v>
-      </c>
-      <c r="K23" s="6">
-        <v>2</v>
-      </c>
-      <c r="L23" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3</v>
-      </c>
-      <c r="E25" s="6">
-        <v>4</v>
-      </c>
-      <c r="F25" s="6">
-        <v>5</v>
-      </c>
-      <c r="G25" s="6">
-        <v>6</v>
-      </c>
-      <c r="H25" s="6">
-        <v>7</v>
-      </c>
-      <c r="I25" s="6">
-        <v>8</v>
-      </c>
-      <c r="J25" s="6">
-        <v>9</v>
-      </c>
-      <c r="K25" s="6">
-        <v>10</v>
-      </c>
-      <c r="L25" s="6">
-        <v>11</v>
-      </c>
-      <c r="M25" s="6">
-        <v>12</v>
-      </c>
-      <c r="N25" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="42.75">
-      <c r="A26" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="21"/>
-      <c r="B28" s="6">
-        <f>6500*0.3*[1]条件输入!$E$5</f>
-        <v>1560</v>
-      </c>
-      <c r="C28" s="6">
-        <f>6500*0.3*[1]条件输入!$F$5</f>
-        <v>389.99999999999989</v>
-      </c>
-      <c r="D28" s="6">
-        <f>6.5*1000*0.5</f>
-        <v>3250</v>
-      </c>
-      <c r="E28" s="6">
-        <f>5.5*1000</f>
-        <v>5500</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <f>20</f>
-        <v>20</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="H11" s="6">
         <f>0.475*1000</f>
         <v>475</v>
       </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <f>1*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="I11" s="6">
+        <v>400</v>
+      </c>
+      <c r="J11" s="6">
+        <v>8000</v>
+      </c>
+      <c r="K11" s="6">
         <v>2</v>
       </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N28" s="6">
-        <f>8*1000</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="21"/>
-      <c r="B29" s="6">
-        <f>6000*[1]条件输入!$E$5</f>
-        <v>4800</v>
-      </c>
-      <c r="C29" s="6">
-        <f>6000*[1]条件输入!$F$5</f>
-        <v>1199.9999999999998</v>
-      </c>
-      <c r="D29" s="6">
-        <f>6000*0.5</f>
-        <v>3000</v>
-      </c>
-      <c r="E29" s="6">
-        <f>6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>20</v>
-      </c>
-      <c r="H29" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I29" s="6">
-        <v>100</v>
-      </c>
-      <c r="J29" s="6">
-        <f>2*1000</f>
-        <v>2000</v>
-      </c>
-      <c r="K29" s="6">
-        <v>2</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N29" s="6">
-        <f>10*1000</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="21"/>
-      <c r="B30" s="6">
-        <f>8000*[1]条件输入!$E$5</f>
-        <v>6400</v>
-      </c>
-      <c r="C30" s="6">
-        <f>8000*[1]条件输入!$F$5</f>
-        <v>1599.9999999999995</v>
-      </c>
-      <c r="D30" s="6">
-        <f>8000*0.5</f>
-        <v>4000</v>
-      </c>
-      <c r="E30" s="6">
-        <f>6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>20</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" ref="H30:H35" si="7">0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I30" s="6">
-        <v>200</v>
-      </c>
-      <c r="J30" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K30" s="6">
-        <v>4</v>
-      </c>
-      <c r="L30" s="6">
-        <v>160</v>
-      </c>
-      <c r="M30" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N30" s="6">
-        <f>10*1000</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="21"/>
-      <c r="B31" s="6">
-        <f>15000*[1]条件输入!$E$5</f>
-        <v>12000</v>
-      </c>
-      <c r="C31" s="6">
-        <f>15000*[1]条件输入!$F$5</f>
-        <v>2999.9999999999995</v>
-      </c>
-      <c r="D31" s="6">
-        <f>15000*0.3</f>
-        <v>4500</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" ref="E31:E35" si="8">6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>20</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="7"/>
-        <v>475</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="L11" s="6">
         <v>300</v>
-      </c>
-      <c r="J31" s="6">
-        <v>6000</v>
-      </c>
-      <c r="K31" s="6">
-        <v>4</v>
-      </c>
-      <c r="L31" s="6">
-        <v>200</v>
-      </c>
-      <c r="M31" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N31" s="6">
-        <f>12*1000</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="21"/>
-      <c r="B32" s="6">
-        <f>10000*[1]条件输入!$E$5</f>
-        <v>8000</v>
-      </c>
-      <c r="C32" s="6">
-        <f>10000*[1]条件输入!$F$5</f>
-        <v>1999.9999999999995</v>
-      </c>
-      <c r="D32" s="6">
-        <f>10000*0.5</f>
-        <v>5000</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="8"/>
-        <v>6000</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
-        <v>20</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="7"/>
-        <v>475</v>
-      </c>
-      <c r="I32" s="6">
-        <v>250</v>
-      </c>
-      <c r="J32" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K32" s="6">
-        <v>4</v>
-      </c>
-      <c r="L32" s="6">
-        <v>180</v>
-      </c>
-      <c r="M32" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N32" s="6">
-        <f>11*1000</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="21"/>
-      <c r="B33" s="6">
-        <f>18000*[1]条件输入!$E$5</f>
-        <v>14400</v>
-      </c>
-      <c r="C33" s="6">
-        <f>18000*[1]条件输入!$F$5</f>
-        <v>3599.9999999999991</v>
-      </c>
-      <c r="D33" s="6">
-        <f>18000*0.3</f>
-        <v>5400</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="8"/>
-        <v>6000</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>20</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="7"/>
-        <v>475</v>
-      </c>
-      <c r="I33" s="6">
-        <v>350</v>
-      </c>
-      <c r="J33" s="6">
-        <v>7000</v>
-      </c>
-      <c r="K33" s="6">
-        <v>4</v>
-      </c>
-      <c r="L33" s="6">
-        <v>250</v>
-      </c>
-      <c r="M33" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N33" s="6">
-        <f>13*1000</f>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="21"/>
-      <c r="B34" s="6">
-        <f>12000*[1]条件输入!$E$5</f>
-        <v>9600</v>
-      </c>
-      <c r="C34" s="6">
-        <f>12000*[1]条件输入!$F$5</f>
-        <v>2399.9999999999995</v>
-      </c>
-      <c r="D34" s="6">
-        <f>12000*0.5</f>
-        <v>6000</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="8"/>
-        <v>6000</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>20</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="7"/>
-        <v>475</v>
-      </c>
-      <c r="I34" s="6">
-        <v>300</v>
-      </c>
-      <c r="J34" s="6">
-        <v>6000</v>
-      </c>
-      <c r="K34" s="6">
-        <v>4</v>
-      </c>
-      <c r="L34" s="6">
-        <v>200</v>
-      </c>
-      <c r="M34" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N34" s="6">
-        <f>12*1000</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="21"/>
-      <c r="B35" s="6">
-        <f>20000*[1]条件输入!$E$5</f>
-        <v>16000</v>
-      </c>
-      <c r="C35" s="6">
-        <f>20000*[1]条件输入!$F$5</f>
-        <v>3999.9999999999991</v>
-      </c>
-      <c r="D35" s="6">
-        <f>20000*0.3</f>
-        <v>6000</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="8"/>
-        <v>6000</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>20</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="7"/>
-        <v>475</v>
-      </c>
-      <c r="I35" s="6">
-        <v>400</v>
-      </c>
-      <c r="J35" s="6">
-        <v>8000</v>
-      </c>
-      <c r="K35" s="6">
-        <v>4</v>
-      </c>
-      <c r="L35" s="6">
-        <v>300</v>
-      </c>
-      <c r="M35" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N35" s="6">
-        <f>14*1000</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>3</v>
-      </c>
-      <c r="F37" s="6">
-        <v>4</v>
-      </c>
-      <c r="G37" s="6">
-        <v>5</v>
-      </c>
-      <c r="H37" s="6">
-        <v>6</v>
-      </c>
-      <c r="I37" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="28.5">
-      <c r="A38" s="6"/>
-      <c r="B38" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="6"/>
-      <c r="B39" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D40" s="6">
-        <f>C40*0.2*[1]条件输入!$E$5</f>
-        <v>288</v>
-      </c>
-      <c r="E40" s="6">
-        <f>C40*0.2*[1]条件输入!$F$5</f>
-        <v>71.999999999999986</v>
-      </c>
-      <c r="F40" s="6">
-        <f>C40*0.2</f>
-        <v>360</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <f>C40</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D41" s="6">
-        <f>C41*2*[1]条件输入!$E$5</f>
-        <v>2880</v>
-      </c>
-      <c r="E41" s="6">
-        <f>C41*2*[1]条件输入!$F$5</f>
-        <v>719.99999999999989</v>
-      </c>
-      <c r="F41" s="6">
-        <f>C41*1</f>
-        <v>1800</v>
-      </c>
-      <c r="G41" s="6">
-        <f>40*0.475</f>
-        <v>19</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" ref="I41:I47" si="9">C41</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D42" s="6">
-        <f>C42*2*[1]条件输入!$E$5</f>
-        <v>2880</v>
-      </c>
-      <c r="E42" s="6">
-        <f>C42*2*[1]条件输入!$F$5</f>
-        <v>719.99999999999989</v>
-      </c>
-      <c r="F42" s="6">
-        <f>C42*1</f>
-        <v>1800</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" ref="G42:G47" si="10">40*0.475</f>
-        <v>19</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D43" s="6">
-        <f>C43*3*[1]条件输入!$E$5</f>
-        <v>4320</v>
-      </c>
-      <c r="E43" s="6">
-        <f>C43*3*[1]条件输入!$F$5</f>
-        <v>1079.9999999999998</v>
-      </c>
-      <c r="F43" s="6">
-        <f>C43*0.5</f>
-        <v>900</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="H43" s="6">
-        <v>50</v>
-      </c>
-      <c r="I43" s="6">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D44" s="6">
-        <f>C44*2.5*[1]条件输入!$E$5</f>
-        <v>3600</v>
-      </c>
-      <c r="E44" s="6">
-        <f>C44*2.5*[1]条件输入!$F$5</f>
-        <v>899.99999999999977</v>
-      </c>
-      <c r="F44" s="6">
-        <f>C44*1</f>
-        <v>1800</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="H44" s="6">
-        <v>20</v>
-      </c>
-      <c r="I44" s="6">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D45" s="6">
-        <f>C45*3.5*[1]条件输入!$E$5</f>
-        <v>5040</v>
-      </c>
-      <c r="E45" s="6">
-        <f>C45*3.5*[1]条件输入!$F$5</f>
-        <v>1259.9999999999998</v>
-      </c>
-      <c r="F45" s="6">
-        <f>C45*0.5</f>
-        <v>900</v>
-      </c>
-      <c r="G45" s="6">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="H45" s="6">
-        <v>50</v>
-      </c>
-      <c r="I45" s="6">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D46" s="6">
-        <f>C46*2.5*[1]条件输入!$E$5</f>
-        <v>3600</v>
-      </c>
-      <c r="E46" s="6">
-        <f>C46*2.5*[1]条件输入!$F$5</f>
-        <v>899.99999999999977</v>
-      </c>
-      <c r="F46" s="6">
-        <f>C46*1</f>
-        <v>1800</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="H46" s="6">
-        <v>20</v>
-      </c>
-      <c r="I46" s="6">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D47" s="6">
-        <f>C47*4*[1]条件输入!$E$5</f>
-        <v>5760</v>
-      </c>
-      <c r="E47" s="6">
-        <f>C47*4*[1]条件输入!$F$5</f>
-        <v>1439.9999999999998</v>
-      </c>
-      <c r="F47" s="6">
-        <f>C47*0.5</f>
-        <v>900</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="H47" s="6">
-        <v>50</v>
-      </c>
-      <c r="I47" s="6">
-        <f t="shared" si="9"/>
-        <v>1800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B10D049-4633-42E3-9CD9-63531EF6C06B}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="42.75">
+      <c r="A2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="21"/>
+      <c r="B4" s="6">
+        <f>6500*0.3*[1]条件输入!$E$5</f>
+        <v>1560</v>
+      </c>
+      <c r="C4" s="6">
+        <f>6500*0.3*[1]条件输入!$F$5</f>
+        <v>389.99999999999989</v>
+      </c>
+      <c r="D4" s="6">
+        <f>6.5*1000*0.5</f>
+        <v>3250</v>
+      </c>
+      <c r="E4" s="6">
+        <f>5.5*1000</f>
+        <v>5500</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="H4" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <f>1*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+      <c r="N4" s="6">
+        <f>8*1000</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="21"/>
+      <c r="B5" s="6">
+        <f>6000*[1]条件输入!$E$5</f>
+        <v>4800</v>
+      </c>
+      <c r="C5" s="6">
+        <f>6000*[1]条件输入!$F$5</f>
+        <v>1199.9999999999998</v>
+      </c>
+      <c r="D5" s="6">
+        <f>6000*0.5</f>
+        <v>3000</v>
+      </c>
+      <c r="E5" s="6">
+        <f>6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="I5" s="6">
+        <v>100</v>
+      </c>
+      <c r="J5" s="6">
+        <f>2*1000</f>
+        <v>2000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+      <c r="N5" s="6">
+        <f>10*1000</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="21"/>
+      <c r="B6" s="6">
+        <f>8000*[1]条件输入!$E$5</f>
+        <v>6400</v>
+      </c>
+      <c r="C6" s="6">
+        <f>8000*[1]条件输入!$F$5</f>
+        <v>1599.9999999999995</v>
+      </c>
+      <c r="D6" s="6">
+        <f>8000*0.5</f>
+        <v>4000</v>
+      </c>
+      <c r="E6" s="6">
+        <f>6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="I6" s="6">
+        <v>200</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6">
+        <v>160</v>
+      </c>
+      <c r="M6" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+      <c r="N6" s="6">
+        <f>10*1000</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="21"/>
+      <c r="B7" s="6">
+        <f>15000*[1]条件输入!$E$5</f>
+        <v>12000</v>
+      </c>
+      <c r="C7" s="6">
+        <f>15000*[1]条件输入!$F$5</f>
+        <v>2999.9999999999995</v>
+      </c>
+      <c r="D7" s="6">
+        <f>15000*0.3</f>
+        <v>4500</v>
+      </c>
+      <c r="E7" s="6">
+        <f>6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="I7" s="6">
+        <v>300</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6">
+        <v>200</v>
+      </c>
+      <c r="M7" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+      <c r="N7" s="6">
+        <f>12*1000</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="21"/>
+      <c r="B8" s="6">
+        <f>10000*[1]条件输入!$E$5</f>
+        <v>8000</v>
+      </c>
+      <c r="C8" s="6">
+        <f>10000*[1]条件输入!$F$5</f>
+        <v>1999.9999999999995</v>
+      </c>
+      <c r="D8" s="6">
+        <f>10000*0.5</f>
+        <v>5000</v>
+      </c>
+      <c r="E8" s="6">
+        <f>6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="I8" s="6">
+        <v>250</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6">
+        <v>180</v>
+      </c>
+      <c r="M8" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+      <c r="N8" s="6">
+        <f>11*1000</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="21"/>
+      <c r="B9" s="6">
+        <f>18000*[1]条件输入!$E$5</f>
+        <v>14400</v>
+      </c>
+      <c r="C9" s="6">
+        <f>18000*[1]条件输入!$F$5</f>
+        <v>3599.9999999999991</v>
+      </c>
+      <c r="D9" s="6">
+        <f>18000*0.3</f>
+        <v>5400</v>
+      </c>
+      <c r="E9" s="6">
+        <f>6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="I9" s="6">
+        <v>350</v>
+      </c>
+      <c r="J9" s="6">
+        <v>7000</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6">
+        <v>250</v>
+      </c>
+      <c r="M9" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+      <c r="N9" s="6">
+        <f>13*1000</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="21"/>
+      <c r="B10" s="6">
+        <f>12000*[1]条件输入!$E$5</f>
+        <v>9600</v>
+      </c>
+      <c r="C10" s="6">
+        <f>12000*[1]条件输入!$F$5</f>
+        <v>2399.9999999999995</v>
+      </c>
+      <c r="D10" s="6">
+        <f>12000*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="E10" s="6">
+        <f>6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="I10" s="6">
+        <v>300</v>
+      </c>
+      <c r="J10" s="6">
+        <v>6000</v>
+      </c>
+      <c r="K10" s="6">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6">
+        <v>200</v>
+      </c>
+      <c r="M10" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+      <c r="N10" s="6">
+        <f>12*1000</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="21"/>
+      <c r="B11" s="6">
+        <f>20000*[1]条件输入!$E$5</f>
+        <v>16000</v>
+      </c>
+      <c r="C11" s="6">
+        <f>20000*[1]条件输入!$F$5</f>
+        <v>3999.9999999999991</v>
+      </c>
+      <c r="D11" s="6">
+        <f>20000*0.3</f>
+        <v>6000</v>
+      </c>
+      <c r="E11" s="6">
+        <f>6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>20</v>
+      </c>
+      <c r="H11" s="6">
+        <f>0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="I11" s="6">
+        <v>400</v>
+      </c>
+      <c r="J11" s="6">
+        <v>8000</v>
+      </c>
+      <c r="K11" s="6">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6">
+        <v>300</v>
+      </c>
+      <c r="M11" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+      <c r="N11" s="6">
+        <f>14*1000</f>
+        <v>14000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912B1AE-2865-4A3D-9A4D-9928FFEFE705}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D4" s="6">
+        <f>C4*0.2*[1]条件输入!$E$5</f>
+        <v>288</v>
+      </c>
+      <c r="E4" s="6">
+        <f>C4*0.2*[1]条件输入!$F$5</f>
+        <v>71.999999999999986</v>
+      </c>
+      <c r="F4" s="6">
+        <f>C4*0.2</f>
+        <v>360</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <f>C4</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D5" s="6">
+        <f>C5*2*[1]条件输入!$E$5</f>
+        <v>2880</v>
+      </c>
+      <c r="E5" s="6">
+        <f>C5*2*[1]条件输入!$F$5</f>
+        <v>719.99999999999989</v>
+      </c>
+      <c r="F5" s="6">
+        <f>C5*1</f>
+        <v>1800</v>
+      </c>
+      <c r="G5" s="6">
+        <f>40*0.475</f>
+        <v>19</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>C5</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="6">
+        <f>C6*2*[1]条件输入!$E$5</f>
+        <v>2880</v>
+      </c>
+      <c r="E6" s="6">
+        <f>C6*2*[1]条件输入!$F$5</f>
+        <v>719.99999999999989</v>
+      </c>
+      <c r="F6" s="6">
+        <f>C6*1</f>
+        <v>1800</v>
+      </c>
+      <c r="G6" s="6">
+        <f>40*0.475</f>
+        <v>19</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f>C6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D7" s="6">
+        <f>C7*3*[1]条件输入!$E$5</f>
+        <v>4320</v>
+      </c>
+      <c r="E7" s="6">
+        <f>C7*3*[1]条件输入!$F$5</f>
+        <v>1079.9999999999998</v>
+      </c>
+      <c r="F7" s="6">
+        <f>C7*0.5</f>
+        <v>900</v>
+      </c>
+      <c r="G7" s="6">
+        <f>40*0.475</f>
+        <v>19</v>
+      </c>
+      <c r="H7" s="6">
+        <v>50</v>
+      </c>
+      <c r="I7" s="6">
+        <f>C7</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D8" s="6">
+        <f>C8*2.5*[1]条件输入!$E$5</f>
+        <v>3600</v>
+      </c>
+      <c r="E8" s="6">
+        <f>C8*2.5*[1]条件输入!$F$5</f>
+        <v>899.99999999999977</v>
+      </c>
+      <c r="F8" s="6">
+        <f>C8*1</f>
+        <v>1800</v>
+      </c>
+      <c r="G8" s="6">
+        <f>40*0.475</f>
+        <v>19</v>
+      </c>
+      <c r="H8" s="6">
+        <v>20</v>
+      </c>
+      <c r="I8" s="6">
+        <f>C8</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D9" s="6">
+        <f>C9*3.5*[1]条件输入!$E$5</f>
+        <v>5040</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C9*3.5*[1]条件输入!$F$5</f>
+        <v>1259.9999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <f>C9*0.5</f>
+        <v>900</v>
+      </c>
+      <c r="G9" s="6">
+        <f>40*0.475</f>
+        <v>19</v>
+      </c>
+      <c r="H9" s="6">
+        <v>50</v>
+      </c>
+      <c r="I9" s="6">
+        <f>C9</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D10" s="6">
+        <f>C10*2.5*[1]条件输入!$E$5</f>
+        <v>3600</v>
+      </c>
+      <c r="E10" s="6">
+        <f>C10*2.5*[1]条件输入!$F$5</f>
+        <v>899.99999999999977</v>
+      </c>
+      <c r="F10" s="6">
+        <f>C10*1</f>
+        <v>1800</v>
+      </c>
+      <c r="G10" s="6">
+        <f>40*0.475</f>
+        <v>19</v>
+      </c>
+      <c r="H10" s="6">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6">
+        <f>C10</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D11" s="6">
+        <f>C11*4*[1]条件输入!$E$5</f>
+        <v>5760</v>
+      </c>
+      <c r="E11" s="6">
+        <f>C11*4*[1]条件输入!$F$5</f>
+        <v>1439.9999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f>C11*0.5</f>
+        <v>900</v>
+      </c>
+      <c r="G11" s="6">
+        <f>40*0.475</f>
+        <v>19</v>
+      </c>
+      <c r="H11" s="6">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6">
+        <f>C11</f>
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF2031-92FE-4898-964A-EE4BA8FEB014}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9539CA7-0E43-4B0D-A033-A47BB4A6B1A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="167">
   <si>
     <t>设防烈度</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -371,22 +371,11 @@
     <t>避雷针</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>新建</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>利用原有</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -508,50 +497,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>km</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>平原</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -581,10 +526,6 @@
   </si>
   <si>
     <t>陡坡高山</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -610,10 +551,6 @@
     </r>
   </si>
   <si>
-    <t>台</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>H1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -873,11 +810,36 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Graded gravel pavement</t>
-  </si>
-  <si>
-    <t>round tube culvert</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>Earthexcavation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneexcavation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthworkbackfill</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradedgravelpavement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundtubeculvert</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stonemasonrydrainageditch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortarstoneretainingwall</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turfslopeprotection</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -888,7 +850,7 @@
     <numFmt numFmtId="176" formatCode="#&quot;MW&quot;"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,12 +944,6 @@
       <name val="Inherit"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1061,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,15 +1080,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1584,71 +1536,71 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="R2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="S2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="U2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="W2" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3625,7 +3577,7 @@
         <v>180</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D29" s="10">
         <v>70000</v>
@@ -7219,49 +7171,49 @@
     </row>
     <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="L3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>129</v>
+      <c r="N3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7712,8 +7664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEC6D52-00C5-4DB1-97AD-7F926EC519CA}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7898,94 +7850,94 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="M3" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="N3" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="P3" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="Q3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="R3" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="S3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="T3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="U3" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="V3" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="W3" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="X3" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="Z3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC3" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4">
         <v>110</v>
@@ -8079,7 +8031,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4">
         <v>110</v>
@@ -8173,7 +8125,7 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4">
         <v>110</v>
@@ -8209,7 +8161,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4">
         <v>110</v>
@@ -8245,7 +8197,7 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
         <v>220</v>
@@ -8281,7 +8233,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4">
         <v>220</v>
@@ -8317,7 +8269,7 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4">
         <v>220</v>
@@ -8353,7 +8305,7 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <v>220</v>
@@ -8389,7 +8341,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4">
         <v>110</v>
@@ -8431,7 +8383,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4">
         <v>110</v>
@@ -8473,7 +8425,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4">
         <v>110</v>
@@ -8515,7 +8467,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
@@ -8557,7 +8509,7 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4">
         <v>220</v>
@@ -8599,7 +8551,7 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4">
         <v>220</v>
@@ -8641,7 +8593,7 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4">
         <v>220</v>
@@ -8683,7 +8635,7 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="4">
         <v>220</v>
@@ -8732,20 +8684,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54EC320-17F1-40F2-8440-478BCD0895FD}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5">
-      <c r="A1" s="22" t="s">
-        <v>69</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="B1" s="6">
         <v>1</v>
@@ -8754,42 +8711,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6">
         <v>6</v>
       </c>
-      <c r="E1" s="6">
+      <c r="I1" s="6">
         <v>7</v>
       </c>
-      <c r="F1" s="6">
+      <c r="J1" s="6">
         <v>8</v>
       </c>
-      <c r="H1" s="6">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6">
-        <v>10</v>
-      </c>
-      <c r="J1" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="42.75">
-      <c r="A2" s="22" t="s">
-        <v>167</v>
+    </row>
+    <row r="2" spans="1:11" ht="28.5">
+      <c r="A2" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>44</v>
@@ -8798,29 +8755,45 @@
         <v>45</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="42.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B4" s="6">
         <f>2.5*1000</f>
@@ -8853,9 +8826,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B5" s="6">
         <f>2.5*1000</f>
@@ -8888,9 +8861,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" ref="B6:B11" si="0">2.5*1000</f>
@@ -8923,9 +8896,9 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B7" s="6">
         <f>2.5*1000</f>
@@ -8958,9 +8931,9 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
@@ -8993,9 +8966,9 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
@@ -9028,9 +9001,9 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
@@ -9063,9 +9036,9 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
@@ -9099,7 +9072,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -9107,17 +9080,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDCBB96-49E7-4AF1-99A5-1885089E0E0E}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" s="6">
         <v>1</v>
@@ -9143,428 +9119,422 @@
       <c r="I1" s="6">
         <v>8</v>
       </c>
-      <c r="J1" s="6">
+      <c r="K1" s="6">
         <v>9</v>
       </c>
-      <c r="K1" s="6">
+      <c r="L1" s="6">
         <v>10</v>
       </c>
-      <c r="L1" s="6">
+      <c r="M1" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="42.75">
-      <c r="A2" s="22" t="s">
-        <v>76</v>
+    <row r="2" spans="1:13" ht="42.75">
+      <c r="A2" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" s="18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>72</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="B4" s="6">
+        <f t="shared" ref="B4:B11" si="0">6.5*1000</f>
+        <v>6500</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C11" si="1">6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E11" si="2">0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f>1*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <f>6500*0.3*[1]条件输入!$E$5</f>
         <v>1560</v>
       </c>
-      <c r="C4" s="6">
+      <c r="L4" s="6">
         <f>6500*0.3*[1]条件输入!$F$5</f>
         <v>389.99999999999989</v>
       </c>
-      <c r="D4" s="6">
+      <c r="M4" s="6">
         <f>6.5*1000*0.5</f>
         <v>3250</v>
       </c>
-      <c r="E4" s="6">
-        <f>6.5*1000</f>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="F4" s="6">
-        <f>6*1000</f>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <f>0.475*1000</f>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f>1*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="F5" s="6">
+        <v>100</v>
+      </c>
+      <c r="G5" s="6">
+        <f>2*1000</f>
+        <v>2000</v>
+      </c>
+      <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="21"/>
-      <c r="B5" s="6">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <f>6000*[1]条件输入!$E$5</f>
         <v>4800</v>
       </c>
-      <c r="C5" s="6">
+      <c r="L5" s="6">
         <f>6000*[1]条件输入!$F$5</f>
         <v>1199.9999999999998</v>
       </c>
-      <c r="D5" s="6">
+      <c r="M5" s="6">
         <f>6000*0.5</f>
         <v>3000</v>
       </c>
-      <c r="E5" s="6">
-        <f>6.5*1000</f>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="F5" s="6">
-        <f>6*1000</f>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <f>0.475*1000</f>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="I5" s="6">
-        <v>100</v>
-      </c>
-      <c r="J5" s="6">
-        <f>2*1000</f>
-        <v>2000</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="F6" s="6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="6">
         <v>2</v>
       </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="21"/>
-      <c r="B6" s="6">
+      <c r="I6" s="6">
+        <v>160</v>
+      </c>
+      <c r="K6" s="6">
         <f>8000*[1]条件输入!$E$5</f>
         <v>6400</v>
       </c>
-      <c r="C6" s="6">
+      <c r="L6" s="6">
         <f>8000*[1]条件输入!$F$5</f>
         <v>1599.9999999999995</v>
       </c>
-      <c r="D6" s="6">
+      <c r="M6" s="6">
         <f>8000*0.5</f>
         <v>4000</v>
       </c>
-      <c r="E6" s="6">
-        <f>6.5*1000</f>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="F6" s="6">
-        <f>6*1000</f>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="D7" s="6">
         <v>20</v>
       </c>
-      <c r="H6" s="6">
-        <f>0.475*1000</f>
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="I6" s="6">
+      <c r="F7" s="6">
+        <v>300</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
         <v>200</v>
       </c>
-      <c r="J6" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K6" s="6">
-        <v>2</v>
-      </c>
-      <c r="L6" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="21"/>
-      <c r="B7" s="6">
+      <c r="K7" s="6">
         <f>15000*[1]条件输入!$E$5</f>
         <v>12000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="L7" s="6">
         <f>15000*[1]条件输入!$F$5</f>
         <v>2999.9999999999995</v>
       </c>
-      <c r="D7" s="6">
+      <c r="M7" s="6">
         <f>15000*0.3</f>
         <v>4500</v>
       </c>
-      <c r="E7" s="6">
-        <f>6.5*1000</f>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="F7" s="6">
-        <f>6*1000</f>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="D8" s="6">
         <v>20</v>
       </c>
-      <c r="H7" s="6">
-        <f>0.475*1000</f>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="I7" s="6">
-        <v>300</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6000</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="F8" s="6">
+        <v>250</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="6">
         <v>2</v>
       </c>
-      <c r="L7" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="21"/>
-      <c r="B8" s="6">
+      <c r="I8" s="6">
+        <v>180</v>
+      </c>
+      <c r="K8" s="6">
         <f>10000*[1]条件输入!$E$5</f>
         <v>8000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="L8" s="6">
         <f>10000*[1]条件输入!$F$5</f>
         <v>1999.9999999999995</v>
       </c>
-      <c r="D8" s="6">
+      <c r="M8" s="6">
         <f>10000*0.5</f>
         <v>5000</v>
       </c>
-      <c r="E8" s="6">
-        <f>6.5*1000</f>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="F8" s="6">
-        <f>6*1000</f>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="D9" s="6">
         <v>20</v>
       </c>
-      <c r="H8" s="6">
-        <f>0.475*1000</f>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="I8" s="6">
+      <c r="F9" s="6">
+        <v>350</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
         <v>250</v>
       </c>
-      <c r="J8" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K8" s="6">
-        <v>2</v>
-      </c>
-      <c r="L8" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="21"/>
-      <c r="B9" s="6">
+      <c r="K9" s="6">
         <f>18000*[1]条件输入!$E$5</f>
         <v>14400</v>
       </c>
-      <c r="C9" s="6">
+      <c r="L9" s="6">
         <f>18000*[1]条件输入!$F$5</f>
         <v>3599.9999999999991</v>
       </c>
-      <c r="D9" s="6">
+      <c r="M9" s="6">
         <f>18000*0.3</f>
         <v>5400</v>
       </c>
-      <c r="E9" s="6">
-        <f>6.5*1000</f>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="F9" s="6">
-        <f>6*1000</f>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G9" s="6">
+      <c r="D10" s="6">
         <v>20</v>
       </c>
-      <c r="H9" s="6">
-        <f>0.475*1000</f>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="I9" s="6">
-        <v>350</v>
-      </c>
-      <c r="J9" s="6">
-        <v>7000</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="F10" s="6">
+        <v>300</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="6">
         <v>2</v>
       </c>
-      <c r="L9" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6">
+      <c r="I10" s="6">
+        <v>200</v>
+      </c>
+      <c r="K10" s="6">
         <f>12000*[1]条件输入!$E$5</f>
         <v>9600</v>
       </c>
-      <c r="C10" s="6">
+      <c r="L10" s="6">
         <f>12000*[1]条件输入!$F$5</f>
         <v>2399.9999999999995</v>
       </c>
-      <c r="D10" s="6">
+      <c r="M10" s="6">
         <f>12000*0.5</f>
         <v>6000</v>
       </c>
-      <c r="E10" s="6">
-        <f>6.5*1000</f>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="F10" s="6">
-        <f>6*1000</f>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G10" s="6">
+      <c r="D11" s="6">
         <v>20</v>
       </c>
-      <c r="H10" s="6">
-        <f>0.475*1000</f>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="I10" s="6">
+      <c r="F11" s="6">
+        <v>400</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
         <v>300</v>
       </c>
-      <c r="J10" s="6">
-        <v>6000</v>
-      </c>
-      <c r="K10" s="6">
-        <v>2</v>
-      </c>
-      <c r="L10" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="21"/>
-      <c r="B11" s="6">
+      <c r="K11" s="6">
         <f>20000*[1]条件输入!$E$5</f>
         <v>16000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="L11" s="6">
         <f>20000*[1]条件输入!$F$5</f>
         <v>3999.9999999999991</v>
       </c>
-      <c r="D11" s="6">
+      <c r="M11" s="6">
         <f>20000*0.3</f>
         <v>6000</v>
-      </c>
-      <c r="E11" s="6">
-        <f>6.5*1000</f>
-        <v>6500</v>
-      </c>
-      <c r="F11" s="6">
-        <f>6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>20</v>
-      </c>
-      <c r="H11" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I11" s="6">
-        <v>400</v>
-      </c>
-      <c r="J11" s="6">
-        <v>8000</v>
-      </c>
-      <c r="K11" s="6">
-        <v>2</v>
-      </c>
-      <c r="L11" s="6">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -9575,17 +9545,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B10D049-4633-42E3-9CD9-63531EF6C06B}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" ht="28.5">
       <c r="A1" s="21" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B1" s="6">
         <v>1</v>
@@ -9614,500 +9584,490 @@
       <c r="J1" s="6">
         <v>9</v>
       </c>
-      <c r="K1" s="6">
+      <c r="L1" s="6">
         <v>10</v>
       </c>
-      <c r="L1" s="6">
+      <c r="M1" s="6">
         <v>11</v>
       </c>
-      <c r="M1" s="6">
+      <c r="N1" s="6">
         <v>12</v>
       </c>
-      <c r="N1" s="6">
+      <c r="O1" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="42.75">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:15" ht="42.75">
+      <c r="A2" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="21"/>
       <c r="B4" s="6">
+        <f>5.5*1000</f>
+        <v>5500</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E11" si="0">0.475*1000</f>
+        <v>475</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f>1*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <f>8*1000</f>
+        <v>8000</v>
+      </c>
+      <c r="L4" s="6">
         <f>6500*0.3*[1]条件输入!$E$5</f>
         <v>1560</v>
       </c>
-      <c r="C4" s="6">
+      <c r="M4" s="6">
         <f>6500*0.3*[1]条件输入!$F$5</f>
         <v>389.99999999999989</v>
       </c>
-      <c r="D4" s="6">
+      <c r="N4" s="6">
         <f>6.5*1000*0.5</f>
         <v>3250</v>
       </c>
-      <c r="E4" s="6">
-        <f>5.5*1000</f>
-        <v>5500</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <f>20</f>
-        <v>20</v>
-      </c>
-      <c r="H4" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f>1*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="6">
-        <v>2</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f>IF([1]条件输入!$G$5="无","","自定义")</f>
         <v/>
       </c>
-      <c r="N4" s="6">
-        <f>8*1000</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="21"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="B5" s="6">
+        <f t="shared" ref="B5:B11" si="1">6*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="F5" s="6">
+        <v>100</v>
+      </c>
+      <c r="G5" s="6">
+        <f>2*1000</f>
+        <v>2000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f>10*1000</f>
+        <v>10000</v>
+      </c>
+      <c r="L5" s="6">
         <f>6000*[1]条件输入!$E$5</f>
         <v>4800</v>
       </c>
-      <c r="C5" s="6">
+      <c r="M5" s="6">
         <f>6000*[1]条件输入!$F$5</f>
         <v>1199.9999999999998</v>
       </c>
-      <c r="D5" s="6">
+      <c r="N5" s="6">
         <f>6000*0.5</f>
         <v>3000</v>
       </c>
-      <c r="E5" s="6">
-        <f>6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I5" s="6">
-        <v>100</v>
-      </c>
-      <c r="J5" s="6">
-        <f>2*1000</f>
-        <v>2000</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="str">
+      <c r="O5" s="6" t="str">
         <f>IF([1]条件输入!$G$5="无","","自定义")</f>
         <v/>
       </c>
-      <c r="N5" s="6">
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="F6" s="6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>160</v>
+      </c>
+      <c r="J6" s="6">
         <f>10*1000</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="21"/>
-      <c r="B6" s="6">
+      <c r="L6" s="6">
         <f>8000*[1]条件输入!$E$5</f>
         <v>6400</v>
       </c>
-      <c r="C6" s="6">
+      <c r="M6" s="6">
         <f>8000*[1]条件输入!$F$5</f>
         <v>1599.9999999999995</v>
       </c>
-      <c r="D6" s="6">
+      <c r="N6" s="6">
         <f>8000*0.5</f>
         <v>4000</v>
       </c>
-      <c r="E6" s="6">
-        <f>6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I6" s="6">
-        <v>200</v>
-      </c>
-      <c r="J6" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K6" s="6">
-        <v>4</v>
-      </c>
-      <c r="L6" s="6">
-        <v>160</v>
-      </c>
-      <c r="M6" s="6" t="str">
+      <c r="O6" s="6" t="str">
         <f>IF([1]条件输入!$G$5="无","","自定义")</f>
         <v/>
       </c>
-      <c r="N6" s="6">
-        <f>10*1000</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="21"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="B7" s="6">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="F7" s="6">
+        <v>300</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <v>200</v>
+      </c>
+      <c r="J7" s="6">
+        <f>12*1000</f>
+        <v>12000</v>
+      </c>
+      <c r="L7" s="6">
         <f>15000*[1]条件输入!$E$5</f>
         <v>12000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="M7" s="6">
         <f>15000*[1]条件输入!$F$5</f>
         <v>2999.9999999999995</v>
       </c>
-      <c r="D7" s="6">
+      <c r="N7" s="6">
         <f>15000*0.3</f>
         <v>4500</v>
       </c>
-      <c r="E7" s="6">
-        <f>6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I7" s="6">
-        <v>300</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6000</v>
-      </c>
-      <c r="K7" s="6">
-        <v>4</v>
-      </c>
-      <c r="L7" s="6">
-        <v>200</v>
-      </c>
-      <c r="M7" s="6" t="str">
+      <c r="O7" s="6" t="str">
         <f>IF([1]条件输入!$G$5="无","","自定义")</f>
         <v/>
       </c>
-      <c r="N7" s="6">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="F8" s="6">
+        <v>250</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6">
+        <v>180</v>
+      </c>
+      <c r="J8" s="6">
+        <f>11*1000</f>
+        <v>11000</v>
+      </c>
+      <c r="L8" s="6">
+        <f>10000*[1]条件输入!$E$5</f>
+        <v>8000</v>
+      </c>
+      <c r="M8" s="6">
+        <f>10000*[1]条件输入!$F$5</f>
+        <v>1999.9999999999995</v>
+      </c>
+      <c r="N8" s="6">
+        <f>10000*0.5</f>
+        <v>5000</v>
+      </c>
+      <c r="O8" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="F9" s="6">
+        <v>350</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6">
+        <v>250</v>
+      </c>
+      <c r="J9" s="6">
+        <f>13*1000</f>
+        <v>13000</v>
+      </c>
+      <c r="L9" s="6">
+        <f>18000*[1]条件输入!$E$5</f>
+        <v>14400</v>
+      </c>
+      <c r="M9" s="6">
+        <f>18000*[1]条件输入!$F$5</f>
+        <v>3599.9999999999991</v>
+      </c>
+      <c r="N9" s="6">
+        <f>18000*0.3</f>
+        <v>5400</v>
+      </c>
+      <c r="O9" s="6" t="str">
+        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="F10" s="6">
+        <v>300</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>200</v>
+      </c>
+      <c r="J10" s="6">
         <f>12*1000</f>
         <v>12000</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="21"/>
-      <c r="B8" s="6">
-        <f>10000*[1]条件输入!$E$5</f>
-        <v>8000</v>
-      </c>
-      <c r="C8" s="6">
-        <f>10000*[1]条件输入!$F$5</f>
-        <v>1999.9999999999995</v>
-      </c>
-      <c r="D8" s="6">
-        <f>10000*0.5</f>
-        <v>5000</v>
-      </c>
-      <c r="E8" s="6">
-        <f>6*1000</f>
+      <c r="L10" s="6">
+        <f>12000*[1]条件输入!$E$5</f>
+        <v>9600</v>
+      </c>
+      <c r="M10" s="6">
+        <f>12000*[1]条件输入!$F$5</f>
+        <v>2399.9999999999995</v>
+      </c>
+      <c r="N10" s="6">
+        <f>12000*0.5</f>
         <v>6000</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>20</v>
-      </c>
-      <c r="H8" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I8" s="6">
-        <v>250</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K8" s="6">
-        <v>4</v>
-      </c>
-      <c r="L8" s="6">
-        <v>180</v>
-      </c>
-      <c r="M8" s="6" t="str">
+      <c r="O10" s="6" t="str">
         <f>IF([1]条件输入!$G$5="无","","自定义")</f>
         <v/>
       </c>
-      <c r="N8" s="6">
-        <f>11*1000</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="21"/>
-      <c r="B9" s="6">
-        <f>18000*[1]条件输入!$E$5</f>
-        <v>14400</v>
-      </c>
-      <c r="C9" s="6">
-        <f>18000*[1]条件输入!$F$5</f>
-        <v>3599.9999999999991</v>
-      </c>
-      <c r="D9" s="6">
-        <f>18000*0.3</f>
-        <v>5400</v>
-      </c>
-      <c r="E9" s="6">
-        <f>6*1000</f>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>20</v>
       </c>
-      <c r="H9" s="6">
-        <f>0.475*1000</f>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>475</v>
       </c>
-      <c r="I9" s="6">
-        <v>350</v>
-      </c>
-      <c r="J9" s="6">
-        <v>7000</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="F11" s="6">
+        <v>400</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8000</v>
+      </c>
+      <c r="H11" s="6">
         <v>4</v>
       </c>
-      <c r="L9" s="6">
-        <v>250</v>
-      </c>
-      <c r="M9" s="6" t="str">
+      <c r="I11" s="6">
+        <v>300</v>
+      </c>
+      <c r="J11" s="6">
+        <f>14*1000</f>
+        <v>14000</v>
+      </c>
+      <c r="L11" s="6">
+        <f>20000*[1]条件输入!$E$5</f>
+        <v>16000</v>
+      </c>
+      <c r="M11" s="6">
+        <f>20000*[1]条件输入!$F$5</f>
+        <v>3999.9999999999991</v>
+      </c>
+      <c r="N11" s="6">
+        <f>20000*0.3</f>
+        <v>6000</v>
+      </c>
+      <c r="O11" s="6" t="str">
         <f>IF([1]条件输入!$G$5="无","","自定义")</f>
         <v/>
-      </c>
-      <c r="N9" s="6">
-        <f>13*1000</f>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6">
-        <f>12000*[1]条件输入!$E$5</f>
-        <v>9600</v>
-      </c>
-      <c r="C10" s="6">
-        <f>12000*[1]条件输入!$F$5</f>
-        <v>2399.9999999999995</v>
-      </c>
-      <c r="D10" s="6">
-        <f>12000*0.5</f>
-        <v>6000</v>
-      </c>
-      <c r="E10" s="6">
-        <f>6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>20</v>
-      </c>
-      <c r="H10" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I10" s="6">
-        <v>300</v>
-      </c>
-      <c r="J10" s="6">
-        <v>6000</v>
-      </c>
-      <c r="K10" s="6">
-        <v>4</v>
-      </c>
-      <c r="L10" s="6">
-        <v>200</v>
-      </c>
-      <c r="M10" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N10" s="6">
-        <f>12*1000</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="21"/>
-      <c r="B11" s="6">
-        <f>20000*[1]条件输入!$E$5</f>
-        <v>16000</v>
-      </c>
-      <c r="C11" s="6">
-        <f>20000*[1]条件输入!$F$5</f>
-        <v>3999.9999999999991</v>
-      </c>
-      <c r="D11" s="6">
-        <f>20000*0.3</f>
-        <v>6000</v>
-      </c>
-      <c r="E11" s="6">
-        <f>6*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>20</v>
-      </c>
-      <c r="H11" s="6">
-        <f>0.475*1000</f>
-        <v>475</v>
-      </c>
-      <c r="I11" s="6">
-        <v>400</v>
-      </c>
-      <c r="J11" s="6">
-        <v>8000</v>
-      </c>
-      <c r="K11" s="6">
-        <v>4</v>
-      </c>
-      <c r="L11" s="6">
-        <v>300</v>
-      </c>
-      <c r="M11" s="6" t="str">
-        <f>IF([1]条件输入!$G$5="无","","自定义")</f>
-        <v/>
-      </c>
-      <c r="N11" s="6">
-        <f>14*1000</f>
-        <v>14000</v>
       </c>
     </row>
   </sheetData>
@@ -10121,45 +10081,31 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6">
-        <v>9</v>
-      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="28.5">
-      <c r="A2" s="6"/>
+      <c r="A2" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="B2" s="18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>44</v>
@@ -10168,48 +10114,34 @@
         <v>45</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="A3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -10234,13 +10166,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f>C4</f>
+        <f t="shared" ref="I4:I11" si="0">C4</f>
         <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -10259,20 +10191,20 @@
         <v>1800</v>
       </c>
       <c r="G5" s="6">
-        <f>40*0.475</f>
+        <f t="shared" ref="G5:G11" si="1">40*0.475</f>
         <v>19</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -10291,20 +10223,20 @@
         <v>1800</v>
       </c>
       <c r="G6" s="6">
-        <f>40*0.475</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -10323,20 +10255,20 @@
         <v>900</v>
       </c>
       <c r="G7" s="6">
-        <f>40*0.475</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H7" s="6">
         <v>50</v>
       </c>
       <c r="I7" s="6">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -10355,20 +10287,20 @@
         <v>1800</v>
       </c>
       <c r="G8" s="6">
-        <f>40*0.475</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H8" s="6">
         <v>20</v>
       </c>
       <c r="I8" s="6">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -10387,20 +10319,20 @@
         <v>900</v>
       </c>
       <c r="G9" s="6">
-        <f>40*0.475</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H9" s="6">
         <v>50</v>
       </c>
       <c r="I9" s="6">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -10419,20 +10351,20 @@
         <v>1800</v>
       </c>
       <c r="G10" s="6">
-        <f>40*0.475</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H10" s="6">
         <v>20</v>
       </c>
       <c r="I10" s="6">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -10451,19 +10383,20 @@
         <v>900</v>
       </c>
       <c r="G11" s="6">
-        <f>40*0.475</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H11" s="6">
         <v>50</v>
       </c>
       <c r="I11" s="6">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9539CA7-0E43-4B0D-A033-A47BB4A6B1A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA7A5A-64FD-4C3E-B38B-55920517D719}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="570" windowWidth="25470" windowHeight="12795" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="198">
   <si>
     <t>设防烈度</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>桥梁</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>用地</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -810,35 +806,162 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Earthexcavation</t>
+    <t>Gradedgravelbase_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Stoneexcavation</t>
+    <t>C30concretepavement_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Earthworkbackfill</t>
+    <t>roundtubeculvert_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Gradedgravelpavement</t>
+    <t>Stonemasonrydrainageditch_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>roundtubeculvert</t>
+    <t>mortarstoneretainingwall_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Stonemasonrydrainageditch</t>
+    <t>Turfslopeprotection_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>mortarstoneretainingwall</t>
+    <t>Signage_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Turfslopeprotection</t>
+    <t>Waveguardrail_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradedgravelpavement_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundtubeculvert_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stonemasonrydrainageditch_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortarstoneretainingwall_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turfslopeprotection_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥梁</t>
+  </si>
+  <si>
+    <t>Mountainpavement_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30concretepavement_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundtubeculvert_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stonemasonrydrainageditch_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortarstoneretainingwall_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turfslopeprotection_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signage_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waveguardrail_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landuse_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthexcavation_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneexcavation_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthworkbackfill_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthexcavation_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneexcavation_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthworkbackfill_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthexcavation_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneexcavation_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthworkbackfill_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generalsiteleveling_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stonemasonrydrainageditch_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortarstoneprotectionslope_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turfslopeprotection_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthexcavation_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneexcavation_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthworkbackfill_4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1537,70 +1660,70 @@
     </row>
     <row r="2" spans="1:23" ht="15">
       <c r="A2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="V2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3577,7 +3700,7 @@
         <v>180</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="10">
         <v>70000</v>
@@ -7171,49 +7294,49 @@
     </row>
     <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="N3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="P3" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7851,88 +7974,88 @@
     </row>
     <row r="3" spans="1:29" ht="15">
       <c r="A3" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="P3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="X3" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="Z3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC3" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB3" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC3" s="22" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -8686,8 +8809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54EC320-17F1-40F2-8440-478BCD0895FD}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8698,6 +8821,7 @@
     <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8731,7 +8855,7 @@
     </row>
     <row r="2" spans="1:11" ht="28.5">
       <c r="A2" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>68</v>
@@ -8760,40 +8884,38 @@
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>156</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6">
         <f>2.5*1000</f>
@@ -8828,7 +8950,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6">
         <f>2.5*1000</f>
@@ -8863,7 +8985,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" ref="B6:B11" si="0">2.5*1000</f>
@@ -8898,7 +9020,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6">
         <f>2.5*1000</f>
@@ -8933,7 +9055,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
@@ -8968,7 +9090,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
@@ -9003,7 +9125,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
@@ -9038,7 +9160,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
@@ -9083,12 +9205,19 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K3" sqref="K3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9131,7 +9260,7 @@
     </row>
     <row r="2" spans="1:13" ht="42.75">
       <c r="A2" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>74</v>
@@ -9169,23 +9298,46 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="C3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" ref="B4:B11" si="0">6.5*1000</f>
@@ -9230,7 +9382,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
@@ -9275,7 +9427,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
@@ -9319,7 +9471,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
@@ -9363,7 +9515,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
@@ -9407,7 +9559,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
@@ -9451,7 +9603,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
@@ -9495,7 +9647,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
@@ -9538,7 +9690,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9548,10 +9700,17 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5">
       <c r="A1" s="21" t="s">
@@ -9599,7 +9758,7 @@
     </row>
     <row r="2" spans="1:15" ht="42.75">
       <c r="A2" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>79</v>
@@ -9626,7 +9785,7 @@
         <v>77</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>44</v>
@@ -9638,30 +9797,56 @@
         <v>67</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+        <v>157</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6">
         <f>5.5*1000</f>
@@ -9714,7 +9899,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B11" si="1">6*1000</f>
@@ -9766,7 +9951,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="1"/>
@@ -9817,7 +10002,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="1"/>
@@ -9868,7 +10053,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="1"/>
@@ -9919,7 +10104,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="1"/>
@@ -9970,7 +10155,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="1"/>
@@ -10021,7 +10206,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="1"/>
@@ -10078,321 +10263,343 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912B1AE-2865-4A3D-9A4D-9928FFEFE705}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.5">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.5">
       <c r="A2" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E11" si="0">B4</f>
+        <v>1800</v>
+      </c>
+      <c r="G4" s="6">
+        <f>B4*0.2*[1]条件输入!$E$5</f>
+        <v>288</v>
+      </c>
+      <c r="H4" s="6">
+        <f>B4*0.2*[1]条件输入!$F$5</f>
+        <v>71.999999999999986</v>
+      </c>
+      <c r="I4" s="6">
+        <f>B4*0.2</f>
+        <v>360</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6">
+      <c r="B5" s="6">
         <v>1800</v>
       </c>
-      <c r="D4" s="6">
-        <f>C4*0.2*[1]条件输入!$E$5</f>
-        <v>288</v>
-      </c>
-      <c r="E4" s="6">
-        <f>C4*0.2*[1]条件输入!$F$5</f>
-        <v>71.999999999999986</v>
-      </c>
-      <c r="F4" s="6">
-        <f>C4*0.2</f>
-        <v>360</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4:I11" si="0">C4</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="6"/>
       <c r="C5" s="6">
-        <v>1800</v>
+        <f t="shared" ref="C5:C11" si="1">40*0.475</f>
+        <v>19</v>
       </c>
       <c r="D5" s="6">
-        <f>C5*2*[1]条件输入!$E$5</f>
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <f>C5*2*[1]条件输入!$F$5</f>
-        <v>719.99999999999989</v>
-      </c>
-      <c r="F5" s="6">
-        <f>C5*1</f>
-        <v>1800</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G11" si="1">40*0.475</f>
-        <v>19</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="6">
+        <f>B5*2*[1]条件输入!$E$5</f>
+        <v>2880</v>
+      </c>
+      <c r="H5" s="6">
+        <f>B5*2*[1]条件输入!$F$5</f>
+        <v>719.99999999999989</v>
+      </c>
+      <c r="I5" s="6">
+        <f>B5*1</f>
+        <v>1800</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1800</v>
+      </c>
       <c r="C6" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D6" s="6">
-        <f>C6*2*[1]条件输入!$E$5</f>
-        <v>2880</v>
-      </c>
-      <c r="E6" s="6">
-        <f>C6*2*[1]条件输入!$F$5</f>
-        <v>719.99999999999989</v>
-      </c>
-      <c r="F6" s="6">
-        <f>C6*1</f>
-        <v>1800</v>
-      </c>
-      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="6">
+        <f>B6*2*[1]条件输入!$E$5</f>
+        <v>2880</v>
+      </c>
+      <c r="H6" s="6">
+        <f>B6*2*[1]条件输入!$F$5</f>
+        <v>719.99999999999989</v>
+      </c>
+      <c r="I6" s="6">
+        <f>B6*1</f>
+        <v>1800</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1800</v>
+      </c>
       <c r="C7" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D7" s="6">
-        <f>C7*3*[1]条件输入!$E$5</f>
-        <v>4320</v>
-      </c>
-      <c r="E7" s="6">
-        <f>C7*3*[1]条件输入!$F$5</f>
-        <v>1079.9999999999998</v>
-      </c>
-      <c r="F7" s="6">
-        <f>C7*0.5</f>
-        <v>900</v>
-      </c>
-      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H7" s="6">
+      <c r="D7" s="6">
         <v>50</v>
       </c>
-      <c r="I7" s="6">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="6">
+        <f>B7*3*[1]条件输入!$E$5</f>
+        <v>4320</v>
+      </c>
+      <c r="H7" s="6">
+        <f>B7*3*[1]条件输入!$F$5</f>
+        <v>1079.9999999999998</v>
+      </c>
+      <c r="I7" s="6">
+        <f>B7*0.5</f>
+        <v>900</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1800</v>
+      </c>
       <c r="C8" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D8" s="6">
-        <f>C8*2.5*[1]条件输入!$E$5</f>
-        <v>3600</v>
-      </c>
-      <c r="E8" s="6">
-        <f>C8*2.5*[1]条件输入!$F$5</f>
-        <v>899.99999999999977</v>
-      </c>
-      <c r="F8" s="6">
-        <f>C8*1</f>
-        <v>1800</v>
-      </c>
-      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H8" s="6">
+      <c r="D8" s="6">
         <v>20</v>
       </c>
-      <c r="I8" s="6">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="6">
+        <f>B8*2.5*[1]条件输入!$E$5</f>
+        <v>3600</v>
+      </c>
+      <c r="H8" s="6">
+        <f>B8*2.5*[1]条件输入!$F$5</f>
+        <v>899.99999999999977</v>
+      </c>
+      <c r="I8" s="6">
+        <f>B8*1</f>
+        <v>1800</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1800</v>
+      </c>
       <c r="C9" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D9" s="6">
-        <f>C9*3.5*[1]条件输入!$E$5</f>
-        <v>5040</v>
-      </c>
-      <c r="E9" s="6">
-        <f>C9*3.5*[1]条件输入!$F$5</f>
-        <v>1259.9999999999998</v>
-      </c>
-      <c r="F9" s="6">
-        <f>C9*0.5</f>
-        <v>900</v>
-      </c>
-      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H9" s="6">
+      <c r="D9" s="6">
         <v>50</v>
       </c>
-      <c r="I9" s="6">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" s="6">
+        <f>B9*3.5*[1]条件输入!$E$5</f>
+        <v>5040</v>
+      </c>
+      <c r="H9" s="6">
+        <f>B9*3.5*[1]条件输入!$F$5</f>
+        <v>1259.9999999999998</v>
+      </c>
+      <c r="I9" s="6">
+        <f>B9*0.5</f>
+        <v>900</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1800</v>
+      </c>
       <c r="C10" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D10" s="6">
-        <f>C10*2.5*[1]条件输入!$E$5</f>
-        <v>3600</v>
-      </c>
-      <c r="E10" s="6">
-        <f>C10*2.5*[1]条件输入!$F$5</f>
-        <v>899.99999999999977</v>
-      </c>
-      <c r="F10" s="6">
-        <f>C10*1</f>
-        <v>1800</v>
-      </c>
-      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H10" s="6">
+      <c r="D10" s="6">
         <v>20</v>
       </c>
-      <c r="I10" s="6">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="6">
+        <f>B10*2.5*[1]条件输入!$E$5</f>
+        <v>3600</v>
+      </c>
+      <c r="H10" s="6">
+        <f>B10*2.5*[1]条件输入!$F$5</f>
+        <v>899.99999999999977</v>
+      </c>
+      <c r="I10" s="6">
+        <f>B10*1</f>
+        <v>1800</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1800</v>
+      </c>
       <c r="C11" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D11" s="6">
-        <f>C11*4*[1]条件输入!$E$5</f>
-        <v>5760</v>
-      </c>
-      <c r="E11" s="6">
-        <f>C11*4*[1]条件输入!$F$5</f>
-        <v>1439.9999999999998</v>
-      </c>
-      <c r="F11" s="6">
-        <f>C11*0.5</f>
-        <v>900</v>
-      </c>
-      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H11" s="6">
+      <c r="D11" s="6">
         <v>50</v>
       </c>
-      <c r="I11" s="6">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
+      <c r="G11" s="6">
+        <f>B11*4*[1]条件输入!$E$5</f>
+        <v>5760</v>
+      </c>
+      <c r="H11" s="6">
+        <f>B11*4*[1]条件输入!$F$5</f>
+        <v>1439.9999999999998</v>
+      </c>
+      <c r="I11" s="6">
+        <f>B11*0.5</f>
+        <v>900</v>
+      </c>
+      <c r="J11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA7A5A-64FD-4C3E-B38B-55920517D719}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E5AF25-8D6A-402A-A44B-87BF711D6632}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="570" windowWidth="25470" windowHeight="12795" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-345" yWindow="1275" windowWidth="25470" windowHeight="13815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -7787,7 +7787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEC6D52-00C5-4DB1-97AD-7F926EC519CA}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
@@ -8810,7 +8810,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8853,7 +8853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5">
+    <row r="2" spans="1:11">
       <c r="A2" s="21" t="s">
         <v>156</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42.75">
+    <row r="2" spans="1:13" ht="28.5">
       <c r="A2" s="21" t="s">
         <v>156</v>
       </c>
@@ -9699,7 +9699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B10D049-4633-42E3-9CD9-63531EF6C06B}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -10265,7 +10265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912B1AE-2865-4A3D-9A4D-9928FFEFE705}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E5AF25-8D6A-402A-A44B-87BF711D6632}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71577583-0725-47F9-8A0D-C530751E8E2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="1275" windowWidth="25470" windowHeight="13815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1620" windowWidth="25470" windowHeight="13815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>

--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71577583-0725-47F9-8A0D-C530751E8E2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74B0BD2-4E1B-4F70-B5A8-5569BD8D0539}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1620" windowWidth="25470" windowHeight="13815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -559,33 +559,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earth excavation</t>
-  </si>
-  <si>
-    <t>Fortificationintensity</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bearingcapacity</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basictype</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ultimateload</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloorradiusR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -594,18 +567,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Pilediameter</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singlepilelength</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Area</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -618,26 +579,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>M48PrestressedAnchor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C80secondarygrouting</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>扩展基础</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Stone excavation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthwork backfill</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Earthexcavation</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -963,6 +908,62 @@
   <si>
     <t>Earthworkbackfill_4</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortificationIntensity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BearingCapacity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UltimateLoad</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloorRadiusR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PileDiameter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinglePileLength</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M48PreStressedAnchor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C80SecondaryGrouting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthExcavation_Turbine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneExcavation_Turbine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWorkBackFill_Turbine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1569,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1585,9 +1586,9 @@
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25.5">
@@ -1658,72 +1659,72 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15">
+    <row r="2" spans="1:23" s="22" customFormat="1" ht="15">
       <c r="A2" s="22" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="22" t="s">
         <v>95</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3700,7 +3701,7 @@
         <v>180</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D29" s="10">
         <v>70000</v>
@@ -7294,49 +7295,49 @@
     </row>
     <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7974,88 +7975,88 @@
     </row>
     <row r="3" spans="1:29" ht="15">
       <c r="A3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="U3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="W3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="X3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="Z3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC3" s="22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -8855,7 +8856,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>68</v>
@@ -8884,32 +8885,32 @@
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -9260,7 +9261,7 @@
     </row>
     <row r="2" spans="1:13" ht="28.5">
       <c r="A2" s="21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>74</v>
@@ -9298,41 +9299,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9699,7 +9700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B10D049-4633-42E3-9CD9-63531EF6C06B}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -9758,7 +9759,7 @@
     </row>
     <row r="2" spans="1:15" ht="42.75">
       <c r="A2" s="21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>79</v>
@@ -9797,51 +9798,51 @@
         <v>67</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10292,7 +10293,7 @@
     </row>
     <row r="2" spans="1:10" ht="28.5">
       <c r="A2" s="21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>91</v>
@@ -10321,28 +10322,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J3" s="18"/>
     </row>

--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74B0BD2-4E1B-4F70-B5A8-5569BD8D0539}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E55A3-22FD-45DA-BBF1-0014E14388A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="4530" windowWidth="27450" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="197">
   <si>
     <t>设防烈度</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -595,11 +595,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Turbinecapacity</t>
+    <t>Reinforcement</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>convertingstation</t>
+    <t>capacity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -611,58 +619,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>high</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wallthickness</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Highpressure</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C35concretetop</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C15cushion</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MU10brick</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforcement</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>capacity</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Innerwallarea</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -963,6 +919,46 @@
   </si>
   <si>
     <t>EarthWorkBackFill_Turbine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurbineCapacity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertStation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallThickness</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighPressure</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C35ConcreteTop</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15Cushion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU10Brick</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1570,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -1661,19 +1657,19 @@
     </row>
     <row r="2" spans="1:23" s="22" customFormat="1" ht="15">
       <c r="A2" s="22" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>96</v>
@@ -1691,16 +1687,16 @@
         <v>95</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>98</v>
@@ -1712,19 +1708,19 @@
         <v>100</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7186,8 +7182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27317D-277C-4FE1-9B36-7AD7F1F8E3EC}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7293,42 +7289,42 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" s="22" customFormat="1" ht="15">
+      <c r="A3" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="L3" s="22" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>102</v>
@@ -7975,76 +7971,76 @@
     </row>
     <row r="3" spans="1:29" ht="15">
       <c r="A3" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="N3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="P3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="U3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="W3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="X3" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="Z3" s="22" t="s">
         <v>102</v>
@@ -8056,7 +8052,7 @@
         <v>104</v>
       </c>
       <c r="AC3" s="22" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -8856,7 +8852,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="21" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>68</v>
@@ -8885,32 +8881,32 @@
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -9261,7 +9257,7 @@
     </row>
     <row r="2" spans="1:13" ht="28.5">
       <c r="A2" s="21" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>74</v>
@@ -9299,41 +9295,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9759,7 +9755,7 @@
     </row>
     <row r="2" spans="1:15" ht="42.75">
       <c r="A2" s="21" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>79</v>
@@ -9798,51 +9794,51 @@
         <v>67</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10293,7 +10289,7 @@
     </row>
     <row r="2" spans="1:10" ht="28.5">
       <c r="A2" s="21" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>91</v>
@@ -10322,28 +10318,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J3" s="18"/>
     </row>

--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E55A3-22FD-45DA-BBF1-0014E14388A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF1E8D9-42C6-4E44-AF56-0B85C838F67D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="4530" windowWidth="27450" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="7455" windowWidth="27450" windowHeight="13830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="195">
   <si>
     <t>设防烈度</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -599,102 +599,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>capacity</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Innerwallarea</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walllength</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stonemasonryfoot</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stonemasonrydrainageditch</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Roadarea</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greenarea</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comprehensivebuilding</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipmentbuilding</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Affiliatedbuilding</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C30concrete</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C15concretecushion</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maintransformerfoundation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccidentoilpoolC30concrete</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccidentoilpoolC15cushion</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accidentoilpoolreinforcement</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FoundationC25Concrete</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Outdoorstructure</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precastconcretepole</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightningrod</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Slopearea</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -959,6 +867,90 @@
   </si>
   <si>
     <t>MU10Brick</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnerWallArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallLength</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMasonryFoot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMasonryDrainageDitch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComprehensiveBuilding</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentBuilding</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffiliatedBuilding</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30Concrete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15ConcreteCushion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTransformerFoundation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccidentOilPoolC30Concrete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccidentOilPoolC15Cushion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccidentOilPoolReinforcement</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutdoorStructure</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrecastConcretePole</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningRod</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1214,6 +1206,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1309,7 +1369,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1657,19 +1717,19 @@
     </row>
     <row r="2" spans="1:23" s="22" customFormat="1" ht="15">
       <c r="A2" s="22" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>96</v>
@@ -1687,16 +1747,16 @@
         <v>95</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>98</v>
@@ -1708,19 +1768,19 @@
         <v>100</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7182,7 +7242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27317D-277C-4FE1-9B36-7AD7F1F8E3EC}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -7291,34 +7351,34 @@
     </row>
     <row r="3" spans="1:16" s="22" customFormat="1" ht="15">
       <c r="A3" s="22" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>105</v>
@@ -7784,8 +7844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEC6D52-00C5-4DB1-97AD-7F926EC519CA}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7971,76 +8031,76 @@
     </row>
     <row r="3" spans="1:29" ht="15">
       <c r="A3" s="22" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="V3" s="22" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="Z3" s="22" t="s">
         <v>102</v>
@@ -8052,7 +8112,7 @@
         <v>104</v>
       </c>
       <c r="AC3" s="22" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -8852,7 +8912,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="21" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>68</v>
@@ -8881,32 +8941,32 @@
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -9257,7 +9317,7 @@
     </row>
     <row r="2" spans="1:13" ht="28.5">
       <c r="A2" s="21" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>74</v>
@@ -9295,41 +9355,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9755,7 +9815,7 @@
     </row>
     <row r="2" spans="1:15" ht="42.75">
       <c r="A2" s="21" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>79</v>
@@ -9794,51 +9854,51 @@
         <v>67</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10289,7 +10349,7 @@
     </row>
     <row r="2" spans="1:10" ht="28.5">
       <c r="A2" s="21" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>91</v>
@@ -10318,28 +10378,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="J3" s="18"/>
     </row>

--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF1E8D9-42C6-4E44-AF56-0B85C838F67D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0049DA-9FE0-4A19-A716-234FEF1A238D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="7455" windowWidth="27450" windowHeight="13830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="6630" windowWidth="27450" windowHeight="13830" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -611,169 +611,17 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>terrain_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gradedgravelbase_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C30concretepavement_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundtubeculvert_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stonemasonrydrainageditch_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mortarstoneretainingwall_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turfslopeprotection_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Signage_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Waveguardrail_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gradedgravelpavement_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundtubeculvert_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stonemasonrydrainageditch_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mortarstoneretainingwall_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turfslopeprotection_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>桥梁</t>
-  </si>
-  <si>
-    <t>Mountainpavement_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C30concretepavement_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundtubeculvert_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stonemasonrydrainageditch_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mortarstoneretainingwall_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turfslopeprotection_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Signage_3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Waveguardrail_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Landuse_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthexcavation_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stoneexcavation_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthworkbackfill_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthexcavation_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stoneexcavation_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthworkbackfill_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthexcavation_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stoneexcavation_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthworkbackfill_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bridge_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generalsiteleveling_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stonemasonrydrainageditch_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mortarstoneprotectionslope_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turfslopeprotection_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthexcavation_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stoneexcavation_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthworkbackfill_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>FortificationIntensity</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -952,6 +800,158 @@
   <si>
     <t>LightningRod</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GradedGravelPavement_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundTubeCulvert_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMasonryDrainageDitch_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MortarStoneRetainingWall_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurfSlopeProtection_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthExcavation_RoadBase_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneExcavation_RoadBase_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWorkBackFill_RoadBase_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GradedGravelBase_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30ConcretePavement_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundTubeCulvert_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMasonryDrainageDitch_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MortarStoneRetainingWall_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaveGuardrail_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthExcavation_RoadBase_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneExcavation_RoadBase_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWorkBackFill_RoadBase_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MountainPavement_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30ConcretePavement_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundTubeCulvert_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMasonryDrainageDitch_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MortarStoneRetainingWall_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurfSlopeProtection_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaveGuardrail_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandUse_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthExcavation_RoadBase_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneExcavation_RoadBase_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWorkBackFill_RoadBase_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridge_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneralSiteLeveling_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMasonryDrainageDitch_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MortarStoneProtectionSlope_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurfSlopeProtection_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthExcavation_RoadBase_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneExcavation_RoadBase_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWorkBackFill_RoadBase_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurfSlopeProtection_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1717,19 +1717,19 @@
     </row>
     <row r="2" spans="1:23" s="22" customFormat="1" ht="15">
       <c r="A2" s="22" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>96</v>
@@ -1747,16 +1747,16 @@
         <v>95</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>98</v>
@@ -1768,19 +1768,19 @@
         <v>100</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7351,34 +7351,34 @@
     </row>
     <row r="3" spans="1:16" s="22" customFormat="1" ht="15">
       <c r="A3" s="22" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>105</v>
@@ -7844,17 +7844,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEC6D52-00C5-4DB1-97AD-7F926EC519CA}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -8031,76 +8054,76 @@
     </row>
     <row r="3" spans="1:29" ht="15">
       <c r="A3" s="22" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="U3" s="22" t="s">
         <v>106</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="Z3" s="22" t="s">
         <v>102</v>
@@ -8867,18 +8890,20 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8941,32 +8966,32 @@
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -9261,20 +9286,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDCBB96-49E7-4AF1-99A5-1885089E0E0E}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9355,41 +9384,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9756,17 +9785,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B10D049-4633-42E3-9CD9-63531EF6C06B}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5">
@@ -9854,51 +9892,51 @@
         <v>67</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10323,17 +10361,18 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10378,28 +10417,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J3" s="18"/>
     </row>

--- a/autocrword/models/chapter_8/chapter8database.xlsx
+++ b/autocrword/models/chapter_8/chapter8database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0049DA-9FE0-4A19-A716-234FEF1A238D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB859185-D4AA-4B0D-A00E-8DF3A4355B63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="6630" windowWidth="27450" windowHeight="13830" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-60" yWindow="4425" windowWidth="28800" windowHeight="13830" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风机基础数据" sheetId="1" r:id="rId1"/>
@@ -9286,7 +9286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDCBB96-49E7-4AF1-99A5-1885089E0E0E}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -9785,8 +9785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B10D049-4633-42E3-9CD9-63531EF6C06B}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9851,7 +9851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="42.75">
+    <row r="2" spans="1:15">
       <c r="A2" s="21" t="s">
         <v>108</v>
       </c>
